--- a/资料/CRC_Demostration.xlsx
+++ b/资料/CRC_Demostration.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="13935" windowHeight="9120"/>
@@ -11,17 +11,91 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+  <si>
+    <t>xor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0010  1011  0011  1110  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <t>m:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>接下来换个角度看问题：m不移动，p向右移动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了演示方便，p改成11101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>last step</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果把4bit看成一组，第4 6步骤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,8 +135,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,8 +181,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -203,19 +303,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFC00000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFC00000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFC00000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1" tint="0.24994659260841701"/>
+      </left>
+      <right style="double">
+        <color theme="1" tint="0.24994659260841701"/>
+      </right>
+      <top style="double">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color theme="1" tint="0.24994659260841701"/>
+      </left>
+      <right style="double">
+        <color theme="1" tint="0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="1" tint="0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="1" tint="0.24994659260841701"/>
+      </right>
+      <top style="mediumDashed">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="1" tint="0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color theme="1" tint="0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="1" tint="0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color theme="1" tint="0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFC00000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -225,15 +461,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,11 +482,149 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -267,6 +632,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -278,7 +711,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -555,308 +988,4337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C10:AE19"/>
+  <dimension ref="C1:AL141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="O141" sqref="O141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="6" width="5.375" customWidth="1"/>
-    <col min="7" max="9" width="5.625" customWidth="1"/>
-    <col min="10" max="10" width="7.125" customWidth="1"/>
-    <col min="11" max="11" width="5.25" customWidth="1"/>
-    <col min="12" max="12" width="5.75" customWidth="1"/>
-    <col min="13" max="13" width="5.375" customWidth="1"/>
-    <col min="14" max="14" width="5.25" customWidth="1"/>
-    <col min="15" max="15" width="5.375" customWidth="1"/>
-    <col min="16" max="16" width="6.5" customWidth="1"/>
-    <col min="17" max="17" width="6.625" customWidth="1"/>
-    <col min="18" max="18" width="5.75" customWidth="1"/>
-    <col min="19" max="19" width="6" customWidth="1"/>
-    <col min="20" max="20" width="6.375" customWidth="1"/>
-    <col min="21" max="21" width="6.875" customWidth="1"/>
-    <col min="22" max="22" width="6.75" customWidth="1"/>
-    <col min="23" max="23" width="6.5" customWidth="1"/>
-    <col min="24" max="24" width="6.875" customWidth="1"/>
-    <col min="25" max="25" width="6.75" customWidth="1"/>
-    <col min="26" max="26" width="6.375" customWidth="1"/>
-    <col min="27" max="27" width="7" customWidth="1"/>
-    <col min="28" max="28" width="5.5" customWidth="1"/>
-    <col min="29" max="29" width="7.125" customWidth="1"/>
-    <col min="30" max="30" width="5.875" customWidth="1"/>
-    <col min="31" max="31" width="6.5" customWidth="1"/>
+    <col min="1" max="2" width="9" style="12"/>
+    <col min="3" max="3" width="4.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="4.625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="12" customWidth="1"/>
+    <col min="8" max="8" width="4.375" style="12" customWidth="1"/>
+    <col min="9" max="9" width="4.25" style="12" customWidth="1"/>
+    <col min="10" max="10" width="4.625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="4.375" style="12" customWidth="1"/>
+    <col min="12" max="12" width="4.625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="4.375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="4" style="12" customWidth="1"/>
+    <col min="15" max="15" width="4.5" style="12" customWidth="1"/>
+    <col min="16" max="16" width="4.625" style="12" customWidth="1"/>
+    <col min="17" max="17" width="4.25" style="12" customWidth="1"/>
+    <col min="18" max="18" width="5.25" style="12" customWidth="1"/>
+    <col min="19" max="19" width="5.75" style="12" customWidth="1"/>
+    <col min="20" max="20" width="5.375" style="12" customWidth="1"/>
+    <col min="21" max="21" width="5.25" style="12" customWidth="1"/>
+    <col min="22" max="22" width="5.375" style="12" customWidth="1"/>
+    <col min="23" max="23" width="5.75" style="12" customWidth="1"/>
+    <col min="24" max="24" width="6.625" style="12" customWidth="1"/>
+    <col min="25" max="25" width="5.75" style="12" customWidth="1"/>
+    <col min="26" max="26" width="6" style="12" customWidth="1"/>
+    <col min="27" max="27" width="6.375" style="12" customWidth="1"/>
+    <col min="28" max="29" width="5.75" style="12" customWidth="1"/>
+    <col min="30" max="30" width="5.875" style="12" customWidth="1"/>
+    <col min="31" max="31" width="6.875" style="12" customWidth="1"/>
+    <col min="32" max="32" width="6.75" style="12" customWidth="1"/>
+    <col min="33" max="33" width="6.375" style="12" customWidth="1"/>
+    <col min="34" max="34" width="7" style="12" customWidth="1"/>
+    <col min="35" max="35" width="5.5" style="12" customWidth="1"/>
+    <col min="36" max="36" width="7.125" style="12" customWidth="1"/>
+    <col min="37" max="37" width="5.875" style="12" customWidth="1"/>
+    <col min="38" max="38" width="6.5" style="12" customWidth="1"/>
+    <col min="39" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="10" spans="3:31" ht="31.5" customHeight="1">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="3:31" ht="30" customHeight="1" thickBot="1"/>
-    <row r="12" spans="3:31" ht="27" customHeight="1" thickTop="1" thickBot="1">
-      <c r="K12" s="3">
+    <row r="1" spans="10:38" ht="20.25" customHeight="1"/>
+    <row r="10" spans="10:38" ht="31.5" customHeight="1">
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="R10" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="12">
+        <v>10101</v>
+      </c>
+    </row>
+    <row r="11" spans="10:38" ht="30" customHeight="1" thickBot="1">
+      <c r="R11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="S11" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="10:38" ht="27" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R12" s="2">
         <v>4</v>
       </c>
-      <c r="L12" s="4">
+      <c r="S12" s="3">
         <v>3</v>
       </c>
-      <c r="M12" s="4">
+      <c r="T12" s="3">
         <v>2</v>
       </c>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="6"/>
-    </row>
-    <row r="13" spans="3:31" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="K13" s="7"/>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>1</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>0</v>
-      </c>
-      <c r="R13" s="8">
-        <v>1</v>
-      </c>
-      <c r="S13" s="8">
-        <v>1</v>
-      </c>
-      <c r="T13" s="9">
-        <v>0</v>
-      </c>
-      <c r="U13" s="9">
-        <v>0</v>
-      </c>
-      <c r="V13" s="9">
-        <v>1</v>
-      </c>
-      <c r="W13" s="9">
-        <v>1</v>
-      </c>
-      <c r="X13" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z13" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="3:31" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="K14" s="13">
-        <v>1</v>
-      </c>
-      <c r="L14" s="14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="14">
-        <v>1</v>
-      </c>
-      <c r="N14" s="14">
-        <v>0</v>
-      </c>
-      <c r="O14" s="14">
-        <v>1</v>
-      </c>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
-      <c r="AE14" s="16"/>
-    </row>
-    <row r="15" spans="3:31" ht="27.75" customHeight="1" thickTop="1" thickBot="1"/>
-    <row r="16" spans="3:31" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="K16" s="3">
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
+      <c r="AC12" s="28"/>
+      <c r="AD12" s="28"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="28"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="28"/>
+      <c r="AL12" s="29"/>
+    </row>
+    <row r="13" spans="10:38" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R13" s="11"/>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="4">
+        <v>1</v>
+      </c>
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="10:38" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R14" s="9">
+        <v>1</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0</v>
+      </c>
+      <c r="T14" s="10">
+        <v>1</v>
+      </c>
+      <c r="U14" s="10">
+        <v>0</v>
+      </c>
+      <c r="V14" s="10">
+        <v>1</v>
+      </c>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="31"/>
+    </row>
+    <row r="15" spans="10:38" ht="27.75" customHeight="1" thickTop="1" thickBot="1"/>
+    <row r="16" spans="10:38" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R16" s="2">
         <v>4</v>
       </c>
-      <c r="L16" s="4">
+      <c r="S16" s="3">
         <v>3</v>
       </c>
-      <c r="M16" s="4">
+      <c r="T16" s="3">
         <v>2</v>
       </c>
-      <c r="N16" s="4">
-        <v>1</v>
-      </c>
-      <c r="O16" s="4">
-        <v>0</v>
-      </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="6"/>
-    </row>
-    <row r="17" spans="11:31" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <c r="K17" s="7"/>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="N17" s="2">
-        <v>1</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
-      <c r="P17" s="8">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="8">
-        <v>0</v>
-      </c>
-      <c r="R17" s="8">
-        <v>1</v>
-      </c>
-      <c r="S17" s="8">
-        <v>1</v>
-      </c>
-      <c r="T17" s="9">
-        <v>0</v>
-      </c>
-      <c r="U17" s="9">
-        <v>0</v>
-      </c>
-      <c r="V17" s="9">
-        <v>1</v>
-      </c>
-      <c r="W17" s="9">
-        <v>1</v>
-      </c>
-      <c r="X17" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="10">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="10">
-        <v>1</v>
-      </c>
-      <c r="AA17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="11:31" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="K18" s="13">
-        <v>1</v>
-      </c>
-      <c r="L18" s="14">
-        <v>0</v>
-      </c>
-      <c r="M18" s="14">
-        <v>1</v>
-      </c>
-      <c r="N18" s="14">
-        <v>0</v>
-      </c>
-      <c r="O18" s="14">
-        <v>1</v>
-      </c>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
-      <c r="AE18" s="16"/>
-    </row>
-    <row r="19" spans="11:31" ht="14.25" thickTop="1"/>
+      <c r="U16" s="3">
+        <v>1</v>
+      </c>
+      <c r="V16" s="3">
+        <v>0</v>
+      </c>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="28"/>
+      <c r="AK16" s="28"/>
+      <c r="AL16" s="29"/>
+    </row>
+    <row r="17" spans="16:38" ht="24" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R17" s="11">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1</v>
+      </c>
+      <c r="W17" s="4">
+        <v>0</v>
+      </c>
+      <c r="X17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="8"/>
+    </row>
+    <row r="18" spans="16:38" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R18" s="9">
+        <v>1</v>
+      </c>
+      <c r="S18" s="10">
+        <v>0</v>
+      </c>
+      <c r="T18" s="10">
+        <v>1</v>
+      </c>
+      <c r="U18" s="10">
+        <v>0</v>
+      </c>
+      <c r="V18" s="10">
+        <v>1</v>
+      </c>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="30"/>
+      <c r="AJ18" s="30"/>
+      <c r="AK18" s="30"/>
+      <c r="AL18" s="31"/>
+    </row>
+    <row r="19" spans="16:38" ht="28.5" customHeight="1" thickTop="1" thickBot="1"/>
+    <row r="20" spans="16:38" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R20" s="2">
+        <v>4</v>
+      </c>
+      <c r="S20" s="3">
+        <v>3</v>
+      </c>
+      <c r="T20" s="3">
+        <v>2</v>
+      </c>
+      <c r="U20" s="3">
+        <v>1</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="29"/>
+    </row>
+    <row r="21" spans="16:38" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="Q21" s="12">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>1</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <v>1</v>
+      </c>
+      <c r="X21" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="8"/>
+    </row>
+    <row r="22" spans="16:38" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R22" s="9">
+        <v>1</v>
+      </c>
+      <c r="S22" s="10">
+        <v>0</v>
+      </c>
+      <c r="T22" s="10">
+        <v>1</v>
+      </c>
+      <c r="U22" s="10">
+        <v>0</v>
+      </c>
+      <c r="V22" s="10">
+        <v>1</v>
+      </c>
+      <c r="W22" s="30"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="30"/>
+      <c r="AG22" s="30"/>
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="30"/>
+      <c r="AJ22" s="30"/>
+      <c r="AK22" s="30"/>
+      <c r="AL22" s="31"/>
+    </row>
+    <row r="23" spans="16:38" ht="15" thickTop="1" thickBot="1"/>
+    <row r="24" spans="16:38" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R24" s="2">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3">
+        <v>2</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="28"/>
+      <c r="X24" s="28"/>
+      <c r="Y24" s="28"/>
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="28"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="28"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="28"/>
+      <c r="AL24" s="29"/>
+    </row>
+    <row r="25" spans="16:38" ht="27" customHeight="1" thickTop="1" thickBot="1">
+      <c r="P25" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>0</v>
+      </c>
+      <c r="R25" s="22">
+        <v>1</v>
+      </c>
+      <c r="S25" s="13">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>1</v>
+      </c>
+      <c r="W25" s="4">
+        <v>1</v>
+      </c>
+      <c r="X25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="8"/>
+    </row>
+    <row r="26" spans="16:38" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R26" s="23">
+        <v>1</v>
+      </c>
+      <c r="S26" s="10">
+        <v>0</v>
+      </c>
+      <c r="T26" s="10">
+        <v>1</v>
+      </c>
+      <c r="U26" s="10">
+        <v>0</v>
+      </c>
+      <c r="V26" s="10">
+        <v>1</v>
+      </c>
+      <c r="W26" s="30"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="30"/>
+      <c r="AA26" s="30"/>
+      <c r="AB26" s="30"/>
+      <c r="AC26" s="30"/>
+      <c r="AD26" s="30"/>
+      <c r="AE26" s="30"/>
+      <c r="AF26" s="30"/>
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="30"/>
+      <c r="AI26" s="30"/>
+      <c r="AJ26" s="30"/>
+      <c r="AK26" s="30"/>
+      <c r="AL26" s="31"/>
+    </row>
+    <row r="27" spans="16:38" ht="15" thickTop="1" thickBot="1">
+      <c r="R27" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+    </row>
+    <row r="28" spans="16:38" ht="28.5" customHeight="1" thickBot="1">
+      <c r="R28" s="16">
+        <v>4</v>
+      </c>
+      <c r="S28" s="17">
+        <v>3</v>
+      </c>
+      <c r="T28" s="17">
+        <v>2</v>
+      </c>
+      <c r="U28" s="17">
+        <v>1</v>
+      </c>
+      <c r="V28" s="17">
+        <v>0</v>
+      </c>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+      <c r="Z28" s="32"/>
+      <c r="AA28" s="32"/>
+      <c r="AB28" s="32"/>
+      <c r="AC28" s="32"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="32"/>
+      <c r="AK28" s="32"/>
+      <c r="AL28" s="33"/>
+    </row>
+    <row r="29" spans="16:38" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="P29" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>0</v>
+      </c>
+      <c r="R29" s="24">
+        <v>0</v>
+      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1">
+        <v>0</v>
+      </c>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29" s="4">
+        <v>1</v>
+      </c>
+      <c r="X29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="18"/>
+    </row>
+    <row r="30" spans="16:38" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R30" s="25">
+        <v>1</v>
+      </c>
+      <c r="S30" s="19">
+        <v>0</v>
+      </c>
+      <c r="T30" s="19">
+        <v>1</v>
+      </c>
+      <c r="U30" s="19">
+        <v>0</v>
+      </c>
+      <c r="V30" s="19">
+        <v>1</v>
+      </c>
+      <c r="W30" s="34"/>
+      <c r="X30" s="34"/>
+      <c r="Y30" s="34"/>
+      <c r="Z30" s="34"/>
+      <c r="AA30" s="34"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
+      <c r="AD30" s="34"/>
+      <c r="AE30" s="34"/>
+      <c r="AF30" s="34"/>
+      <c r="AG30" s="34"/>
+      <c r="AH30" s="34"/>
+      <c r="AI30" s="34"/>
+      <c r="AJ30" s="34"/>
+      <c r="AK30" s="34"/>
+      <c r="AL30" s="35"/>
+    </row>
+    <row r="31" spans="16:38" ht="17.25" customHeight="1" thickBot="1"/>
+    <row r="32" spans="16:38" ht="24" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R32" s="2">
+        <v>4</v>
+      </c>
+      <c r="S32" s="3">
+        <v>3</v>
+      </c>
+      <c r="T32" s="3">
+        <v>2</v>
+      </c>
+      <c r="U32" s="3">
+        <v>1</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="28"/>
+      <c r="X32" s="28"/>
+      <c r="Y32" s="28"/>
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="28"/>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="28"/>
+      <c r="AE32" s="28"/>
+      <c r="AF32" s="28"/>
+      <c r="AG32" s="28"/>
+      <c r="AH32" s="28"/>
+      <c r="AI32" s="28"/>
+      <c r="AJ32" s="28"/>
+      <c r="AK32" s="28"/>
+      <c r="AL32" s="29"/>
+    </row>
+    <row r="33" spans="12:38" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="O33" s="12">
+        <v>0</v>
+      </c>
+      <c r="P33" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="12">
+        <v>0</v>
+      </c>
+      <c r="R33" s="11">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>1</v>
+      </c>
+      <c r="W33" s="4">
+        <v>0</v>
+      </c>
+      <c r="X33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="8"/>
+    </row>
+    <row r="34" spans="12:38" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R34" s="9">
+        <v>1</v>
+      </c>
+      <c r="S34" s="10">
+        <v>0</v>
+      </c>
+      <c r="T34" s="10">
+        <v>1</v>
+      </c>
+      <c r="U34" s="10">
+        <v>0</v>
+      </c>
+      <c r="V34" s="10">
+        <v>1</v>
+      </c>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="30"/>
+      <c r="AA34" s="30"/>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="30"/>
+      <c r="AD34" s="30"/>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="30"/>
+      <c r="AG34" s="30"/>
+      <c r="AH34" s="30"/>
+      <c r="AI34" s="30"/>
+      <c r="AJ34" s="30"/>
+      <c r="AK34" s="30"/>
+      <c r="AL34" s="31"/>
+    </row>
+    <row r="35" spans="12:38" ht="20.25" customHeight="1" thickTop="1" thickBot="1"/>
+    <row r="36" spans="12:38" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R36" s="2">
+        <v>4</v>
+      </c>
+      <c r="S36" s="3">
+        <v>3</v>
+      </c>
+      <c r="T36" s="3">
+        <v>2</v>
+      </c>
+      <c r="U36" s="3">
+        <v>1</v>
+      </c>
+      <c r="V36" s="3">
+        <v>0</v>
+      </c>
+      <c r="W36" s="28"/>
+      <c r="X36" s="28"/>
+      <c r="Y36" s="28"/>
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="28"/>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="28"/>
+      <c r="AE36" s="28"/>
+      <c r="AF36" s="28"/>
+      <c r="AG36" s="28"/>
+      <c r="AH36" s="28"/>
+      <c r="AI36" s="28"/>
+      <c r="AJ36" s="28"/>
+      <c r="AK36" s="28"/>
+      <c r="AL36" s="29"/>
+    </row>
+    <row r="37" spans="12:38" ht="32.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="N37" s="12">
+        <v>0</v>
+      </c>
+      <c r="O37" s="12">
+        <v>0</v>
+      </c>
+      <c r="P37" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="12">
+        <v>0</v>
+      </c>
+      <c r="R37" s="11">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0</v>
+      </c>
+      <c r="U37" s="1">
+        <v>1</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="4">
+        <v>0</v>
+      </c>
+      <c r="X37" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="6"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="8"/>
+    </row>
+    <row r="38" spans="12:38" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R38" s="9">
+        <v>1</v>
+      </c>
+      <c r="S38" s="10">
+        <v>0</v>
+      </c>
+      <c r="T38" s="10">
+        <v>1</v>
+      </c>
+      <c r="U38" s="10">
+        <v>0</v>
+      </c>
+      <c r="V38" s="10">
+        <v>1</v>
+      </c>
+      <c r="W38" s="30"/>
+      <c r="X38" s="30"/>
+      <c r="Y38" s="30"/>
+      <c r="Z38" s="30"/>
+      <c r="AA38" s="30"/>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AD38" s="30"/>
+      <c r="AE38" s="30"/>
+      <c r="AF38" s="30"/>
+      <c r="AG38" s="30"/>
+      <c r="AH38" s="30"/>
+      <c r="AI38" s="30"/>
+      <c r="AJ38" s="30"/>
+      <c r="AK38" s="30"/>
+      <c r="AL38" s="31"/>
+    </row>
+    <row r="39" spans="12:38" ht="20.25" customHeight="1" thickTop="1" thickBot="1"/>
+    <row r="40" spans="12:38" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R40" s="2">
+        <v>4</v>
+      </c>
+      <c r="S40" s="3">
+        <v>3</v>
+      </c>
+      <c r="T40" s="3">
+        <v>2</v>
+      </c>
+      <c r="U40" s="3">
+        <v>1</v>
+      </c>
+      <c r="V40" s="3">
+        <v>0</v>
+      </c>
+      <c r="W40" s="28"/>
+      <c r="X40" s="28"/>
+      <c r="Y40" s="28"/>
+      <c r="Z40" s="28"/>
+      <c r="AA40" s="28"/>
+      <c r="AB40" s="28"/>
+      <c r="AC40" s="28"/>
+      <c r="AD40" s="28"/>
+      <c r="AE40" s="28"/>
+      <c r="AF40" s="28"/>
+      <c r="AG40" s="28"/>
+      <c r="AH40" s="28"/>
+      <c r="AI40" s="28"/>
+      <c r="AJ40" s="28"/>
+      <c r="AK40" s="28"/>
+      <c r="AL40" s="29"/>
+    </row>
+    <row r="41" spans="12:38" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="M41" s="12">
+        <v>0</v>
+      </c>
+      <c r="N41" s="12">
+        <v>0</v>
+      </c>
+      <c r="O41" s="12">
+        <v>0</v>
+      </c>
+      <c r="P41" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="12">
+        <v>0</v>
+      </c>
+      <c r="R41" s="11">
+        <v>0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>1</v>
+      </c>
+      <c r="U41" s="1">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="4">
+        <v>1</v>
+      </c>
+      <c r="X41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA41" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="6">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="6"/>
+      <c r="AH41" s="6"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="8"/>
+    </row>
+    <row r="42" spans="12:38" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R42" s="9">
+        <v>1</v>
+      </c>
+      <c r="S42" s="10">
+        <v>0</v>
+      </c>
+      <c r="T42" s="10">
+        <v>1</v>
+      </c>
+      <c r="U42" s="10">
+        <v>0</v>
+      </c>
+      <c r="V42" s="10">
+        <v>1</v>
+      </c>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="30"/>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="30"/>
+      <c r="AF42" s="30"/>
+      <c r="AG42" s="30"/>
+      <c r="AH42" s="30"/>
+      <c r="AI42" s="30"/>
+      <c r="AJ42" s="30"/>
+      <c r="AK42" s="30"/>
+      <c r="AL42" s="31"/>
+    </row>
+    <row r="43" spans="12:38" ht="19.5" customHeight="1" thickTop="1" thickBot="1"/>
+    <row r="44" spans="12:38" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R44" s="2">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3">
+        <v>3</v>
+      </c>
+      <c r="T44" s="3">
+        <v>2</v>
+      </c>
+      <c r="U44" s="3">
+        <v>1</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="28"/>
+      <c r="X44" s="28"/>
+      <c r="Y44" s="28"/>
+      <c r="Z44" s="28"/>
+      <c r="AA44" s="28"/>
+      <c r="AB44" s="28"/>
+      <c r="AC44" s="28"/>
+      <c r="AD44" s="28"/>
+      <c r="AE44" s="28"/>
+      <c r="AF44" s="28"/>
+      <c r="AG44" s="28"/>
+      <c r="AH44" s="28"/>
+      <c r="AI44" s="28"/>
+      <c r="AJ44" s="28"/>
+      <c r="AK44" s="28"/>
+      <c r="AL44" s="29"/>
+    </row>
+    <row r="45" spans="12:38" ht="32.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="L45" s="12">
+        <v>0</v>
+      </c>
+      <c r="M45" s="12">
+        <v>0</v>
+      </c>
+      <c r="N45" s="12">
+        <v>0</v>
+      </c>
+      <c r="O45" s="12">
+        <v>0</v>
+      </c>
+      <c r="P45" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="12">
+        <v>0</v>
+      </c>
+      <c r="R45" s="11">
+        <v>0</v>
+      </c>
+      <c r="S45" s="1">
+        <v>1</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>1</v>
+      </c>
+      <c r="W45" s="4">
+        <v>1</v>
+      </c>
+      <c r="X45" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y45" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6"/>
+      <c r="AH45" s="6"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="8"/>
+    </row>
+    <row r="46" spans="12:38" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R46" s="9">
+        <v>1</v>
+      </c>
+      <c r="S46" s="10">
+        <v>0</v>
+      </c>
+      <c r="T46" s="10">
+        <v>1</v>
+      </c>
+      <c r="U46" s="10">
+        <v>0</v>
+      </c>
+      <c r="V46" s="10">
+        <v>1</v>
+      </c>
+      <c r="W46" s="30"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="30"/>
+      <c r="Z46" s="30"/>
+      <c r="AA46" s="30"/>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="30"/>
+      <c r="AD46" s="30"/>
+      <c r="AE46" s="30"/>
+      <c r="AF46" s="30"/>
+      <c r="AG46" s="30"/>
+      <c r="AH46" s="30"/>
+      <c r="AI46" s="30"/>
+      <c r="AJ46" s="30"/>
+      <c r="AK46" s="30"/>
+      <c r="AL46" s="31"/>
+    </row>
+    <row r="47" spans="12:38" ht="22.5" customHeight="1" thickTop="1" thickBot="1"/>
+    <row r="48" spans="12:38" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R48" s="2">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3">
+        <v>2</v>
+      </c>
+      <c r="U48" s="3">
+        <v>1</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="28"/>
+      <c r="X48" s="28"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="28"/>
+      <c r="AA48" s="28"/>
+      <c r="AB48" s="28"/>
+      <c r="AC48" s="28"/>
+      <c r="AD48" s="28"/>
+      <c r="AE48" s="28"/>
+      <c r="AF48" s="28"/>
+      <c r="AG48" s="28"/>
+      <c r="AH48" s="28"/>
+      <c r="AI48" s="28"/>
+      <c r="AJ48" s="28"/>
+      <c r="AK48" s="28"/>
+      <c r="AL48" s="29"/>
+    </row>
+    <row r="49" spans="9:38" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="K49" s="12">
+        <v>0</v>
+      </c>
+      <c r="L49" s="12">
+        <v>0</v>
+      </c>
+      <c r="M49" s="12">
+        <v>0</v>
+      </c>
+      <c r="N49" s="12">
+        <v>0</v>
+      </c>
+      <c r="O49" s="12">
+        <v>0</v>
+      </c>
+      <c r="P49" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="12">
+        <v>0</v>
+      </c>
+      <c r="R49" s="22">
+        <v>1</v>
+      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1">
+        <v>0</v>
+      </c>
+      <c r="U49" s="1">
+        <v>1</v>
+      </c>
+      <c r="V49" s="1">
+        <v>1</v>
+      </c>
+      <c r="W49" s="4">
+        <v>1</v>
+      </c>
+      <c r="X49" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="8"/>
+    </row>
+    <row r="50" spans="9:38" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R50" s="23">
+        <v>1</v>
+      </c>
+      <c r="S50" s="10">
+        <v>0</v>
+      </c>
+      <c r="T50" s="10">
+        <v>1</v>
+      </c>
+      <c r="U50" s="10">
+        <v>0</v>
+      </c>
+      <c r="V50" s="10">
+        <v>1</v>
+      </c>
+      <c r="W50" s="30"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="30"/>
+      <c r="Z50" s="30"/>
+      <c r="AA50" s="30"/>
+      <c r="AB50" s="30"/>
+      <c r="AC50" s="30"/>
+      <c r="AD50" s="30"/>
+      <c r="AE50" s="30"/>
+      <c r="AF50" s="30"/>
+      <c r="AG50" s="30"/>
+      <c r="AH50" s="30"/>
+      <c r="AI50" s="30"/>
+      <c r="AJ50" s="30"/>
+      <c r="AK50" s="30"/>
+      <c r="AL50" s="31"/>
+    </row>
+    <row r="51" spans="9:38" ht="21" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R51" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
+    </row>
+    <row r="52" spans="9:38" ht="23.25" customHeight="1" thickBot="1">
+      <c r="R52" s="16">
+        <v>4</v>
+      </c>
+      <c r="S52" s="17">
+        <v>3</v>
+      </c>
+      <c r="T52" s="17">
+        <v>2</v>
+      </c>
+      <c r="U52" s="17">
+        <v>1</v>
+      </c>
+      <c r="V52" s="17">
+        <v>0</v>
+      </c>
+      <c r="W52" s="32"/>
+      <c r="X52" s="32"/>
+      <c r="Y52" s="32"/>
+      <c r="Z52" s="32"/>
+      <c r="AA52" s="32"/>
+      <c r="AB52" s="32"/>
+      <c r="AC52" s="32"/>
+      <c r="AD52" s="32"/>
+      <c r="AE52" s="32"/>
+      <c r="AF52" s="32"/>
+      <c r="AG52" s="32"/>
+      <c r="AH52" s="32"/>
+      <c r="AI52" s="32"/>
+      <c r="AJ52" s="32"/>
+      <c r="AK52" s="32"/>
+      <c r="AL52" s="33"/>
+    </row>
+    <row r="53" spans="9:38" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="K53" s="12">
+        <v>0</v>
+      </c>
+      <c r="L53" s="12">
+        <v>0</v>
+      </c>
+      <c r="M53" s="12">
+        <v>0</v>
+      </c>
+      <c r="N53" s="12">
+        <v>0</v>
+      </c>
+      <c r="O53" s="12">
+        <v>0</v>
+      </c>
+      <c r="P53" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="12">
+        <v>0</v>
+      </c>
+      <c r="R53" s="24">
+        <v>0</v>
+      </c>
+      <c r="S53" s="1">
+        <v>0</v>
+      </c>
+      <c r="T53" s="1">
+        <v>1</v>
+      </c>
+      <c r="U53" s="1">
+        <v>1</v>
+      </c>
+      <c r="V53" s="1">
+        <v>0</v>
+      </c>
+      <c r="W53" s="4">
+        <v>1</v>
+      </c>
+      <c r="X53" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y53" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="6"/>
+      <c r="AH53" s="6"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7"/>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="18"/>
+    </row>
+    <row r="54" spans="9:38" ht="24" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R54" s="25">
+        <v>1</v>
+      </c>
+      <c r="S54" s="19">
+        <v>0</v>
+      </c>
+      <c r="T54" s="19">
+        <v>1</v>
+      </c>
+      <c r="U54" s="19">
+        <v>0</v>
+      </c>
+      <c r="V54" s="19">
+        <v>1</v>
+      </c>
+      <c r="W54" s="34"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
+      <c r="AB54" s="34"/>
+      <c r="AC54" s="34"/>
+      <c r="AD54" s="34"/>
+      <c r="AE54" s="34"/>
+      <c r="AF54" s="34"/>
+      <c r="AG54" s="34"/>
+      <c r="AH54" s="34"/>
+      <c r="AI54" s="34"/>
+      <c r="AJ54" s="34"/>
+      <c r="AK54" s="34"/>
+      <c r="AL54" s="35"/>
+    </row>
+    <row r="55" spans="9:38" ht="23.25" customHeight="1" thickBot="1"/>
+    <row r="56" spans="9:38" ht="24" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R56" s="2">
+        <v>4</v>
+      </c>
+      <c r="S56" s="3">
+        <v>3</v>
+      </c>
+      <c r="T56" s="3">
+        <v>2</v>
+      </c>
+      <c r="U56" s="3">
+        <v>1</v>
+      </c>
+      <c r="V56" s="3">
+        <v>0</v>
+      </c>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="28"/>
+      <c r="AC56" s="28"/>
+      <c r="AD56" s="28"/>
+      <c r="AE56" s="28"/>
+      <c r="AF56" s="28"/>
+      <c r="AG56" s="28"/>
+      <c r="AH56" s="28"/>
+      <c r="AI56" s="28"/>
+      <c r="AJ56" s="28"/>
+      <c r="AK56" s="28"/>
+      <c r="AL56" s="29"/>
+    </row>
+    <row r="57" spans="9:38" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="J57" s="12">
+        <v>0</v>
+      </c>
+      <c r="K57" s="12">
+        <v>0</v>
+      </c>
+      <c r="L57" s="12">
+        <v>0</v>
+      </c>
+      <c r="M57" s="12">
+        <v>0</v>
+      </c>
+      <c r="N57" s="12">
+        <v>0</v>
+      </c>
+      <c r="O57" s="12">
+        <v>0</v>
+      </c>
+      <c r="P57" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="12">
+        <v>0</v>
+      </c>
+      <c r="R57" s="11">
+        <v>0</v>
+      </c>
+      <c r="S57" s="1">
+        <v>1</v>
+      </c>
+      <c r="T57" s="1">
+        <v>1</v>
+      </c>
+      <c r="U57" s="1">
+        <v>0</v>
+      </c>
+      <c r="V57" s="1">
+        <v>1</v>
+      </c>
+      <c r="W57" s="4">
+        <v>1</v>
+      </c>
+      <c r="X57" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y57" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="6"/>
+      <c r="AF57" s="6"/>
+      <c r="AG57" s="6"/>
+      <c r="AH57" s="6"/>
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="7"/>
+      <c r="AK57" s="7"/>
+      <c r="AL57" s="8"/>
+    </row>
+    <row r="58" spans="9:38" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R58" s="9">
+        <v>1</v>
+      </c>
+      <c r="S58" s="10">
+        <v>0</v>
+      </c>
+      <c r="T58" s="10">
+        <v>1</v>
+      </c>
+      <c r="U58" s="10">
+        <v>0</v>
+      </c>
+      <c r="V58" s="10">
+        <v>1</v>
+      </c>
+      <c r="W58" s="30"/>
+      <c r="X58" s="30"/>
+      <c r="Y58" s="30"/>
+      <c r="Z58" s="30"/>
+      <c r="AA58" s="30"/>
+      <c r="AB58" s="30"/>
+      <c r="AC58" s="30"/>
+      <c r="AD58" s="30"/>
+      <c r="AE58" s="30"/>
+      <c r="AF58" s="30"/>
+      <c r="AG58" s="30"/>
+      <c r="AH58" s="30"/>
+      <c r="AI58" s="30"/>
+      <c r="AJ58" s="30"/>
+      <c r="AK58" s="30"/>
+      <c r="AL58" s="31"/>
+    </row>
+    <row r="59" spans="9:38" ht="20.25" customHeight="1" thickTop="1" thickBot="1"/>
+    <row r="60" spans="9:38" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R60" s="2">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
+        <v>3</v>
+      </c>
+      <c r="T60" s="3">
+        <v>2</v>
+      </c>
+      <c r="U60" s="3">
+        <v>1</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="28"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="28"/>
+      <c r="AC60" s="28"/>
+      <c r="AD60" s="28"/>
+      <c r="AE60" s="28"/>
+      <c r="AF60" s="28"/>
+      <c r="AG60" s="28"/>
+      <c r="AH60" s="28"/>
+      <c r="AI60" s="28"/>
+      <c r="AJ60" s="28"/>
+      <c r="AK60" s="28"/>
+      <c r="AL60" s="29"/>
+    </row>
+    <row r="61" spans="9:38" ht="24" customHeight="1" thickTop="1" thickBot="1">
+      <c r="I61" s="12">
+        <v>0</v>
+      </c>
+      <c r="J61" s="12">
+        <v>0</v>
+      </c>
+      <c r="K61" s="12">
+        <v>0</v>
+      </c>
+      <c r="L61" s="12">
+        <v>0</v>
+      </c>
+      <c r="M61" s="12">
+        <v>0</v>
+      </c>
+      <c r="N61" s="12">
+        <v>0</v>
+      </c>
+      <c r="O61" s="12">
+        <v>0</v>
+      </c>
+      <c r="P61" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="12">
+        <v>0</v>
+      </c>
+      <c r="R61" s="22">
+        <v>1</v>
+      </c>
+      <c r="S61" s="1">
+        <v>1</v>
+      </c>
+      <c r="T61" s="1">
+        <v>0</v>
+      </c>
+      <c r="U61" s="1">
+        <v>1</v>
+      </c>
+      <c r="V61" s="1">
+        <v>1</v>
+      </c>
+      <c r="W61" s="4">
+        <v>1</v>
+      </c>
+      <c r="X61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="6"/>
+      <c r="AF61" s="6"/>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="6"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="7"/>
+      <c r="AL61" s="8"/>
+    </row>
+    <row r="62" spans="9:38" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R62" s="23">
+        <v>1</v>
+      </c>
+      <c r="S62" s="10">
+        <v>0</v>
+      </c>
+      <c r="T62" s="10">
+        <v>1</v>
+      </c>
+      <c r="U62" s="10">
+        <v>0</v>
+      </c>
+      <c r="V62" s="10">
+        <v>1</v>
+      </c>
+      <c r="W62" s="30"/>
+      <c r="X62" s="30"/>
+      <c r="Y62" s="30"/>
+      <c r="Z62" s="30"/>
+      <c r="AA62" s="30"/>
+      <c r="AB62" s="30"/>
+      <c r="AC62" s="30"/>
+      <c r="AD62" s="30"/>
+      <c r="AE62" s="30"/>
+      <c r="AF62" s="30"/>
+      <c r="AG62" s="30"/>
+      <c r="AH62" s="30"/>
+      <c r="AI62" s="30"/>
+      <c r="AJ62" s="30"/>
+      <c r="AK62" s="30"/>
+      <c r="AL62" s="31"/>
+    </row>
+    <row r="63" spans="9:38" ht="18" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R63" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="20"/>
+    </row>
+    <row r="64" spans="9:38" ht="21" customHeight="1" thickBot="1">
+      <c r="R64" s="16">
+        <v>4</v>
+      </c>
+      <c r="S64" s="17">
+        <v>3</v>
+      </c>
+      <c r="T64" s="17">
+        <v>2</v>
+      </c>
+      <c r="U64" s="17">
+        <v>1</v>
+      </c>
+      <c r="V64" s="17">
+        <v>0</v>
+      </c>
+      <c r="W64" s="32"/>
+      <c r="X64" s="32"/>
+      <c r="Y64" s="32"/>
+      <c r="Z64" s="32"/>
+      <c r="AA64" s="32"/>
+      <c r="AB64" s="32"/>
+      <c r="AC64" s="32"/>
+      <c r="AD64" s="32"/>
+      <c r="AE64" s="32"/>
+      <c r="AF64" s="32"/>
+      <c r="AG64" s="32"/>
+      <c r="AH64" s="32"/>
+      <c r="AI64" s="32"/>
+      <c r="AJ64" s="32"/>
+      <c r="AK64" s="32"/>
+      <c r="AL64" s="33"/>
+    </row>
+    <row r="65" spans="7:38" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="I65" s="12">
+        <v>0</v>
+      </c>
+      <c r="J65" s="12">
+        <v>0</v>
+      </c>
+      <c r="K65" s="12">
+        <v>0</v>
+      </c>
+      <c r="L65" s="12">
+        <v>0</v>
+      </c>
+      <c r="M65" s="12">
+        <v>0</v>
+      </c>
+      <c r="N65" s="12">
+        <v>0</v>
+      </c>
+      <c r="O65" s="12">
+        <v>0</v>
+      </c>
+      <c r="P65" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="12">
+        <v>0</v>
+      </c>
+      <c r="R65" s="24">
+        <v>0</v>
+      </c>
+      <c r="S65" s="1">
+        <v>1</v>
+      </c>
+      <c r="T65" s="1">
+        <v>1</v>
+      </c>
+      <c r="U65" s="1">
+        <v>1</v>
+      </c>
+      <c r="V65" s="1">
+        <v>0</v>
+      </c>
+      <c r="W65" s="4">
+        <v>1</v>
+      </c>
+      <c r="X65" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="5"/>
+      <c r="AD65" s="5"/>
+      <c r="AE65" s="6"/>
+      <c r="AF65" s="6"/>
+      <c r="AG65" s="6"/>
+      <c r="AH65" s="6"/>
+      <c r="AI65" s="7"/>
+      <c r="AJ65" s="7"/>
+      <c r="AK65" s="7"/>
+      <c r="AL65" s="18"/>
+    </row>
+    <row r="66" spans="7:38" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R66" s="25">
+        <v>1</v>
+      </c>
+      <c r="S66" s="19">
+        <v>0</v>
+      </c>
+      <c r="T66" s="19">
+        <v>1</v>
+      </c>
+      <c r="U66" s="19">
+        <v>0</v>
+      </c>
+      <c r="V66" s="19">
+        <v>1</v>
+      </c>
+      <c r="W66" s="34"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="34"/>
+      <c r="AC66" s="34"/>
+      <c r="AD66" s="34"/>
+      <c r="AE66" s="34"/>
+      <c r="AF66" s="34"/>
+      <c r="AG66" s="34"/>
+      <c r="AH66" s="34"/>
+      <c r="AI66" s="34"/>
+      <c r="AJ66" s="34"/>
+      <c r="AK66" s="34"/>
+      <c r="AL66" s="35"/>
+    </row>
+    <row r="67" spans="7:38" ht="14.25" thickBot="1"/>
+    <row r="68" spans="7:38" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R68" s="2">
+        <v>4</v>
+      </c>
+      <c r="S68" s="3">
+        <v>3</v>
+      </c>
+      <c r="T68" s="3">
+        <v>2</v>
+      </c>
+      <c r="U68" s="3">
+        <v>1</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="28"/>
+      <c r="X68" s="28"/>
+      <c r="Y68" s="28"/>
+      <c r="Z68" s="28"/>
+      <c r="AA68" s="28"/>
+      <c r="AB68" s="28"/>
+      <c r="AC68" s="28"/>
+      <c r="AD68" s="28"/>
+      <c r="AE68" s="28"/>
+      <c r="AF68" s="28"/>
+      <c r="AG68" s="28"/>
+      <c r="AH68" s="28"/>
+      <c r="AI68" s="28"/>
+      <c r="AJ68" s="28"/>
+      <c r="AK68" s="28"/>
+      <c r="AL68" s="29"/>
+    </row>
+    <row r="69" spans="7:38" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="H69" s="12">
+        <v>0</v>
+      </c>
+      <c r="I69" s="12">
+        <v>0</v>
+      </c>
+      <c r="J69" s="12">
+        <v>0</v>
+      </c>
+      <c r="K69" s="12">
+        <v>0</v>
+      </c>
+      <c r="L69" s="12">
+        <v>0</v>
+      </c>
+      <c r="M69" s="12">
+        <v>0</v>
+      </c>
+      <c r="N69" s="12">
+        <v>0</v>
+      </c>
+      <c r="O69" s="12">
+        <v>0</v>
+      </c>
+      <c r="P69" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="12">
+        <v>0</v>
+      </c>
+      <c r="R69" s="22">
+        <v>1</v>
+      </c>
+      <c r="S69" s="1">
+        <v>1</v>
+      </c>
+      <c r="T69" s="1">
+        <v>1</v>
+      </c>
+      <c r="U69" s="1">
+        <v>0</v>
+      </c>
+      <c r="V69" s="1">
+        <v>1</v>
+      </c>
+      <c r="W69" s="4">
+        <v>0</v>
+      </c>
+      <c r="X69" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="5"/>
+      <c r="AC69" s="5"/>
+      <c r="AD69" s="5"/>
+      <c r="AE69" s="6"/>
+      <c r="AF69" s="6"/>
+      <c r="AG69" s="6"/>
+      <c r="AH69" s="6"/>
+      <c r="AI69" s="7"/>
+      <c r="AJ69" s="7"/>
+      <c r="AK69" s="7"/>
+      <c r="AL69" s="8"/>
+    </row>
+    <row r="70" spans="7:38" ht="24" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R70" s="23">
+        <v>1</v>
+      </c>
+      <c r="S70" s="10">
+        <v>0</v>
+      </c>
+      <c r="T70" s="10">
+        <v>1</v>
+      </c>
+      <c r="U70" s="10">
+        <v>0</v>
+      </c>
+      <c r="V70" s="10">
+        <v>1</v>
+      </c>
+      <c r="W70" s="30"/>
+      <c r="X70" s="30"/>
+      <c r="Y70" s="30"/>
+      <c r="Z70" s="30"/>
+      <c r="AA70" s="30"/>
+      <c r="AB70" s="30"/>
+      <c r="AC70" s="30"/>
+      <c r="AD70" s="30"/>
+      <c r="AE70" s="30"/>
+      <c r="AF70" s="30"/>
+      <c r="AG70" s="30"/>
+      <c r="AH70" s="30"/>
+      <c r="AI70" s="30"/>
+      <c r="AJ70" s="30"/>
+      <c r="AK70" s="30"/>
+      <c r="AL70" s="31"/>
+    </row>
+    <row r="71" spans="7:38" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R71" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="20"/>
+    </row>
+    <row r="72" spans="7:38" ht="24.75" customHeight="1" thickBot="1">
+      <c r="R72" s="16">
+        <v>4</v>
+      </c>
+      <c r="S72" s="17">
+        <v>3</v>
+      </c>
+      <c r="T72" s="17">
+        <v>2</v>
+      </c>
+      <c r="U72" s="17">
+        <v>1</v>
+      </c>
+      <c r="V72" s="17">
+        <v>0</v>
+      </c>
+      <c r="W72" s="32"/>
+      <c r="X72" s="32"/>
+      <c r="Y72" s="32"/>
+      <c r="Z72" s="32"/>
+      <c r="AA72" s="32"/>
+      <c r="AB72" s="32"/>
+      <c r="AC72" s="32"/>
+      <c r="AD72" s="32"/>
+      <c r="AE72" s="32"/>
+      <c r="AF72" s="32"/>
+      <c r="AG72" s="32"/>
+      <c r="AH72" s="32"/>
+      <c r="AI72" s="32"/>
+      <c r="AJ72" s="32"/>
+      <c r="AK72" s="32"/>
+      <c r="AL72" s="33"/>
+    </row>
+    <row r="73" spans="7:38" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="H73" s="12">
+        <v>0</v>
+      </c>
+      <c r="I73" s="12">
+        <v>0</v>
+      </c>
+      <c r="J73" s="12">
+        <v>0</v>
+      </c>
+      <c r="K73" s="12">
+        <v>0</v>
+      </c>
+      <c r="L73" s="12">
+        <v>0</v>
+      </c>
+      <c r="M73" s="12">
+        <v>0</v>
+      </c>
+      <c r="N73" s="12">
+        <v>0</v>
+      </c>
+      <c r="O73" s="12">
+        <v>0</v>
+      </c>
+      <c r="P73" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="12">
+        <v>0</v>
+      </c>
+      <c r="R73" s="24">
+        <v>0</v>
+      </c>
+      <c r="S73" s="1">
+        <v>1</v>
+      </c>
+      <c r="T73" s="1">
+        <v>0</v>
+      </c>
+      <c r="U73" s="1">
+        <v>0</v>
+      </c>
+      <c r="V73" s="1">
+        <v>0</v>
+      </c>
+      <c r="W73" s="4">
+        <v>0</v>
+      </c>
+      <c r="X73" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
+      <c r="AE73" s="6"/>
+      <c r="AF73" s="6"/>
+      <c r="AG73" s="6"/>
+      <c r="AH73" s="6"/>
+      <c r="AI73" s="7"/>
+      <c r="AJ73" s="7"/>
+      <c r="AK73" s="7"/>
+      <c r="AL73" s="18"/>
+    </row>
+    <row r="74" spans="7:38" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R74" s="25">
+        <v>1</v>
+      </c>
+      <c r="S74" s="19">
+        <v>0</v>
+      </c>
+      <c r="T74" s="19">
+        <v>1</v>
+      </c>
+      <c r="U74" s="19">
+        <v>0</v>
+      </c>
+      <c r="V74" s="19">
+        <v>1</v>
+      </c>
+      <c r="W74" s="34"/>
+      <c r="X74" s="34"/>
+      <c r="Y74" s="34"/>
+      <c r="Z74" s="34"/>
+      <c r="AA74" s="34"/>
+      <c r="AB74" s="34"/>
+      <c r="AC74" s="34"/>
+      <c r="AD74" s="34"/>
+      <c r="AE74" s="34"/>
+      <c r="AF74" s="34"/>
+      <c r="AG74" s="34"/>
+      <c r="AH74" s="34"/>
+      <c r="AI74" s="34"/>
+      <c r="AJ74" s="34"/>
+      <c r="AK74" s="34"/>
+      <c r="AL74" s="35"/>
+    </row>
+    <row r="75" spans="7:38" ht="14.25" thickBot="1"/>
+    <row r="76" spans="7:38" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R76" s="2">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
+        <v>3</v>
+      </c>
+      <c r="T76" s="3">
+        <v>2</v>
+      </c>
+      <c r="U76" s="3">
+        <v>1</v>
+      </c>
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="28"/>
+      <c r="X76" s="28"/>
+      <c r="Y76" s="28"/>
+      <c r="Z76" s="28"/>
+      <c r="AA76" s="28"/>
+      <c r="AB76" s="28"/>
+      <c r="AC76" s="28"/>
+      <c r="AD76" s="28"/>
+      <c r="AE76" s="28"/>
+      <c r="AF76" s="28"/>
+      <c r="AG76" s="28"/>
+      <c r="AH76" s="28"/>
+      <c r="AI76" s="28"/>
+      <c r="AJ76" s="28"/>
+      <c r="AK76" s="28"/>
+      <c r="AL76" s="29"/>
+    </row>
+    <row r="77" spans="7:38" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="G77" s="12">
+        <v>0</v>
+      </c>
+      <c r="H77" s="12">
+        <v>0</v>
+      </c>
+      <c r="I77" s="12">
+        <v>0</v>
+      </c>
+      <c r="J77" s="12">
+        <v>0</v>
+      </c>
+      <c r="K77" s="12">
+        <v>0</v>
+      </c>
+      <c r="L77" s="12">
+        <v>0</v>
+      </c>
+      <c r="M77" s="12">
+        <v>0</v>
+      </c>
+      <c r="N77" s="12">
+        <v>0</v>
+      </c>
+      <c r="O77" s="12">
+        <v>0</v>
+      </c>
+      <c r="P77" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="12">
+        <v>0</v>
+      </c>
+      <c r="R77" s="14">
+        <v>1</v>
+      </c>
+      <c r="S77" s="1">
+        <v>0</v>
+      </c>
+      <c r="T77" s="1">
+        <v>0</v>
+      </c>
+      <c r="U77" s="1">
+        <v>0</v>
+      </c>
+      <c r="V77" s="1">
+        <v>0</v>
+      </c>
+      <c r="W77" s="4">
+        <v>0</v>
+      </c>
+      <c r="X77" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="5"/>
+      <c r="AB77" s="5"/>
+      <c r="AC77" s="5"/>
+      <c r="AD77" s="5"/>
+      <c r="AE77" s="6"/>
+      <c r="AF77" s="6"/>
+      <c r="AG77" s="6"/>
+      <c r="AH77" s="6"/>
+      <c r="AI77" s="7"/>
+      <c r="AJ77" s="7"/>
+      <c r="AK77" s="7"/>
+      <c r="AL77" s="8"/>
+    </row>
+    <row r="78" spans="7:38" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R78" s="15">
+        <v>1</v>
+      </c>
+      <c r="S78" s="10">
+        <v>0</v>
+      </c>
+      <c r="T78" s="10">
+        <v>1</v>
+      </c>
+      <c r="U78" s="10">
+        <v>0</v>
+      </c>
+      <c r="V78" s="10">
+        <v>1</v>
+      </c>
+      <c r="W78" s="30"/>
+      <c r="X78" s="30"/>
+      <c r="Y78" s="30"/>
+      <c r="Z78" s="30"/>
+      <c r="AA78" s="30"/>
+      <c r="AB78" s="30"/>
+      <c r="AC78" s="30"/>
+      <c r="AD78" s="30"/>
+      <c r="AE78" s="30"/>
+      <c r="AF78" s="30"/>
+      <c r="AG78" s="30"/>
+      <c r="AH78" s="30"/>
+      <c r="AI78" s="30"/>
+      <c r="AJ78" s="30"/>
+      <c r="AK78" s="30"/>
+      <c r="AL78" s="31"/>
+    </row>
+    <row r="79" spans="7:38" ht="15" thickTop="1" thickBot="1">
+      <c r="R79" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="S79" s="20"/>
+      <c r="T79" s="20"/>
+      <c r="U79" s="20"/>
+      <c r="V79" s="20"/>
+    </row>
+    <row r="80" spans="7:38" ht="26.25" customHeight="1" thickBot="1">
+      <c r="R80" s="16">
+        <v>4</v>
+      </c>
+      <c r="S80" s="17">
+        <v>3</v>
+      </c>
+      <c r="T80" s="17">
+        <v>2</v>
+      </c>
+      <c r="U80" s="17">
+        <v>1</v>
+      </c>
+      <c r="V80" s="17">
+        <v>0</v>
+      </c>
+      <c r="W80" s="32"/>
+      <c r="X80" s="32"/>
+      <c r="Y80" s="32"/>
+      <c r="Z80" s="32"/>
+      <c r="AA80" s="32"/>
+      <c r="AB80" s="32"/>
+      <c r="AC80" s="32"/>
+      <c r="AD80" s="32"/>
+      <c r="AE80" s="32"/>
+      <c r="AF80" s="32"/>
+      <c r="AG80" s="32"/>
+      <c r="AH80" s="32"/>
+      <c r="AI80" s="32"/>
+      <c r="AJ80" s="32"/>
+      <c r="AK80" s="32"/>
+      <c r="AL80" s="33"/>
+    </row>
+    <row r="81" spans="5:38" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="G81" s="12">
+        <v>0</v>
+      </c>
+      <c r="H81" s="12">
+        <v>0</v>
+      </c>
+      <c r="I81" s="12">
+        <v>0</v>
+      </c>
+      <c r="J81" s="12">
+        <v>0</v>
+      </c>
+      <c r="K81" s="12">
+        <v>0</v>
+      </c>
+      <c r="L81" s="12">
+        <v>0</v>
+      </c>
+      <c r="M81" s="12">
+        <v>0</v>
+      </c>
+      <c r="N81" s="12">
+        <v>0</v>
+      </c>
+      <c r="O81" s="12">
+        <v>0</v>
+      </c>
+      <c r="P81" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="12">
+        <v>0</v>
+      </c>
+      <c r="R81" s="24">
+        <v>0</v>
+      </c>
+      <c r="S81" s="1">
+        <v>0</v>
+      </c>
+      <c r="T81" s="1">
+        <v>1</v>
+      </c>
+      <c r="U81" s="1">
+        <v>0</v>
+      </c>
+      <c r="V81" s="1">
+        <v>1</v>
+      </c>
+      <c r="W81" s="4">
+        <v>0</v>
+      </c>
+      <c r="X81" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="5"/>
+      <c r="AB81" s="5"/>
+      <c r="AC81" s="5"/>
+      <c r="AD81" s="5"/>
+      <c r="AE81" s="6"/>
+      <c r="AF81" s="6"/>
+      <c r="AG81" s="6"/>
+      <c r="AH81" s="6"/>
+      <c r="AI81" s="7"/>
+      <c r="AJ81" s="7"/>
+      <c r="AK81" s="7"/>
+      <c r="AL81" s="18"/>
+    </row>
+    <row r="82" spans="5:38" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R82" s="25">
+        <v>1</v>
+      </c>
+      <c r="S82" s="19">
+        <v>0</v>
+      </c>
+      <c r="T82" s="19">
+        <v>1</v>
+      </c>
+      <c r="U82" s="19">
+        <v>0</v>
+      </c>
+      <c r="V82" s="19">
+        <v>1</v>
+      </c>
+      <c r="W82" s="34"/>
+      <c r="X82" s="34"/>
+      <c r="Y82" s="34"/>
+      <c r="Z82" s="34"/>
+      <c r="AA82" s="34"/>
+      <c r="AB82" s="34"/>
+      <c r="AC82" s="34"/>
+      <c r="AD82" s="34"/>
+      <c r="AE82" s="34"/>
+      <c r="AF82" s="34"/>
+      <c r="AG82" s="34"/>
+      <c r="AH82" s="34"/>
+      <c r="AI82" s="34"/>
+      <c r="AJ82" s="34"/>
+      <c r="AK82" s="34"/>
+      <c r="AL82" s="35"/>
+    </row>
+    <row r="83" spans="5:38" ht="14.25" thickBot="1"/>
+    <row r="84" spans="5:38" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R84" s="2">
+        <v>4</v>
+      </c>
+      <c r="S84" s="3">
+        <v>3</v>
+      </c>
+      <c r="T84" s="3">
+        <v>2</v>
+      </c>
+      <c r="U84" s="3">
+        <v>1</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="28"/>
+      <c r="X84" s="28"/>
+      <c r="Y84" s="28"/>
+      <c r="Z84" s="28"/>
+      <c r="AA84" s="28"/>
+      <c r="AB84" s="28"/>
+      <c r="AC84" s="28"/>
+      <c r="AD84" s="28"/>
+      <c r="AE84" s="28"/>
+      <c r="AF84" s="28"/>
+      <c r="AG84" s="28"/>
+      <c r="AH84" s="28"/>
+      <c r="AI84" s="28"/>
+      <c r="AJ84" s="28"/>
+      <c r="AK84" s="28"/>
+      <c r="AL84" s="29"/>
+    </row>
+    <row r="85" spans="5:38" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="F85" s="12">
+        <v>0</v>
+      </c>
+      <c r="G85" s="12">
+        <v>0</v>
+      </c>
+      <c r="H85" s="12">
+        <v>0</v>
+      </c>
+      <c r="I85" s="12">
+        <v>0</v>
+      </c>
+      <c r="J85" s="12">
+        <v>0</v>
+      </c>
+      <c r="K85" s="12">
+        <v>0</v>
+      </c>
+      <c r="L85" s="12">
+        <v>0</v>
+      </c>
+      <c r="M85" s="12">
+        <v>0</v>
+      </c>
+      <c r="N85" s="12">
+        <v>0</v>
+      </c>
+      <c r="O85" s="12">
+        <v>0</v>
+      </c>
+      <c r="P85" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="12">
+        <v>0</v>
+      </c>
+      <c r="R85" s="11">
+        <v>0</v>
+      </c>
+      <c r="S85" s="1">
+        <v>1</v>
+      </c>
+      <c r="T85" s="1">
+        <v>0</v>
+      </c>
+      <c r="U85" s="1">
+        <v>1</v>
+      </c>
+      <c r="V85" s="1">
+        <v>0</v>
+      </c>
+      <c r="W85" s="4">
+        <v>0</v>
+      </c>
+      <c r="X85" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="4"/>
+      <c r="AA85" s="5"/>
+      <c r="AB85" s="5"/>
+      <c r="AC85" s="5"/>
+      <c r="AD85" s="5"/>
+      <c r="AE85" s="6"/>
+      <c r="AF85" s="6"/>
+      <c r="AG85" s="6"/>
+      <c r="AH85" s="6"/>
+      <c r="AI85" s="7"/>
+      <c r="AJ85" s="7"/>
+      <c r="AK85" s="7"/>
+      <c r="AL85" s="8"/>
+    </row>
+    <row r="86" spans="5:38" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R86" s="9">
+        <v>1</v>
+      </c>
+      <c r="S86" s="10">
+        <v>0</v>
+      </c>
+      <c r="T86" s="10">
+        <v>1</v>
+      </c>
+      <c r="U86" s="10">
+        <v>0</v>
+      </c>
+      <c r="V86" s="10">
+        <v>1</v>
+      </c>
+      <c r="W86" s="30"/>
+      <c r="X86" s="30"/>
+      <c r="Y86" s="30"/>
+      <c r="Z86" s="30"/>
+      <c r="AA86" s="30"/>
+      <c r="AB86" s="30"/>
+      <c r="AC86" s="30"/>
+      <c r="AD86" s="30"/>
+      <c r="AE86" s="30"/>
+      <c r="AF86" s="30"/>
+      <c r="AG86" s="30"/>
+      <c r="AH86" s="30"/>
+      <c r="AI86" s="30"/>
+      <c r="AJ86" s="30"/>
+      <c r="AK86" s="30"/>
+      <c r="AL86" s="31"/>
+    </row>
+    <row r="87" spans="5:38" ht="15" thickTop="1" thickBot="1"/>
+    <row r="88" spans="5:38" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R88" s="2">
+        <v>4</v>
+      </c>
+      <c r="S88" s="3">
+        <v>3</v>
+      </c>
+      <c r="T88" s="3">
+        <v>2</v>
+      </c>
+      <c r="U88" s="3">
+        <v>1</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="28"/>
+      <c r="X88" s="28"/>
+      <c r="Y88" s="28"/>
+      <c r="Z88" s="28"/>
+      <c r="AA88" s="28"/>
+      <c r="AB88" s="28"/>
+      <c r="AC88" s="28"/>
+      <c r="AD88" s="28"/>
+      <c r="AE88" s="28"/>
+      <c r="AF88" s="28"/>
+      <c r="AG88" s="28"/>
+      <c r="AH88" s="28"/>
+      <c r="AI88" s="28"/>
+      <c r="AJ88" s="28"/>
+      <c r="AK88" s="28"/>
+      <c r="AL88" s="29"/>
+    </row>
+    <row r="89" spans="5:38" ht="27" customHeight="1" thickTop="1" thickBot="1">
+      <c r="E89" s="12">
+        <v>0</v>
+      </c>
+      <c r="F89" s="12">
+        <v>0</v>
+      </c>
+      <c r="G89" s="12">
+        <v>0</v>
+      </c>
+      <c r="H89" s="12">
+        <v>0</v>
+      </c>
+      <c r="I89" s="12">
+        <v>0</v>
+      </c>
+      <c r="J89" s="12">
+        <v>0</v>
+      </c>
+      <c r="K89" s="12">
+        <v>0</v>
+      </c>
+      <c r="L89" s="12">
+        <v>0</v>
+      </c>
+      <c r="M89" s="12">
+        <v>0</v>
+      </c>
+      <c r="N89" s="12">
+        <v>0</v>
+      </c>
+      <c r="O89" s="12">
+        <v>0</v>
+      </c>
+      <c r="P89" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="12">
+        <v>0</v>
+      </c>
+      <c r="R89" s="22">
+        <v>1</v>
+      </c>
+      <c r="S89" s="1">
+        <v>0</v>
+      </c>
+      <c r="T89" s="1">
+        <v>1</v>
+      </c>
+      <c r="U89" s="1">
+        <v>0</v>
+      </c>
+      <c r="V89" s="1">
+        <v>0</v>
+      </c>
+      <c r="W89" s="4">
+        <v>0</v>
+      </c>
+      <c r="X89" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
+      <c r="AA89" s="5"/>
+      <c r="AB89" s="5"/>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
+      <c r="AE89" s="6"/>
+      <c r="AF89" s="6"/>
+      <c r="AG89" s="6"/>
+      <c r="AH89" s="6"/>
+      <c r="AI89" s="7"/>
+      <c r="AJ89" s="7"/>
+      <c r="AK89" s="7"/>
+      <c r="AL89" s="8"/>
+    </row>
+    <row r="90" spans="5:38" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R90" s="23">
+        <v>1</v>
+      </c>
+      <c r="S90" s="10">
+        <v>0</v>
+      </c>
+      <c r="T90" s="10">
+        <v>1</v>
+      </c>
+      <c r="U90" s="10">
+        <v>0</v>
+      </c>
+      <c r="V90" s="10">
+        <v>1</v>
+      </c>
+      <c r="W90" s="30"/>
+      <c r="X90" s="30"/>
+      <c r="Y90" s="30"/>
+      <c r="Z90" s="30"/>
+      <c r="AA90" s="30"/>
+      <c r="AB90" s="30"/>
+      <c r="AC90" s="30"/>
+      <c r="AD90" s="30"/>
+      <c r="AE90" s="30"/>
+      <c r="AF90" s="30"/>
+      <c r="AG90" s="30"/>
+      <c r="AH90" s="30"/>
+      <c r="AI90" s="30"/>
+      <c r="AJ90" s="30"/>
+      <c r="AK90" s="30"/>
+      <c r="AL90" s="31"/>
+    </row>
+    <row r="91" spans="5:38" ht="15" thickTop="1" thickBot="1"/>
+    <row r="92" spans="5:38" ht="22.5" customHeight="1" thickBot="1">
+      <c r="R92" s="16">
+        <v>4</v>
+      </c>
+      <c r="S92" s="17">
+        <v>3</v>
+      </c>
+      <c r="T92" s="17">
+        <v>2</v>
+      </c>
+      <c r="U92" s="17">
+        <v>1</v>
+      </c>
+      <c r="V92" s="17">
+        <v>0</v>
+      </c>
+      <c r="W92" s="32"/>
+      <c r="X92" s="32"/>
+      <c r="Y92" s="32"/>
+      <c r="Z92" s="32"/>
+      <c r="AA92" s="32"/>
+      <c r="AB92" s="32"/>
+      <c r="AC92" s="32"/>
+      <c r="AD92" s="32"/>
+      <c r="AE92" s="32"/>
+      <c r="AF92" s="32"/>
+      <c r="AG92" s="32"/>
+      <c r="AH92" s="32"/>
+      <c r="AI92" s="32"/>
+      <c r="AJ92" s="32"/>
+      <c r="AK92" s="32"/>
+      <c r="AL92" s="33"/>
+    </row>
+    <row r="93" spans="5:38" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="E93" s="12">
+        <v>0</v>
+      </c>
+      <c r="F93" s="12">
+        <v>0</v>
+      </c>
+      <c r="G93" s="12">
+        <v>0</v>
+      </c>
+      <c r="H93" s="12">
+        <v>0</v>
+      </c>
+      <c r="I93" s="12">
+        <v>0</v>
+      </c>
+      <c r="J93" s="12">
+        <v>0</v>
+      </c>
+      <c r="K93" s="12">
+        <v>0</v>
+      </c>
+      <c r="L93" s="12">
+        <v>0</v>
+      </c>
+      <c r="M93" s="12">
+        <v>0</v>
+      </c>
+      <c r="N93" s="12">
+        <v>0</v>
+      </c>
+      <c r="O93" s="12">
+        <v>0</v>
+      </c>
+      <c r="P93" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="12">
+        <v>0</v>
+      </c>
+      <c r="R93" s="24">
+        <v>0</v>
+      </c>
+      <c r="S93" s="1">
+        <v>0</v>
+      </c>
+      <c r="T93" s="1">
+        <v>0</v>
+      </c>
+      <c r="U93" s="1">
+        <v>0</v>
+      </c>
+      <c r="V93" s="1">
+        <v>1</v>
+      </c>
+      <c r="W93" s="4">
+        <v>0</v>
+      </c>
+      <c r="X93" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
+      <c r="AA93" s="5"/>
+      <c r="AB93" s="5"/>
+      <c r="AC93" s="5"/>
+      <c r="AD93" s="5"/>
+      <c r="AE93" s="6"/>
+      <c r="AF93" s="6"/>
+      <c r="AG93" s="6"/>
+      <c r="AH93" s="6"/>
+      <c r="AI93" s="7"/>
+      <c r="AJ93" s="7"/>
+      <c r="AK93" s="7"/>
+      <c r="AL93" s="18"/>
+    </row>
+    <row r="94" spans="5:38" ht="27" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R94" s="25">
+        <v>1</v>
+      </c>
+      <c r="S94" s="19">
+        <v>0</v>
+      </c>
+      <c r="T94" s="19">
+        <v>1</v>
+      </c>
+      <c r="U94" s="19">
+        <v>0</v>
+      </c>
+      <c r="V94" s="19">
+        <v>1</v>
+      </c>
+      <c r="W94" s="34"/>
+      <c r="X94" s="34"/>
+      <c r="Y94" s="34"/>
+      <c r="Z94" s="34"/>
+      <c r="AA94" s="34"/>
+      <c r="AB94" s="34"/>
+      <c r="AC94" s="34"/>
+      <c r="AD94" s="34"/>
+      <c r="AE94" s="34"/>
+      <c r="AF94" s="34"/>
+      <c r="AG94" s="34"/>
+      <c r="AH94" s="34"/>
+      <c r="AI94" s="34"/>
+      <c r="AJ94" s="34"/>
+      <c r="AK94" s="34"/>
+      <c r="AL94" s="35"/>
+    </row>
+    <row r="95" spans="5:38" ht="14.25" thickBot="1"/>
+    <row r="96" spans="5:38" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R96" s="2">
+        <v>4</v>
+      </c>
+      <c r="S96" s="3">
+        <v>3</v>
+      </c>
+      <c r="T96" s="3">
+        <v>2</v>
+      </c>
+      <c r="U96" s="3">
+        <v>1</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="28"/>
+      <c r="X96" s="28"/>
+      <c r="Y96" s="28"/>
+      <c r="Z96" s="28"/>
+      <c r="AA96" s="28"/>
+      <c r="AB96" s="28"/>
+      <c r="AC96" s="28"/>
+      <c r="AD96" s="28"/>
+      <c r="AE96" s="28"/>
+      <c r="AF96" s="28"/>
+      <c r="AG96" s="28"/>
+      <c r="AH96" s="28"/>
+      <c r="AI96" s="28"/>
+      <c r="AJ96" s="28"/>
+      <c r="AK96" s="28"/>
+      <c r="AL96" s="29"/>
+    </row>
+    <row r="97" spans="3:38" ht="33" customHeight="1" thickTop="1" thickBot="1">
+      <c r="D97" s="12">
+        <v>0</v>
+      </c>
+      <c r="E97" s="12">
+        <v>0</v>
+      </c>
+      <c r="F97" s="12">
+        <v>0</v>
+      </c>
+      <c r="G97" s="12">
+        <v>0</v>
+      </c>
+      <c r="H97" s="12">
+        <v>0</v>
+      </c>
+      <c r="I97" s="12">
+        <v>0</v>
+      </c>
+      <c r="J97" s="12">
+        <v>0</v>
+      </c>
+      <c r="K97" s="12">
+        <v>0</v>
+      </c>
+      <c r="L97" s="12">
+        <v>0</v>
+      </c>
+      <c r="M97" s="12">
+        <v>0</v>
+      </c>
+      <c r="N97" s="12">
+        <v>0</v>
+      </c>
+      <c r="O97" s="12">
+        <v>0</v>
+      </c>
+      <c r="P97" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="12">
+        <v>0</v>
+      </c>
+      <c r="R97" s="11">
+        <v>0</v>
+      </c>
+      <c r="S97" s="1">
+        <v>0</v>
+      </c>
+      <c r="T97" s="1">
+        <v>0</v>
+      </c>
+      <c r="U97" s="1">
+        <v>1</v>
+      </c>
+      <c r="V97" s="1">
+        <v>0</v>
+      </c>
+      <c r="W97" s="4">
+        <v>0</v>
+      </c>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="5"/>
+      <c r="AB97" s="5"/>
+      <c r="AC97" s="5"/>
+      <c r="AD97" s="5"/>
+      <c r="AE97" s="6"/>
+      <c r="AF97" s="6"/>
+      <c r="AG97" s="6"/>
+      <c r="AH97" s="6"/>
+      <c r="AI97" s="7"/>
+      <c r="AJ97" s="7"/>
+      <c r="AK97" s="7"/>
+      <c r="AL97" s="8"/>
+    </row>
+    <row r="98" spans="3:38" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R98" s="9">
+        <v>1</v>
+      </c>
+      <c r="S98" s="10">
+        <v>0</v>
+      </c>
+      <c r="T98" s="10">
+        <v>1</v>
+      </c>
+      <c r="U98" s="10">
+        <v>0</v>
+      </c>
+      <c r="V98" s="10">
+        <v>1</v>
+      </c>
+      <c r="W98" s="30"/>
+      <c r="X98" s="30"/>
+      <c r="Y98" s="30"/>
+      <c r="Z98" s="30"/>
+      <c r="AA98" s="30"/>
+      <c r="AB98" s="30"/>
+      <c r="AC98" s="30"/>
+      <c r="AD98" s="30"/>
+      <c r="AE98" s="30"/>
+      <c r="AF98" s="30"/>
+      <c r="AG98" s="30"/>
+      <c r="AH98" s="30"/>
+      <c r="AI98" s="30"/>
+      <c r="AJ98" s="30"/>
+      <c r="AK98" s="30"/>
+      <c r="AL98" s="31"/>
+    </row>
+    <row r="99" spans="3:38" ht="15" thickTop="1" thickBot="1"/>
+    <row r="100" spans="3:38" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R100" s="2">
+        <v>4</v>
+      </c>
+      <c r="S100" s="3">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3">
+        <v>2</v>
+      </c>
+      <c r="U100" s="3">
+        <v>1</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="28"/>
+      <c r="X100" s="28"/>
+      <c r="Y100" s="28"/>
+      <c r="Z100" s="28"/>
+      <c r="AA100" s="28"/>
+      <c r="AB100" s="28"/>
+      <c r="AC100" s="28"/>
+      <c r="AD100" s="28"/>
+      <c r="AE100" s="28"/>
+      <c r="AF100" s="28"/>
+      <c r="AG100" s="28"/>
+      <c r="AH100" s="28"/>
+      <c r="AI100" s="28"/>
+      <c r="AJ100" s="28"/>
+      <c r="AK100" s="28"/>
+      <c r="AL100" s="29"/>
+    </row>
+    <row r="101" spans="3:38" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="C101" s="12">
+        <v>0</v>
+      </c>
+      <c r="D101" s="12">
+        <v>0</v>
+      </c>
+      <c r="E101" s="12">
+        <v>0</v>
+      </c>
+      <c r="F101" s="12">
+        <v>0</v>
+      </c>
+      <c r="G101" s="12">
+        <v>0</v>
+      </c>
+      <c r="H101" s="12">
+        <v>0</v>
+      </c>
+      <c r="I101" s="12">
+        <v>0</v>
+      </c>
+      <c r="J101" s="12">
+        <v>0</v>
+      </c>
+      <c r="K101" s="12">
+        <v>0</v>
+      </c>
+      <c r="L101" s="12">
+        <v>0</v>
+      </c>
+      <c r="M101" s="12">
+        <v>0</v>
+      </c>
+      <c r="N101" s="12">
+        <v>0</v>
+      </c>
+      <c r="O101" s="12">
+        <v>0</v>
+      </c>
+      <c r="P101" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="12">
+        <v>0</v>
+      </c>
+      <c r="R101" s="11">
+        <v>0</v>
+      </c>
+      <c r="S101" s="1">
+        <v>0</v>
+      </c>
+      <c r="T101" s="1">
+        <v>1</v>
+      </c>
+      <c r="U101" s="1">
+        <v>0</v>
+      </c>
+      <c r="V101" s="1">
+        <v>0</v>
+      </c>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4"/>
+      <c r="AA101" s="5"/>
+      <c r="AB101" s="5"/>
+      <c r="AC101" s="5"/>
+      <c r="AD101" s="5"/>
+      <c r="AE101" s="6"/>
+      <c r="AF101" s="6"/>
+      <c r="AG101" s="6"/>
+      <c r="AH101" s="6"/>
+      <c r="AI101" s="7"/>
+      <c r="AJ101" s="7"/>
+      <c r="AK101" s="7"/>
+      <c r="AL101" s="8"/>
+    </row>
+    <row r="102" spans="3:38" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R102" s="9">
+        <v>1</v>
+      </c>
+      <c r="S102" s="10">
+        <v>0</v>
+      </c>
+      <c r="T102" s="10">
+        <v>1</v>
+      </c>
+      <c r="U102" s="10">
+        <v>0</v>
+      </c>
+      <c r="V102" s="10">
+        <v>1</v>
+      </c>
+      <c r="W102" s="30"/>
+      <c r="X102" s="30"/>
+      <c r="Y102" s="30"/>
+      <c r="Z102" s="30"/>
+      <c r="AA102" s="30"/>
+      <c r="AB102" s="30"/>
+      <c r="AC102" s="30"/>
+      <c r="AD102" s="30"/>
+      <c r="AE102" s="30"/>
+      <c r="AF102" s="30"/>
+      <c r="AG102" s="30"/>
+      <c r="AH102" s="30"/>
+      <c r="AI102" s="30"/>
+      <c r="AJ102" s="30"/>
+      <c r="AK102" s="30"/>
+      <c r="AL102" s="31"/>
+    </row>
+    <row r="103" spans="3:38" ht="14.25" thickTop="1"/>
+    <row r="106" spans="3:38" ht="14.25" thickBot="1">
+      <c r="R106" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="X106" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="3:38" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R107" s="2">
+        <v>4</v>
+      </c>
+      <c r="S107" s="3">
+        <v>3</v>
+      </c>
+      <c r="T107" s="3">
+        <v>2</v>
+      </c>
+      <c r="U107" s="3">
+        <v>1</v>
+      </c>
+      <c r="V107" s="3">
+        <v>0</v>
+      </c>
+      <c r="W107" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="X107" s="28"/>
+      <c r="Y107" s="28"/>
+      <c r="Z107" s="28"/>
+      <c r="AA107" s="28"/>
+      <c r="AB107" s="28"/>
+      <c r="AC107" s="28"/>
+      <c r="AD107" s="28"/>
+      <c r="AE107" s="28"/>
+      <c r="AF107" s="28"/>
+      <c r="AG107" s="28"/>
+      <c r="AH107" s="28"/>
+      <c r="AI107" s="28"/>
+      <c r="AJ107" s="28"/>
+      <c r="AK107" s="28"/>
+      <c r="AL107" s="29"/>
+    </row>
+    <row r="108" spans="3:38" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="O108" s="12">
+        <v>1</v>
+      </c>
+      <c r="R108" s="11"/>
+      <c r="S108" s="1">
+        <v>0</v>
+      </c>
+      <c r="T108" s="1">
+        <v>0</v>
+      </c>
+      <c r="U108" s="1">
+        <v>1</v>
+      </c>
+      <c r="V108" s="1">
+        <v>0</v>
+      </c>
+      <c r="W108" s="4">
+        <v>1</v>
+      </c>
+      <c r="X108" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y108" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z108" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA108" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD108" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE108" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF108" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG108" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH108" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI108" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ108" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK108" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL108" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="3:38" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R109" s="9">
+        <v>1</v>
+      </c>
+      <c r="S109" s="10">
+        <v>1</v>
+      </c>
+      <c r="T109" s="10">
+        <v>1</v>
+      </c>
+      <c r="U109" s="10">
+        <v>0</v>
+      </c>
+      <c r="V109" s="10">
+        <v>1</v>
+      </c>
+      <c r="W109" s="10"/>
+      <c r="X109" s="30"/>
+      <c r="Y109" s="30"/>
+      <c r="Z109" s="30"/>
+      <c r="AA109" s="30"/>
+      <c r="AB109" s="30"/>
+      <c r="AC109" s="30"/>
+      <c r="AD109" s="30"/>
+      <c r="AE109" s="30"/>
+      <c r="AF109" s="30"/>
+      <c r="AG109" s="30"/>
+      <c r="AH109" s="30"/>
+      <c r="AI109" s="30"/>
+      <c r="AJ109" s="30"/>
+      <c r="AK109" s="30"/>
+      <c r="AL109" s="31"/>
+    </row>
+    <row r="110" spans="3:38" ht="15" thickTop="1" thickBot="1"/>
+    <row r="111" spans="3:38" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R111" s="2"/>
+      <c r="S111" s="3">
+        <v>4</v>
+      </c>
+      <c r="T111" s="3">
+        <v>3</v>
+      </c>
+      <c r="U111" s="3">
+        <v>2</v>
+      </c>
+      <c r="V111" s="3">
+        <v>1</v>
+      </c>
+      <c r="W111" s="3">
+        <v>0</v>
+      </c>
+      <c r="X111" s="28"/>
+      <c r="Y111" s="28"/>
+      <c r="Z111" s="28"/>
+      <c r="AA111" s="28"/>
+      <c r="AB111" s="28"/>
+      <c r="AC111" s="28"/>
+      <c r="AD111" s="28"/>
+      <c r="AE111" s="28"/>
+      <c r="AF111" s="28"/>
+      <c r="AG111" s="28"/>
+      <c r="AH111" s="28"/>
+      <c r="AI111" s="28"/>
+      <c r="AJ111" s="28"/>
+      <c r="AK111" s="28"/>
+      <c r="AL111" s="29"/>
+    </row>
+    <row r="112" spans="3:38" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="O112" s="12">
+        <v>2</v>
+      </c>
+      <c r="R112" s="11"/>
+      <c r="S112" s="37">
+        <v>0</v>
+      </c>
+      <c r="T112" s="1">
+        <v>0</v>
+      </c>
+      <c r="U112" s="1">
+        <v>1</v>
+      </c>
+      <c r="V112" s="1">
+        <v>0</v>
+      </c>
+      <c r="W112" s="38">
+        <v>1</v>
+      </c>
+      <c r="X112" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z112" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA112" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD112" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE112" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF112" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG112" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH112" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK112" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL112" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="15:38" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R113" s="9"/>
+      <c r="S113" s="10">
+        <v>1</v>
+      </c>
+      <c r="T113" s="10">
+        <v>1</v>
+      </c>
+      <c r="U113" s="10">
+        <v>1</v>
+      </c>
+      <c r="V113" s="10">
+        <v>0</v>
+      </c>
+      <c r="W113" s="10">
+        <v>1</v>
+      </c>
+      <c r="X113" s="30"/>
+      <c r="Y113" s="30"/>
+      <c r="Z113" s="30"/>
+      <c r="AA113" s="30"/>
+      <c r="AB113" s="30"/>
+      <c r="AC113" s="30"/>
+      <c r="AD113" s="30"/>
+      <c r="AE113" s="30"/>
+      <c r="AF113" s="30"/>
+      <c r="AG113" s="30"/>
+      <c r="AH113" s="30"/>
+      <c r="AI113" s="30"/>
+      <c r="AJ113" s="30"/>
+      <c r="AK113" s="30"/>
+      <c r="AL113" s="31"/>
+    </row>
+    <row r="114" spans="15:38" ht="15" thickTop="1" thickBot="1"/>
+    <row r="115" spans="15:38" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R115" s="2"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="3">
+        <v>4</v>
+      </c>
+      <c r="U115" s="3">
+        <v>3</v>
+      </c>
+      <c r="V115" s="3">
+        <v>2</v>
+      </c>
+      <c r="W115" s="3">
+        <v>1</v>
+      </c>
+      <c r="X115" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="28"/>
+      <c r="Z115" s="28"/>
+      <c r="AA115" s="28"/>
+      <c r="AB115" s="28"/>
+      <c r="AC115" s="28"/>
+      <c r="AD115" s="28"/>
+      <c r="AE115" s="28"/>
+      <c r="AF115" s="28"/>
+      <c r="AG115" s="28"/>
+      <c r="AH115" s="28"/>
+      <c r="AI115" s="28"/>
+      <c r="AJ115" s="28"/>
+      <c r="AK115" s="28"/>
+      <c r="AL115" s="29"/>
+    </row>
+    <row r="116" spans="15:38" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="O116" s="12">
+        <v>3</v>
+      </c>
+      <c r="R116" s="11"/>
+      <c r="S116" s="37">
+        <v>0</v>
+      </c>
+      <c r="T116" s="36">
+        <v>0</v>
+      </c>
+      <c r="U116" s="1">
+        <v>1</v>
+      </c>
+      <c r="V116" s="1">
+        <v>0</v>
+      </c>
+      <c r="W116" s="38">
+        <v>1</v>
+      </c>
+      <c r="X116" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y116" s="4">
+        <v>1</v>
+      </c>
+      <c r="Z116" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA116" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC116" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD116" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE116" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF116" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG116" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH116" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI116" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ116" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK116" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL116" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="15:38" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R117" s="9"/>
+      <c r="S117" s="10"/>
+      <c r="T117" s="10">
+        <v>1</v>
+      </c>
+      <c r="U117" s="10">
+        <v>1</v>
+      </c>
+      <c r="V117" s="10">
+        <v>1</v>
+      </c>
+      <c r="W117" s="10">
+        <v>0</v>
+      </c>
+      <c r="X117" s="30">
+        <v>1</v>
+      </c>
+      <c r="Y117" s="30"/>
+      <c r="Z117" s="30"/>
+      <c r="AA117" s="30"/>
+      <c r="AB117" s="30"/>
+      <c r="AC117" s="30"/>
+      <c r="AD117" s="30"/>
+      <c r="AE117" s="30"/>
+      <c r="AF117" s="30"/>
+      <c r="AG117" s="30"/>
+      <c r="AH117" s="30"/>
+      <c r="AI117" s="30"/>
+      <c r="AJ117" s="30"/>
+      <c r="AK117" s="30"/>
+      <c r="AL117" s="31"/>
+    </row>
+    <row r="118" spans="15:38" ht="15" thickTop="1" thickBot="1"/>
+    <row r="119" spans="15:38" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R119" s="2"/>
+      <c r="S119" s="3"/>
+      <c r="T119" s="3"/>
+      <c r="U119" s="3">
+        <v>4</v>
+      </c>
+      <c r="V119" s="3">
+        <v>3</v>
+      </c>
+      <c r="W119" s="3">
+        <v>2</v>
+      </c>
+      <c r="X119" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y119" s="28">
+        <v>0</v>
+      </c>
+      <c r="Z119" s="28"/>
+      <c r="AA119" s="28"/>
+      <c r="AB119" s="28"/>
+      <c r="AC119" s="28"/>
+      <c r="AD119" s="28"/>
+      <c r="AE119" s="28"/>
+      <c r="AF119" s="28"/>
+      <c r="AG119" s="28"/>
+      <c r="AH119" s="28"/>
+      <c r="AI119" s="28"/>
+      <c r="AJ119" s="28"/>
+      <c r="AK119" s="28"/>
+      <c r="AL119" s="29"/>
+    </row>
+    <row r="120" spans="15:38" ht="24" customHeight="1" thickTop="1" thickBot="1">
+      <c r="O120" s="12">
+        <v>4</v>
+      </c>
+      <c r="R120" s="11"/>
+      <c r="S120" s="37">
+        <v>0</v>
+      </c>
+      <c r="T120" s="36">
+        <v>0</v>
+      </c>
+      <c r="U120" s="58">
+        <v>1</v>
+      </c>
+      <c r="V120" s="1">
+        <v>0</v>
+      </c>
+      <c r="W120" s="38">
+        <v>1</v>
+      </c>
+      <c r="X120" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y120" s="38">
+        <v>1</v>
+      </c>
+      <c r="Z120" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA120" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB120" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC120" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD120" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE120" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF120" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG120" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH120" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI120" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ120" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK120" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL120" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="15:38" ht="30" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R121" s="9"/>
+      <c r="S121" s="10"/>
+      <c r="T121" s="10"/>
+      <c r="U121" s="39">
+        <v>1</v>
+      </c>
+      <c r="V121" s="10">
+        <v>1</v>
+      </c>
+      <c r="W121" s="10">
+        <v>1</v>
+      </c>
+      <c r="X121" s="30">
+        <v>0</v>
+      </c>
+      <c r="Y121" s="30">
+        <v>1</v>
+      </c>
+      <c r="Z121" s="30"/>
+      <c r="AA121" s="30"/>
+      <c r="AB121" s="30"/>
+      <c r="AC121" s="30"/>
+      <c r="AD121" s="30"/>
+      <c r="AE121" s="30"/>
+      <c r="AF121" s="30"/>
+      <c r="AG121" s="30"/>
+      <c r="AH121" s="30"/>
+      <c r="AI121" s="30"/>
+      <c r="AJ121" s="30"/>
+      <c r="AK121" s="30"/>
+      <c r="AL121" s="31"/>
+    </row>
+    <row r="122" spans="15:38" ht="15" thickTop="1" thickBot="1"/>
+    <row r="123" spans="15:38" ht="27.75" customHeight="1" thickBot="1">
+      <c r="R123" s="16"/>
+      <c r="S123" s="17"/>
+      <c r="T123" s="17"/>
+      <c r="U123" s="17">
+        <v>4</v>
+      </c>
+      <c r="V123" s="17">
+        <v>3</v>
+      </c>
+      <c r="W123" s="17">
+        <v>2</v>
+      </c>
+      <c r="X123" s="32">
+        <v>1</v>
+      </c>
+      <c r="Y123" s="32">
+        <v>0</v>
+      </c>
+      <c r="Z123" s="32"/>
+      <c r="AA123" s="32"/>
+      <c r="AB123" s="32"/>
+      <c r="AC123" s="32"/>
+      <c r="AD123" s="32"/>
+      <c r="AE123" s="32"/>
+      <c r="AF123" s="32"/>
+      <c r="AG123" s="32"/>
+      <c r="AH123" s="32"/>
+      <c r="AI123" s="32"/>
+      <c r="AJ123" s="32"/>
+      <c r="AK123" s="32"/>
+      <c r="AL123" s="33"/>
+    </row>
+    <row r="124" spans="15:38" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="O124" s="12">
+        <v>5</v>
+      </c>
+      <c r="R124" s="24"/>
+      <c r="S124" s="36">
+        <v>0</v>
+      </c>
+      <c r="T124" s="36">
+        <v>0</v>
+      </c>
+      <c r="U124" s="36">
+        <v>0</v>
+      </c>
+      <c r="V124" s="1">
+        <v>1</v>
+      </c>
+      <c r="W124" s="38">
+        <v>0</v>
+      </c>
+      <c r="X124" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y124" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z124" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA124" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB124" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC124" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD124" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE124" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF124" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG124" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH124" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI124" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ124" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK124" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL124" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="15:38" ht="24" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R125" s="25"/>
+      <c r="S125" s="19"/>
+      <c r="T125" s="19"/>
+      <c r="U125" s="19">
+        <v>1</v>
+      </c>
+      <c r="V125" s="19">
+        <v>1</v>
+      </c>
+      <c r="W125" s="19">
+        <v>1</v>
+      </c>
+      <c r="X125" s="34">
+        <v>0</v>
+      </c>
+      <c r="Y125" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z125" s="34"/>
+      <c r="AA125" s="34"/>
+      <c r="AB125" s="34"/>
+      <c r="AC125" s="34"/>
+      <c r="AD125" s="34"/>
+      <c r="AE125" s="34"/>
+      <c r="AF125" s="34"/>
+      <c r="AG125" s="34"/>
+      <c r="AH125" s="34"/>
+      <c r="AI125" s="34"/>
+      <c r="AJ125" s="34"/>
+      <c r="AK125" s="34"/>
+      <c r="AL125" s="35"/>
+    </row>
+    <row r="126" spans="15:38" ht="14.25" thickBot="1"/>
+    <row r="127" spans="15:38" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R127" s="2"/>
+      <c r="S127" s="40"/>
+      <c r="T127" s="40"/>
+      <c r="U127" s="40"/>
+      <c r="V127" s="40">
+        <v>4</v>
+      </c>
+      <c r="W127" s="40">
+        <v>3</v>
+      </c>
+      <c r="X127" s="40">
+        <v>2</v>
+      </c>
+      <c r="Y127" s="41">
+        <v>1</v>
+      </c>
+      <c r="Z127" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="41"/>
+      <c r="AB127" s="41"/>
+      <c r="AC127" s="41"/>
+      <c r="AD127" s="41"/>
+      <c r="AE127" s="41"/>
+      <c r="AF127" s="41"/>
+      <c r="AG127" s="41"/>
+      <c r="AH127" s="41"/>
+      <c r="AI127" s="41"/>
+      <c r="AJ127" s="41"/>
+      <c r="AK127" s="41"/>
+      <c r="AL127" s="42"/>
+    </row>
+    <row r="128" spans="15:38" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="O128" s="12">
+        <v>6</v>
+      </c>
+      <c r="R128" s="11"/>
+      <c r="S128" s="36">
+        <v>0</v>
+      </c>
+      <c r="T128" s="36">
+        <v>0</v>
+      </c>
+      <c r="U128" s="36">
+        <v>0</v>
+      </c>
+      <c r="V128" s="58">
+        <v>1</v>
+      </c>
+      <c r="W128" s="38">
+        <v>0</v>
+      </c>
+      <c r="X128" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="38">
+        <v>1</v>
+      </c>
+      <c r="AA128" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB128" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC128" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD128" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE128" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF128" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG128" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH128" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI128" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ128" s="43">
+        <v>0</v>
+      </c>
+      <c r="AK128" s="43">
+        <v>0</v>
+      </c>
+      <c r="AL128" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="15:38" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R129" s="9"/>
+      <c r="S129" s="46"/>
+      <c r="T129" s="46"/>
+      <c r="U129" s="46"/>
+      <c r="V129" s="39">
+        <v>1</v>
+      </c>
+      <c r="W129" s="46">
+        <v>1</v>
+      </c>
+      <c r="X129" s="46">
+        <v>1</v>
+      </c>
+      <c r="Y129" s="47">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="47">
+        <v>1</v>
+      </c>
+      <c r="AA129" s="47"/>
+      <c r="AB129" s="47"/>
+      <c r="AC129" s="47"/>
+      <c r="AD129" s="47"/>
+      <c r="AE129" s="47"/>
+      <c r="AF129" s="47"/>
+      <c r="AG129" s="47"/>
+      <c r="AH129" s="47"/>
+      <c r="AI129" s="47"/>
+      <c r="AJ129" s="47"/>
+      <c r="AK129" s="47"/>
+      <c r="AL129" s="48"/>
+    </row>
+    <row r="130" spans="15:38" ht="15" thickTop="1" thickBot="1"/>
+    <row r="131" spans="15:38" ht="27" customHeight="1" thickBot="1">
+      <c r="R131" s="16"/>
+      <c r="S131" s="51"/>
+      <c r="T131" s="51"/>
+      <c r="U131" s="51"/>
+      <c r="V131" s="51">
+        <v>4</v>
+      </c>
+      <c r="W131" s="51">
+        <v>3</v>
+      </c>
+      <c r="X131" s="51">
+        <v>2</v>
+      </c>
+      <c r="Y131" s="52">
+        <v>1</v>
+      </c>
+      <c r="Z131" s="52">
+        <v>0</v>
+      </c>
+      <c r="AA131" s="32"/>
+      <c r="AB131" s="52"/>
+      <c r="AC131" s="52"/>
+      <c r="AD131" s="52"/>
+      <c r="AE131" s="52"/>
+      <c r="AF131" s="52"/>
+      <c r="AG131" s="52"/>
+      <c r="AH131" s="52"/>
+      <c r="AI131" s="52"/>
+      <c r="AJ131" s="52"/>
+      <c r="AK131" s="52"/>
+      <c r="AL131" s="53"/>
+    </row>
+    <row r="132" spans="15:38" ht="27" customHeight="1" thickTop="1" thickBot="1">
+      <c r="O132" s="12">
+        <v>7</v>
+      </c>
+      <c r="R132" s="24"/>
+      <c r="S132" s="36">
+        <v>0</v>
+      </c>
+      <c r="T132" s="36">
+        <v>0</v>
+      </c>
+      <c r="U132" s="36">
+        <v>0</v>
+      </c>
+      <c r="V132" s="36">
+        <v>0</v>
+      </c>
+      <c r="W132" s="49">
+        <v>0</v>
+      </c>
+      <c r="X132" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y132" s="38">
+        <v>0</v>
+      </c>
+      <c r="Z132" s="38">
+        <v>1</v>
+      </c>
+      <c r="AA132" s="50">
+        <v>0</v>
+      </c>
+      <c r="AB132" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC132" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD132" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE132" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF132" s="6">
+        <v>1</v>
+      </c>
+      <c r="AG132" s="6">
+        <v>1</v>
+      </c>
+      <c r="AH132" s="6">
+        <v>0</v>
+      </c>
+      <c r="AI132" s="43">
+        <v>0</v>
+      </c>
+      <c r="AJ132" s="43">
+        <v>0</v>
+      </c>
+      <c r="AK132" s="43">
+        <v>0</v>
+      </c>
+      <c r="AL132" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="15:38" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R133" s="25"/>
+      <c r="S133" s="55"/>
+      <c r="T133" s="55"/>
+      <c r="U133" s="55"/>
+      <c r="V133" s="55">
+        <v>1</v>
+      </c>
+      <c r="W133" s="55">
+        <v>1</v>
+      </c>
+      <c r="X133" s="55">
+        <v>1</v>
+      </c>
+      <c r="Y133" s="56">
+        <v>0</v>
+      </c>
+      <c r="Z133" s="56">
+        <v>1</v>
+      </c>
+      <c r="AA133" s="56"/>
+      <c r="AB133" s="56"/>
+      <c r="AC133" s="56"/>
+      <c r="AD133" s="56"/>
+      <c r="AE133" s="56"/>
+      <c r="AF133" s="56"/>
+      <c r="AG133" s="56"/>
+      <c r="AH133" s="56"/>
+      <c r="AI133" s="56"/>
+      <c r="AJ133" s="56"/>
+      <c r="AK133" s="56"/>
+      <c r="AL133" s="57"/>
+    </row>
+    <row r="135" spans="15:38" ht="32.25" customHeight="1" thickBot="1">
+      <c r="O135" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="15:38" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R136" s="2"/>
+      <c r="S136" s="3"/>
+      <c r="T136" s="3"/>
+      <c r="U136" s="3"/>
+      <c r="V136" s="3"/>
+      <c r="W136" s="3"/>
+      <c r="X136" s="28"/>
+      <c r="Y136" s="28"/>
+      <c r="Z136" s="28"/>
+      <c r="AA136" s="28"/>
+      <c r="AB136" s="28"/>
+      <c r="AC136" s="28"/>
+      <c r="AD136" s="28"/>
+      <c r="AE136" s="28"/>
+      <c r="AF136" s="28"/>
+      <c r="AG136" s="28"/>
+      <c r="AH136" s="28">
+        <v>4</v>
+      </c>
+      <c r="AI136" s="28">
+        <v>3</v>
+      </c>
+      <c r="AJ136" s="28">
+        <v>2</v>
+      </c>
+      <c r="AK136" s="28">
+        <v>1</v>
+      </c>
+      <c r="AL136" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="15:38" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="O137" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R137" s="11"/>
+      <c r="S137" s="37"/>
+      <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="1"/>
+      <c r="W137" s="38"/>
+      <c r="X137" s="4"/>
+      <c r="Y137" s="4"/>
+      <c r="Z137" s="4"/>
+      <c r="AA137" s="5"/>
+      <c r="AB137" s="5"/>
+      <c r="AC137" s="5"/>
+      <c r="AD137" s="5"/>
+      <c r="AE137" s="6"/>
+      <c r="AF137" s="6"/>
+      <c r="AG137" s="6"/>
+      <c r="AH137" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI137" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ137" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK137" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL137" s="44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="15:38" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R138" s="9"/>
+      <c r="S138" s="10"/>
+      <c r="T138" s="10"/>
+      <c r="U138" s="10"/>
+      <c r="V138" s="10"/>
+      <c r="W138" s="10"/>
+      <c r="X138" s="30"/>
+      <c r="Y138" s="30"/>
+      <c r="Z138" s="30"/>
+      <c r="AA138" s="30"/>
+      <c r="AB138" s="30"/>
+      <c r="AC138" s="30"/>
+      <c r="AD138" s="30"/>
+      <c r="AE138" s="30"/>
+      <c r="AF138" s="30"/>
+      <c r="AG138" s="30"/>
+      <c r="AH138" s="30">
+        <v>1</v>
+      </c>
+      <c r="AI138" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ138" s="30">
+        <v>1</v>
+      </c>
+      <c r="AK138" s="30">
+        <v>0</v>
+      </c>
+      <c r="AL138" s="31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="15:38" ht="14.25" thickTop="1"/>
+    <row r="141" spans="15:38">
+      <c r="O141" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="R27:V27"/>
+    <mergeCell ref="R51:V51"/>
+    <mergeCell ref="R63:V63"/>
+    <mergeCell ref="R71:V71"/>
+    <mergeCell ref="R79:V79"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/资料/CRC_Demostration.xlsx
+++ b/资料/CRC_Demostration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="62">
   <si>
     <t>xor</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -87,7 +87,283 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>如果把4bit看成一组，第4 6步骤</t>
+    <r>
+      <t xml:space="preserve">如果把4bit看成一组，第4 6步骤poly把message高位4个bit xor 成为0，
+4 6这两个步骤对message低位的其他bit的影响是：
+                  0010 1011 …
+                    11 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                     1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1101
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">红色的bit是对后面message造成的影响，因为xor满足结合律，所以分步骤的 1011 xor 1010 再 xor 1101 等价于1011 xor (1010 xor 1101)
+可见，当把message高4bit清零的时候，poly对后面的影响可以累积（xor）起来，最后一次性 xor 给后续的一系列bit。
+对于4bit一组的message，一共有16种组合，0000,0001,0010,0011... 1111,这16种，而针对每一种组合都有一个poly的组合（poly的组合使得4bit message xor 为0，也就是 4bit 除以 poly之后使得 4bit为0）和4bit xor之后使得4bit为0000.
+那么这个poly的组合是唯一的么？这poly的组合如何求？
+满足这个条件的poly的组合肯定是唯一的，因为：这个poly的组合相当于用 poly 对 4bit进行除法运算“够减”时若干个poly 右移一定位数的组合：
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于CRC32来说:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011</t>
+  </si>
+  <si>
+    <t>1011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32bit （4字节）一组的message</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x04C11DB7</t>
+  </si>
+  <si>
+    <t>poly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>1101</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>0100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始计算CRC：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>message 左移出一个字节</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0111</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>111</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>poly 8个不同的可能位置，针对4个字节的影响</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下面开始研究怎么计算这个针对8bit进行xor操作的table：对于32bit的poly，
+0x04c11db7,其实真正进行除法操作的poly_real是第33bit上是1！（poly_real64 = 0x100000000 | poly）
+因为int32放不下，而且在计算除法过程中只需要用到高8bit，所以可以把poly右移1位，然后把32bit位置置为1，用得到的这个数值poly_real32（0x80000000 | (poly&gt;&gt;1) ） 针对 
+0000 0001 0000 0000 0000 0000 0000 0000
+0000 0010 0000 0000 0000 0000 0000 0000
+…
+1111 1111 0000 0000 0000 0000 0000 0000
+进行除法，使得高8bit为0
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -95,7 +371,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,8 +419,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,8 +505,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -442,13 +754,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,122 +867,185 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C1:AL141"/>
+  <dimension ref="C1:AL175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="O141" sqref="O141"/>
+    <sheetView tabSelected="1" topLeftCell="H144" workbookViewId="0">
+      <selection activeCell="V174" sqref="V174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1011,7 +1432,7 @@
     <col min="14" max="14" width="4" style="12" customWidth="1"/>
     <col min="15" max="15" width="4.5" style="12" customWidth="1"/>
     <col min="16" max="16" width="4.625" style="12" customWidth="1"/>
-    <col min="17" max="17" width="4.25" style="12" customWidth="1"/>
+    <col min="17" max="17" width="5" style="12" customWidth="1"/>
     <col min="18" max="18" width="5.25" style="12" customWidth="1"/>
     <col min="19" max="19" width="5.75" style="12" customWidth="1"/>
     <col min="20" max="20" width="5.375" style="12" customWidth="1"/>
@@ -1021,8 +1442,7 @@
     <col min="24" max="24" width="6.625" style="12" customWidth="1"/>
     <col min="25" max="25" width="5.75" style="12" customWidth="1"/>
     <col min="26" max="26" width="6" style="12" customWidth="1"/>
-    <col min="27" max="27" width="6.375" style="12" customWidth="1"/>
-    <col min="28" max="29" width="5.75" style="12" customWidth="1"/>
+    <col min="27" max="29" width="5.75" style="12" customWidth="1"/>
     <col min="30" max="30" width="5.875" style="12" customWidth="1"/>
     <col min="31" max="31" width="6.875" style="12" customWidth="1"/>
     <col min="32" max="32" width="6.75" style="12" customWidth="1"/>
@@ -1037,10 +1457,10 @@
   <sheetData>
     <row r="1" spans="10:38" ht="20.25" customHeight="1"/>
     <row r="10" spans="10:38" ht="31.5" customHeight="1">
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
       <c r="R10" s="12" t="s">
         <v>3</v>
       </c>
@@ -1052,7 +1472,7 @@
       <c r="R11" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="25" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1072,22 +1492,22 @@
       <c r="V12" s="3">
         <v>0</v>
       </c>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
-      <c r="AA12" s="28"/>
-      <c r="AB12" s="28"/>
-      <c r="AC12" s="28"/>
-      <c r="AD12" s="28"/>
-      <c r="AE12" s="28"/>
-      <c r="AF12" s="28"/>
-      <c r="AG12" s="28"/>
-      <c r="AH12" s="28"/>
-      <c r="AI12" s="28"/>
-      <c r="AJ12" s="28"/>
-      <c r="AK12" s="28"/>
-      <c r="AL12" s="29"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="26"/>
+      <c r="AC12" s="26"/>
+      <c r="AD12" s="26"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="26"/>
+      <c r="AG12" s="26"/>
+      <c r="AH12" s="26"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="26"/>
+      <c r="AK12" s="26"/>
+      <c r="AL12" s="27"/>
     </row>
     <row r="13" spans="10:38" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="R13" s="11"/>
@@ -1168,22 +1588,22 @@
       <c r="V14" s="10">
         <v>1</v>
       </c>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="31"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="29"/>
     </row>
     <row r="15" spans="10:38" ht="27.75" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="16" spans="10:38" ht="30" customHeight="1" thickTop="1" thickBot="1">
@@ -1202,22 +1622,22 @@
       <c r="V16" s="3">
         <v>0</v>
       </c>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
-      <c r="AI16" s="28"/>
-      <c r="AJ16" s="28"/>
-      <c r="AK16" s="28"/>
-      <c r="AL16" s="29"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+      <c r="AA16" s="26"/>
+      <c r="AB16" s="26"/>
+      <c r="AC16" s="26"/>
+      <c r="AD16" s="26"/>
+      <c r="AE16" s="26"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="27"/>
     </row>
     <row r="17" spans="16:38" ht="24" customHeight="1" thickTop="1" thickBot="1">
       <c r="R17" s="11">
@@ -1298,22 +1718,22 @@
       <c r="V18" s="10">
         <v>1</v>
       </c>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
-      <c r="AB18" s="30"/>
-      <c r="AC18" s="30"/>
-      <c r="AD18" s="30"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="30"/>
-      <c r="AG18" s="30"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="30"/>
-      <c r="AL18" s="31"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="29"/>
     </row>
     <row r="19" spans="16:38" ht="28.5" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="20" spans="16:38" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
@@ -1332,22 +1752,22 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
-      <c r="Y20" s="28"/>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="28"/>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="28"/>
-      <c r="AD20" s="28"/>
-      <c r="AE20" s="28"/>
-      <c r="AF20" s="28"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="28"/>
-      <c r="AI20" s="28"/>
-      <c r="AJ20" s="28"/>
-      <c r="AK20" s="28"/>
-      <c r="AL20" s="29"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+      <c r="AA20" s="26"/>
+      <c r="AB20" s="26"/>
+      <c r="AC20" s="26"/>
+      <c r="AD20" s="26"/>
+      <c r="AE20" s="26"/>
+      <c r="AF20" s="26"/>
+      <c r="AG20" s="26"/>
+      <c r="AH20" s="26"/>
+      <c r="AI20" s="26"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="26"/>
+      <c r="AL20" s="27"/>
     </row>
     <row r="21" spans="16:38" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="Q21" s="12">
@@ -1429,22 +1849,22 @@
       <c r="V22" s="10">
         <v>1</v>
       </c>
-      <c r="W22" s="30"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="30"/>
-      <c r="AG22" s="30"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="30"/>
-      <c r="AK22" s="30"/>
-      <c r="AL22" s="31"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="28"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="28"/>
+      <c r="AK22" s="28"/>
+      <c r="AL22" s="29"/>
     </row>
     <row r="23" spans="16:38" ht="15" thickTop="1" thickBot="1"/>
     <row r="24" spans="16:38" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
@@ -1463,22 +1883,22 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="28"/>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="28"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="28"/>
-      <c r="AE24" s="28"/>
-      <c r="AF24" s="28"/>
-      <c r="AG24" s="28"/>
-      <c r="AH24" s="28"/>
-      <c r="AI24" s="28"/>
-      <c r="AJ24" s="28"/>
-      <c r="AK24" s="28"/>
-      <c r="AL24" s="29"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+      <c r="AA24" s="26"/>
+      <c r="AB24" s="26"/>
+      <c r="AC24" s="26"/>
+      <c r="AD24" s="26"/>
+      <c r="AE24" s="26"/>
+      <c r="AF24" s="26"/>
+      <c r="AG24" s="26"/>
+      <c r="AH24" s="26"/>
+      <c r="AI24" s="26"/>
+      <c r="AJ24" s="26"/>
+      <c r="AK24" s="26"/>
+      <c r="AL24" s="27"/>
     </row>
     <row r="25" spans="16:38" ht="27" customHeight="1" thickTop="1" thickBot="1">
       <c r="P25" s="12">
@@ -1487,7 +1907,7 @@
       <c r="Q25" s="12">
         <v>0</v>
       </c>
-      <c r="R25" s="22">
+      <c r="R25" s="20">
         <v>1</v>
       </c>
       <c r="S25" s="13">
@@ -1546,7 +1966,7 @@
       <c r="AL25" s="8"/>
     </row>
     <row r="26" spans="16:38" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="R26" s="23">
+      <c r="R26" s="21">
         <v>1</v>
       </c>
       <c r="S26" s="10">
@@ -1561,31 +1981,31 @@
       <c r="V26" s="10">
         <v>1</v>
       </c>
-      <c r="W26" s="30"/>
-      <c r="X26" s="30"/>
-      <c r="Y26" s="30"/>
-      <c r="Z26" s="30"/>
-      <c r="AA26" s="30"/>
-      <c r="AB26" s="30"/>
-      <c r="AC26" s="30"/>
-      <c r="AD26" s="30"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="30"/>
-      <c r="AG26" s="30"/>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="30"/>
-      <c r="AJ26" s="30"/>
-      <c r="AK26" s="30"/>
-      <c r="AL26" s="31"/>
+      <c r="W26" s="28"/>
+      <c r="X26" s="28"/>
+      <c r="Y26" s="28"/>
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="28"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="28"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="28"/>
+      <c r="AK26" s="28"/>
+      <c r="AL26" s="29"/>
     </row>
     <row r="27" spans="16:38" ht="15" thickTop="1" thickBot="1">
-      <c r="R27" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
+      <c r="R27" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
     </row>
     <row r="28" spans="16:38" ht="28.5" customHeight="1" thickBot="1">
       <c r="R28" s="16">
@@ -1603,22 +2023,22 @@
       <c r="V28" s="17">
         <v>0</v>
       </c>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="33"/>
+      <c r="W28" s="30"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="30"/>
+      <c r="AA28" s="30"/>
+      <c r="AB28" s="30"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="30"/>
+      <c r="AE28" s="30"/>
+      <c r="AF28" s="30"/>
+      <c r="AG28" s="30"/>
+      <c r="AH28" s="30"/>
+      <c r="AI28" s="30"/>
+      <c r="AJ28" s="30"/>
+      <c r="AK28" s="30"/>
+      <c r="AL28" s="31"/>
     </row>
     <row r="29" spans="16:38" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="P29" s="12">
@@ -1627,7 +2047,7 @@
       <c r="Q29" s="12">
         <v>0</v>
       </c>
-      <c r="R29" s="24">
+      <c r="R29" s="22">
         <v>0</v>
       </c>
       <c r="S29" s="1">
@@ -1686,7 +2106,7 @@
       <c r="AL29" s="18"/>
     </row>
     <row r="30" spans="16:38" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="R30" s="25">
+      <c r="R30" s="23">
         <v>1</v>
       </c>
       <c r="S30" s="19">
@@ -1701,22 +2121,22 @@
       <c r="V30" s="19">
         <v>1</v>
       </c>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="34"/>
-      <c r="AD30" s="34"/>
-      <c r="AE30" s="34"/>
-      <c r="AF30" s="34"/>
-      <c r="AG30" s="34"/>
-      <c r="AH30" s="34"/>
-      <c r="AI30" s="34"/>
-      <c r="AJ30" s="34"/>
-      <c r="AK30" s="34"/>
-      <c r="AL30" s="35"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="32"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="32"/>
+      <c r="AK30" s="32"/>
+      <c r="AL30" s="33"/>
     </row>
     <row r="31" spans="16:38" ht="17.25" customHeight="1" thickBot="1"/>
     <row r="32" spans="16:38" ht="24" customHeight="1" thickTop="1" thickBot="1">
@@ -1735,22 +2155,22 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-      <c r="W32" s="28"/>
-      <c r="X32" s="28"/>
-      <c r="Y32" s="28"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="28"/>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="28"/>
-      <c r="AD32" s="28"/>
-      <c r="AE32" s="28"/>
-      <c r="AF32" s="28"/>
-      <c r="AG32" s="28"/>
-      <c r="AH32" s="28"/>
-      <c r="AI32" s="28"/>
-      <c r="AJ32" s="28"/>
-      <c r="AK32" s="28"/>
-      <c r="AL32" s="29"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="26"/>
+      <c r="Y32" s="26"/>
+      <c r="Z32" s="26"/>
+      <c r="AA32" s="26"/>
+      <c r="AB32" s="26"/>
+      <c r="AC32" s="26"/>
+      <c r="AD32" s="26"/>
+      <c r="AE32" s="26"/>
+      <c r="AF32" s="26"/>
+      <c r="AG32" s="26"/>
+      <c r="AH32" s="26"/>
+      <c r="AI32" s="26"/>
+      <c r="AJ32" s="26"/>
+      <c r="AK32" s="26"/>
+      <c r="AL32" s="27"/>
     </row>
     <row r="33" spans="12:38" ht="30" customHeight="1" thickTop="1" thickBot="1">
       <c r="O33" s="12">
@@ -1834,22 +2254,22 @@
       <c r="V34" s="10">
         <v>1</v>
       </c>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
-      <c r="Z34" s="30"/>
-      <c r="AA34" s="30"/>
-      <c r="AB34" s="30"/>
-      <c r="AC34" s="30"/>
-      <c r="AD34" s="30"/>
-      <c r="AE34" s="30"/>
-      <c r="AF34" s="30"/>
-      <c r="AG34" s="30"/>
-      <c r="AH34" s="30"/>
-      <c r="AI34" s="30"/>
-      <c r="AJ34" s="30"/>
-      <c r="AK34" s="30"/>
-      <c r="AL34" s="31"/>
+      <c r="W34" s="28"/>
+      <c r="X34" s="28"/>
+      <c r="Y34" s="28"/>
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="28"/>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="28"/>
+      <c r="AE34" s="28"/>
+      <c r="AF34" s="28"/>
+      <c r="AG34" s="28"/>
+      <c r="AH34" s="28"/>
+      <c r="AI34" s="28"/>
+      <c r="AJ34" s="28"/>
+      <c r="AK34" s="28"/>
+      <c r="AL34" s="29"/>
     </row>
     <row r="35" spans="12:38" ht="20.25" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="36" spans="12:38" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
@@ -1868,22 +2288,22 @@
       <c r="V36" s="3">
         <v>0</v>
       </c>
-      <c r="W36" s="28"/>
-      <c r="X36" s="28"/>
-      <c r="Y36" s="28"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="28"/>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="28"/>
-      <c r="AD36" s="28"/>
-      <c r="AE36" s="28"/>
-      <c r="AF36" s="28"/>
-      <c r="AG36" s="28"/>
-      <c r="AH36" s="28"/>
-      <c r="AI36" s="28"/>
-      <c r="AJ36" s="28"/>
-      <c r="AK36" s="28"/>
-      <c r="AL36" s="29"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="26"/>
+      <c r="Y36" s="26"/>
+      <c r="Z36" s="26"/>
+      <c r="AA36" s="26"/>
+      <c r="AB36" s="26"/>
+      <c r="AC36" s="26"/>
+      <c r="AD36" s="26"/>
+      <c r="AE36" s="26"/>
+      <c r="AF36" s="26"/>
+      <c r="AG36" s="26"/>
+      <c r="AH36" s="26"/>
+      <c r="AI36" s="26"/>
+      <c r="AJ36" s="26"/>
+      <c r="AK36" s="26"/>
+      <c r="AL36" s="27"/>
     </row>
     <row r="37" spans="12:38" ht="32.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="N37" s="12">
@@ -1968,22 +2388,22 @@
       <c r="V38" s="10">
         <v>1</v>
       </c>
-      <c r="W38" s="30"/>
-      <c r="X38" s="30"/>
-      <c r="Y38" s="30"/>
-      <c r="Z38" s="30"/>
-      <c r="AA38" s="30"/>
-      <c r="AB38" s="30"/>
-      <c r="AC38" s="30"/>
-      <c r="AD38" s="30"/>
-      <c r="AE38" s="30"/>
-      <c r="AF38" s="30"/>
-      <c r="AG38" s="30"/>
-      <c r="AH38" s="30"/>
-      <c r="AI38" s="30"/>
-      <c r="AJ38" s="30"/>
-      <c r="AK38" s="30"/>
-      <c r="AL38" s="31"/>
+      <c r="W38" s="28"/>
+      <c r="X38" s="28"/>
+      <c r="Y38" s="28"/>
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="28"/>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="28"/>
+      <c r="AE38" s="28"/>
+      <c r="AF38" s="28"/>
+      <c r="AG38" s="28"/>
+      <c r="AH38" s="28"/>
+      <c r="AI38" s="28"/>
+      <c r="AJ38" s="28"/>
+      <c r="AK38" s="28"/>
+      <c r="AL38" s="29"/>
     </row>
     <row r="39" spans="12:38" ht="20.25" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="40" spans="12:38" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
@@ -2002,22 +2422,22 @@
       <c r="V40" s="3">
         <v>0</v>
       </c>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="28"/>
-      <c r="AC40" s="28"/>
-      <c r="AD40" s="28"/>
-      <c r="AE40" s="28"/>
-      <c r="AF40" s="28"/>
-      <c r="AG40" s="28"/>
-      <c r="AH40" s="28"/>
-      <c r="AI40" s="28"/>
-      <c r="AJ40" s="28"/>
-      <c r="AK40" s="28"/>
-      <c r="AL40" s="29"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="26"/>
+      <c r="Y40" s="26"/>
+      <c r="Z40" s="26"/>
+      <c r="AA40" s="26"/>
+      <c r="AB40" s="26"/>
+      <c r="AC40" s="26"/>
+      <c r="AD40" s="26"/>
+      <c r="AE40" s="26"/>
+      <c r="AF40" s="26"/>
+      <c r="AG40" s="26"/>
+      <c r="AH40" s="26"/>
+      <c r="AI40" s="26"/>
+      <c r="AJ40" s="26"/>
+      <c r="AK40" s="26"/>
+      <c r="AL40" s="27"/>
     </row>
     <row r="41" spans="12:38" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="M41" s="12">
@@ -2103,22 +2523,22 @@
       <c r="V42" s="10">
         <v>1</v>
       </c>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="30"/>
-      <c r="AA42" s="30"/>
-      <c r="AB42" s="30"/>
-      <c r="AC42" s="30"/>
-      <c r="AD42" s="30"/>
-      <c r="AE42" s="30"/>
-      <c r="AF42" s="30"/>
-      <c r="AG42" s="30"/>
-      <c r="AH42" s="30"/>
-      <c r="AI42" s="30"/>
-      <c r="AJ42" s="30"/>
-      <c r="AK42" s="30"/>
-      <c r="AL42" s="31"/>
+      <c r="W42" s="28"/>
+      <c r="X42" s="28"/>
+      <c r="Y42" s="28"/>
+      <c r="Z42" s="28"/>
+      <c r="AA42" s="28"/>
+      <c r="AB42" s="28"/>
+      <c r="AC42" s="28"/>
+      <c r="AD42" s="28"/>
+      <c r="AE42" s="28"/>
+      <c r="AF42" s="28"/>
+      <c r="AG42" s="28"/>
+      <c r="AH42" s="28"/>
+      <c r="AI42" s="28"/>
+      <c r="AJ42" s="28"/>
+      <c r="AK42" s="28"/>
+      <c r="AL42" s="29"/>
     </row>
     <row r="43" spans="12:38" ht="19.5" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="44" spans="12:38" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
@@ -2137,22 +2557,22 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-      <c r="W44" s="28"/>
-      <c r="X44" s="28"/>
-      <c r="Y44" s="28"/>
-      <c r="Z44" s="28"/>
-      <c r="AA44" s="28"/>
-      <c r="AB44" s="28"/>
-      <c r="AC44" s="28"/>
-      <c r="AD44" s="28"/>
-      <c r="AE44" s="28"/>
-      <c r="AF44" s="28"/>
-      <c r="AG44" s="28"/>
-      <c r="AH44" s="28"/>
-      <c r="AI44" s="28"/>
-      <c r="AJ44" s="28"/>
-      <c r="AK44" s="28"/>
-      <c r="AL44" s="29"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+      <c r="Y44" s="26"/>
+      <c r="Z44" s="26"/>
+      <c r="AA44" s="26"/>
+      <c r="AB44" s="26"/>
+      <c r="AC44" s="26"/>
+      <c r="AD44" s="26"/>
+      <c r="AE44" s="26"/>
+      <c r="AF44" s="26"/>
+      <c r="AG44" s="26"/>
+      <c r="AH44" s="26"/>
+      <c r="AI44" s="26"/>
+      <c r="AJ44" s="26"/>
+      <c r="AK44" s="26"/>
+      <c r="AL44" s="27"/>
     </row>
     <row r="45" spans="12:38" ht="32.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="L45" s="12">
@@ -2239,22 +2659,22 @@
       <c r="V46" s="10">
         <v>1</v>
       </c>
-      <c r="W46" s="30"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="30"/>
-      <c r="Z46" s="30"/>
-      <c r="AA46" s="30"/>
-      <c r="AB46" s="30"/>
-      <c r="AC46" s="30"/>
-      <c r="AD46" s="30"/>
-      <c r="AE46" s="30"/>
-      <c r="AF46" s="30"/>
-      <c r="AG46" s="30"/>
-      <c r="AH46" s="30"/>
-      <c r="AI46" s="30"/>
-      <c r="AJ46" s="30"/>
-      <c r="AK46" s="30"/>
-      <c r="AL46" s="31"/>
+      <c r="W46" s="28"/>
+      <c r="X46" s="28"/>
+      <c r="Y46" s="28"/>
+      <c r="Z46" s="28"/>
+      <c r="AA46" s="28"/>
+      <c r="AB46" s="28"/>
+      <c r="AC46" s="28"/>
+      <c r="AD46" s="28"/>
+      <c r="AE46" s="28"/>
+      <c r="AF46" s="28"/>
+      <c r="AG46" s="28"/>
+      <c r="AH46" s="28"/>
+      <c r="AI46" s="28"/>
+      <c r="AJ46" s="28"/>
+      <c r="AK46" s="28"/>
+      <c r="AL46" s="29"/>
     </row>
     <row r="47" spans="12:38" ht="22.5" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="48" spans="12:38" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
@@ -2273,22 +2693,22 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-      <c r="W48" s="28"/>
-      <c r="X48" s="28"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="28"/>
-      <c r="AA48" s="28"/>
-      <c r="AB48" s="28"/>
-      <c r="AC48" s="28"/>
-      <c r="AD48" s="28"/>
-      <c r="AE48" s="28"/>
-      <c r="AF48" s="28"/>
-      <c r="AG48" s="28"/>
-      <c r="AH48" s="28"/>
-      <c r="AI48" s="28"/>
-      <c r="AJ48" s="28"/>
-      <c r="AK48" s="28"/>
-      <c r="AL48" s="29"/>
+      <c r="W48" s="26"/>
+      <c r="X48" s="26"/>
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="26"/>
+      <c r="AA48" s="26"/>
+      <c r="AB48" s="26"/>
+      <c r="AC48" s="26"/>
+      <c r="AD48" s="26"/>
+      <c r="AE48" s="26"/>
+      <c r="AF48" s="26"/>
+      <c r="AG48" s="26"/>
+      <c r="AH48" s="26"/>
+      <c r="AI48" s="26"/>
+      <c r="AJ48" s="26"/>
+      <c r="AK48" s="26"/>
+      <c r="AL48" s="27"/>
     </row>
     <row r="49" spans="9:38" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="K49" s="12">
@@ -2312,7 +2732,7 @@
       <c r="Q49" s="12">
         <v>0</v>
       </c>
-      <c r="R49" s="22">
+      <c r="R49" s="20">
         <v>1</v>
       </c>
       <c r="S49" s="1">
@@ -2361,7 +2781,7 @@
       <c r="AL49" s="8"/>
     </row>
     <row r="50" spans="9:38" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="R50" s="23">
+      <c r="R50" s="21">
         <v>1</v>
       </c>
       <c r="S50" s="10">
@@ -2376,31 +2796,31 @@
       <c r="V50" s="10">
         <v>1</v>
       </c>
-      <c r="W50" s="30"/>
-      <c r="X50" s="30"/>
-      <c r="Y50" s="30"/>
-      <c r="Z50" s="30"/>
-      <c r="AA50" s="30"/>
-      <c r="AB50" s="30"/>
-      <c r="AC50" s="30"/>
-      <c r="AD50" s="30"/>
-      <c r="AE50" s="30"/>
-      <c r="AF50" s="30"/>
-      <c r="AG50" s="30"/>
-      <c r="AH50" s="30"/>
-      <c r="AI50" s="30"/>
-      <c r="AJ50" s="30"/>
-      <c r="AK50" s="30"/>
-      <c r="AL50" s="31"/>
+      <c r="W50" s="28"/>
+      <c r="X50" s="28"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="28"/>
+      <c r="AA50" s="28"/>
+      <c r="AB50" s="28"/>
+      <c r="AC50" s="28"/>
+      <c r="AD50" s="28"/>
+      <c r="AE50" s="28"/>
+      <c r="AF50" s="28"/>
+      <c r="AG50" s="28"/>
+      <c r="AH50" s="28"/>
+      <c r="AI50" s="28"/>
+      <c r="AJ50" s="28"/>
+      <c r="AK50" s="28"/>
+      <c r="AL50" s="29"/>
     </row>
     <row r="51" spans="9:38" ht="21" customHeight="1" thickTop="1" thickBot="1">
-      <c r="R51" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
+      <c r="R51" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="S51" s="58"/>
+      <c r="T51" s="58"/>
+      <c r="U51" s="58"/>
+      <c r="V51" s="58"/>
     </row>
     <row r="52" spans="9:38" ht="23.25" customHeight="1" thickBot="1">
       <c r="R52" s="16">
@@ -2418,22 +2838,22 @@
       <c r="V52" s="17">
         <v>0</v>
       </c>
-      <c r="W52" s="32"/>
-      <c r="X52" s="32"/>
-      <c r="Y52" s="32"/>
-      <c r="Z52" s="32"/>
-      <c r="AA52" s="32"/>
-      <c r="AB52" s="32"/>
-      <c r="AC52" s="32"/>
-      <c r="AD52" s="32"/>
-      <c r="AE52" s="32"/>
-      <c r="AF52" s="32"/>
-      <c r="AG52" s="32"/>
-      <c r="AH52" s="32"/>
-      <c r="AI52" s="32"/>
-      <c r="AJ52" s="32"/>
-      <c r="AK52" s="32"/>
-      <c r="AL52" s="33"/>
+      <c r="W52" s="30"/>
+      <c r="X52" s="30"/>
+      <c r="Y52" s="30"/>
+      <c r="Z52" s="30"/>
+      <c r="AA52" s="30"/>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="30"/>
+      <c r="AD52" s="30"/>
+      <c r="AE52" s="30"/>
+      <c r="AF52" s="30"/>
+      <c r="AG52" s="30"/>
+      <c r="AH52" s="30"/>
+      <c r="AI52" s="30"/>
+      <c r="AJ52" s="30"/>
+      <c r="AK52" s="30"/>
+      <c r="AL52" s="31"/>
     </row>
     <row r="53" spans="9:38" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="K53" s="12">
@@ -2457,7 +2877,7 @@
       <c r="Q53" s="12">
         <v>0</v>
       </c>
-      <c r="R53" s="24">
+      <c r="R53" s="22">
         <v>0</v>
       </c>
       <c r="S53" s="1">
@@ -2506,7 +2926,7 @@
       <c r="AL53" s="18"/>
     </row>
     <row r="54" spans="9:38" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <c r="R54" s="25">
+      <c r="R54" s="23">
         <v>1</v>
       </c>
       <c r="S54" s="19">
@@ -2521,22 +2941,22 @@
       <c r="V54" s="19">
         <v>1</v>
       </c>
-      <c r="W54" s="34"/>
-      <c r="X54" s="34"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="34"/>
-      <c r="AA54" s="34"/>
-      <c r="AB54" s="34"/>
-      <c r="AC54" s="34"/>
-      <c r="AD54" s="34"/>
-      <c r="AE54" s="34"/>
-      <c r="AF54" s="34"/>
-      <c r="AG54" s="34"/>
-      <c r="AH54" s="34"/>
-      <c r="AI54" s="34"/>
-      <c r="AJ54" s="34"/>
-      <c r="AK54" s="34"/>
-      <c r="AL54" s="35"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="32"/>
+      <c r="Y54" s="32"/>
+      <c r="Z54" s="32"/>
+      <c r="AA54" s="32"/>
+      <c r="AB54" s="32"/>
+      <c r="AC54" s="32"/>
+      <c r="AD54" s="32"/>
+      <c r="AE54" s="32"/>
+      <c r="AF54" s="32"/>
+      <c r="AG54" s="32"/>
+      <c r="AH54" s="32"/>
+      <c r="AI54" s="32"/>
+      <c r="AJ54" s="32"/>
+      <c r="AK54" s="32"/>
+      <c r="AL54" s="33"/>
     </row>
     <row r="55" spans="9:38" ht="23.25" customHeight="1" thickBot="1"/>
     <row r="56" spans="9:38" ht="24" customHeight="1" thickTop="1" thickBot="1">
@@ -2555,22 +2975,22 @@
       <c r="V56" s="3">
         <v>0</v>
       </c>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="28"/>
-      <c r="AC56" s="28"/>
-      <c r="AD56" s="28"/>
-      <c r="AE56" s="28"/>
-      <c r="AF56" s="28"/>
-      <c r="AG56" s="28"/>
-      <c r="AH56" s="28"/>
-      <c r="AI56" s="28"/>
-      <c r="AJ56" s="28"/>
-      <c r="AK56" s="28"/>
-      <c r="AL56" s="29"/>
+      <c r="W56" s="26"/>
+      <c r="X56" s="26"/>
+      <c r="Y56" s="26"/>
+      <c r="Z56" s="26"/>
+      <c r="AA56" s="26"/>
+      <c r="AB56" s="26"/>
+      <c r="AC56" s="26"/>
+      <c r="AD56" s="26"/>
+      <c r="AE56" s="26"/>
+      <c r="AF56" s="26"/>
+      <c r="AG56" s="26"/>
+      <c r="AH56" s="26"/>
+      <c r="AI56" s="26"/>
+      <c r="AJ56" s="26"/>
+      <c r="AK56" s="26"/>
+      <c r="AL56" s="27"/>
     </row>
     <row r="57" spans="9:38" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="J57" s="12">
@@ -2659,22 +3079,22 @@
       <c r="V58" s="10">
         <v>1</v>
       </c>
-      <c r="W58" s="30"/>
-      <c r="X58" s="30"/>
-      <c r="Y58" s="30"/>
-      <c r="Z58" s="30"/>
-      <c r="AA58" s="30"/>
-      <c r="AB58" s="30"/>
-      <c r="AC58" s="30"/>
-      <c r="AD58" s="30"/>
-      <c r="AE58" s="30"/>
-      <c r="AF58" s="30"/>
-      <c r="AG58" s="30"/>
-      <c r="AH58" s="30"/>
-      <c r="AI58" s="30"/>
-      <c r="AJ58" s="30"/>
-      <c r="AK58" s="30"/>
-      <c r="AL58" s="31"/>
+      <c r="W58" s="28"/>
+      <c r="X58" s="28"/>
+      <c r="Y58" s="28"/>
+      <c r="Z58" s="28"/>
+      <c r="AA58" s="28"/>
+      <c r="AB58" s="28"/>
+      <c r="AC58" s="28"/>
+      <c r="AD58" s="28"/>
+      <c r="AE58" s="28"/>
+      <c r="AF58" s="28"/>
+      <c r="AG58" s="28"/>
+      <c r="AH58" s="28"/>
+      <c r="AI58" s="28"/>
+      <c r="AJ58" s="28"/>
+      <c r="AK58" s="28"/>
+      <c r="AL58" s="29"/>
     </row>
     <row r="59" spans="9:38" ht="20.25" customHeight="1" thickTop="1" thickBot="1"/>
     <row r="60" spans="9:38" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
@@ -2693,22 +3113,22 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-      <c r="W60" s="28"/>
-      <c r="X60" s="28"/>
-      <c r="Y60" s="28"/>
-      <c r="Z60" s="28"/>
-      <c r="AA60" s="28"/>
-      <c r="AB60" s="28"/>
-      <c r="AC60" s="28"/>
-      <c r="AD60" s="28"/>
-      <c r="AE60" s="28"/>
-      <c r="AF60" s="28"/>
-      <c r="AG60" s="28"/>
-      <c r="AH60" s="28"/>
-      <c r="AI60" s="28"/>
-      <c r="AJ60" s="28"/>
-      <c r="AK60" s="28"/>
-      <c r="AL60" s="29"/>
+      <c r="W60" s="26"/>
+      <c r="X60" s="26"/>
+      <c r="Y60" s="26"/>
+      <c r="Z60" s="26"/>
+      <c r="AA60" s="26"/>
+      <c r="AB60" s="26"/>
+      <c r="AC60" s="26"/>
+      <c r="AD60" s="26"/>
+      <c r="AE60" s="26"/>
+      <c r="AF60" s="26"/>
+      <c r="AG60" s="26"/>
+      <c r="AH60" s="26"/>
+      <c r="AI60" s="26"/>
+      <c r="AJ60" s="26"/>
+      <c r="AK60" s="26"/>
+      <c r="AL60" s="27"/>
     </row>
     <row r="61" spans="9:38" ht="24" customHeight="1" thickTop="1" thickBot="1">
       <c r="I61" s="12">
@@ -2738,7 +3158,7 @@
       <c r="Q61" s="12">
         <v>0</v>
       </c>
-      <c r="R61" s="22">
+      <c r="R61" s="20">
         <v>1</v>
       </c>
       <c r="S61" s="1">
@@ -2783,7 +3203,7 @@
       <c r="AL61" s="8"/>
     </row>
     <row r="62" spans="9:38" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="R62" s="23">
+      <c r="R62" s="21">
         <v>1</v>
       </c>
       <c r="S62" s="10">
@@ -2798,31 +3218,31 @@
       <c r="V62" s="10">
         <v>1</v>
       </c>
-      <c r="W62" s="30"/>
-      <c r="X62" s="30"/>
-      <c r="Y62" s="30"/>
-      <c r="Z62" s="30"/>
-      <c r="AA62" s="30"/>
-      <c r="AB62" s="30"/>
-      <c r="AC62" s="30"/>
-      <c r="AD62" s="30"/>
-      <c r="AE62" s="30"/>
-      <c r="AF62" s="30"/>
-      <c r="AG62" s="30"/>
-      <c r="AH62" s="30"/>
-      <c r="AI62" s="30"/>
-      <c r="AJ62" s="30"/>
-      <c r="AK62" s="30"/>
-      <c r="AL62" s="31"/>
+      <c r="W62" s="28"/>
+      <c r="X62" s="28"/>
+      <c r="Y62" s="28"/>
+      <c r="Z62" s="28"/>
+      <c r="AA62" s="28"/>
+      <c r="AB62" s="28"/>
+      <c r="AC62" s="28"/>
+      <c r="AD62" s="28"/>
+      <c r="AE62" s="28"/>
+      <c r="AF62" s="28"/>
+      <c r="AG62" s="28"/>
+      <c r="AH62" s="28"/>
+      <c r="AI62" s="28"/>
+      <c r="AJ62" s="28"/>
+      <c r="AK62" s="28"/>
+      <c r="AL62" s="29"/>
     </row>
     <row r="63" spans="9:38" ht="18" customHeight="1" thickTop="1" thickBot="1">
-      <c r="R63" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S63" s="20"/>
-      <c r="T63" s="20"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="20"/>
+      <c r="R63" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="S63" s="57"/>
+      <c r="T63" s="57"/>
+      <c r="U63" s="57"/>
+      <c r="V63" s="57"/>
     </row>
     <row r="64" spans="9:38" ht="21" customHeight="1" thickBot="1">
       <c r="R64" s="16">
@@ -2840,22 +3260,22 @@
       <c r="V64" s="17">
         <v>0</v>
       </c>
-      <c r="W64" s="32"/>
-      <c r="X64" s="32"/>
-      <c r="Y64" s="32"/>
-      <c r="Z64" s="32"/>
-      <c r="AA64" s="32"/>
-      <c r="AB64" s="32"/>
-      <c r="AC64" s="32"/>
-      <c r="AD64" s="32"/>
-      <c r="AE64" s="32"/>
-      <c r="AF64" s="32"/>
-      <c r="AG64" s="32"/>
-      <c r="AH64" s="32"/>
-      <c r="AI64" s="32"/>
-      <c r="AJ64" s="32"/>
-      <c r="AK64" s="32"/>
-      <c r="AL64" s="33"/>
+      <c r="W64" s="30"/>
+      <c r="X64" s="30"/>
+      <c r="Y64" s="30"/>
+      <c r="Z64" s="30"/>
+      <c r="AA64" s="30"/>
+      <c r="AB64" s="30"/>
+      <c r="AC64" s="30"/>
+      <c r="AD64" s="30"/>
+      <c r="AE64" s="30"/>
+      <c r="AF64" s="30"/>
+      <c r="AG64" s="30"/>
+      <c r="AH64" s="30"/>
+      <c r="AI64" s="30"/>
+      <c r="AJ64" s="30"/>
+      <c r="AK64" s="30"/>
+      <c r="AL64" s="31"/>
     </row>
     <row r="65" spans="7:38" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="I65" s="12">
@@ -2885,7 +3305,7 @@
       <c r="Q65" s="12">
         <v>0</v>
       </c>
-      <c r="R65" s="24">
+      <c r="R65" s="22">
         <v>0</v>
       </c>
       <c r="S65" s="1">
@@ -2930,7 +3350,7 @@
       <c r="AL65" s="18"/>
     </row>
     <row r="66" spans="7:38" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="R66" s="25">
+      <c r="R66" s="23">
         <v>1</v>
       </c>
       <c r="S66" s="19">
@@ -2945,22 +3365,22 @@
       <c r="V66" s="19">
         <v>1</v>
       </c>
-      <c r="W66" s="34"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="34"/>
-      <c r="AA66" s="34"/>
-      <c r="AB66" s="34"/>
-      <c r="AC66" s="34"/>
-      <c r="AD66" s="34"/>
-      <c r="AE66" s="34"/>
-      <c r="AF66" s="34"/>
-      <c r="AG66" s="34"/>
-      <c r="AH66" s="34"/>
-      <c r="AI66" s="34"/>
-      <c r="AJ66" s="34"/>
-      <c r="AK66" s="34"/>
-      <c r="AL66" s="35"/>
+      <c r="W66" s="32"/>
+      <c r="X66" s="32"/>
+      <c r="Y66" s="32"/>
+      <c r="Z66" s="32"/>
+      <c r="AA66" s="32"/>
+      <c r="AB66" s="32"/>
+      <c r="AC66" s="32"/>
+      <c r="AD66" s="32"/>
+      <c r="AE66" s="32"/>
+      <c r="AF66" s="32"/>
+      <c r="AG66" s="32"/>
+      <c r="AH66" s="32"/>
+      <c r="AI66" s="32"/>
+      <c r="AJ66" s="32"/>
+      <c r="AK66" s="32"/>
+      <c r="AL66" s="33"/>
     </row>
     <row r="67" spans="7:38" ht="14.25" thickBot="1"/>
     <row r="68" spans="7:38" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
@@ -2979,22 +3399,22 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-      <c r="W68" s="28"/>
-      <c r="X68" s="28"/>
-      <c r="Y68" s="28"/>
-      <c r="Z68" s="28"/>
-      <c r="AA68" s="28"/>
-      <c r="AB68" s="28"/>
-      <c r="AC68" s="28"/>
-      <c r="AD68" s="28"/>
-      <c r="AE68" s="28"/>
-      <c r="AF68" s="28"/>
-      <c r="AG68" s="28"/>
-      <c r="AH68" s="28"/>
-      <c r="AI68" s="28"/>
-      <c r="AJ68" s="28"/>
-      <c r="AK68" s="28"/>
-      <c r="AL68" s="29"/>
+      <c r="W68" s="26"/>
+      <c r="X68" s="26"/>
+      <c r="Y68" s="26"/>
+      <c r="Z68" s="26"/>
+      <c r="AA68" s="26"/>
+      <c r="AB68" s="26"/>
+      <c r="AC68" s="26"/>
+      <c r="AD68" s="26"/>
+      <c r="AE68" s="26"/>
+      <c r="AF68" s="26"/>
+      <c r="AG68" s="26"/>
+      <c r="AH68" s="26"/>
+      <c r="AI68" s="26"/>
+      <c r="AJ68" s="26"/>
+      <c r="AK68" s="26"/>
+      <c r="AL68" s="27"/>
     </row>
     <row r="69" spans="7:38" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="H69" s="12">
@@ -3027,7 +3447,7 @@
       <c r="Q69" s="12">
         <v>0</v>
       </c>
-      <c r="R69" s="22">
+      <c r="R69" s="20">
         <v>1</v>
       </c>
       <c r="S69" s="1">
@@ -3070,7 +3490,7 @@
       <c r="AL69" s="8"/>
     </row>
     <row r="70" spans="7:38" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <c r="R70" s="23">
+      <c r="R70" s="21">
         <v>1</v>
       </c>
       <c r="S70" s="10">
@@ -3085,31 +3505,31 @@
       <c r="V70" s="10">
         <v>1</v>
       </c>
-      <c r="W70" s="30"/>
-      <c r="X70" s="30"/>
-      <c r="Y70" s="30"/>
-      <c r="Z70" s="30"/>
-      <c r="AA70" s="30"/>
-      <c r="AB70" s="30"/>
-      <c r="AC70" s="30"/>
-      <c r="AD70" s="30"/>
-      <c r="AE70" s="30"/>
-      <c r="AF70" s="30"/>
-      <c r="AG70" s="30"/>
-      <c r="AH70" s="30"/>
-      <c r="AI70" s="30"/>
-      <c r="AJ70" s="30"/>
-      <c r="AK70" s="30"/>
-      <c r="AL70" s="31"/>
+      <c r="W70" s="28"/>
+      <c r="X70" s="28"/>
+      <c r="Y70" s="28"/>
+      <c r="Z70" s="28"/>
+      <c r="AA70" s="28"/>
+      <c r="AB70" s="28"/>
+      <c r="AC70" s="28"/>
+      <c r="AD70" s="28"/>
+      <c r="AE70" s="28"/>
+      <c r="AF70" s="28"/>
+      <c r="AG70" s="28"/>
+      <c r="AH70" s="28"/>
+      <c r="AI70" s="28"/>
+      <c r="AJ70" s="28"/>
+      <c r="AK70" s="28"/>
+      <c r="AL70" s="29"/>
     </row>
     <row r="71" spans="7:38" ht="16.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="R71" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S71" s="20"/>
-      <c r="T71" s="20"/>
-      <c r="U71" s="20"/>
-      <c r="V71" s="20"/>
+      <c r="R71" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="S71" s="57"/>
+      <c r="T71" s="57"/>
+      <c r="U71" s="57"/>
+      <c r="V71" s="57"/>
     </row>
     <row r="72" spans="7:38" ht="24.75" customHeight="1" thickBot="1">
       <c r="R72" s="16">
@@ -3127,22 +3547,22 @@
       <c r="V72" s="17">
         <v>0</v>
       </c>
-      <c r="W72" s="32"/>
-      <c r="X72" s="32"/>
-      <c r="Y72" s="32"/>
-      <c r="Z72" s="32"/>
-      <c r="AA72" s="32"/>
-      <c r="AB72" s="32"/>
-      <c r="AC72" s="32"/>
-      <c r="AD72" s="32"/>
-      <c r="AE72" s="32"/>
-      <c r="AF72" s="32"/>
-      <c r="AG72" s="32"/>
-      <c r="AH72" s="32"/>
-      <c r="AI72" s="32"/>
-      <c r="AJ72" s="32"/>
-      <c r="AK72" s="32"/>
-      <c r="AL72" s="33"/>
+      <c r="W72" s="30"/>
+      <c r="X72" s="30"/>
+      <c r="Y72" s="30"/>
+      <c r="Z72" s="30"/>
+      <c r="AA72" s="30"/>
+      <c r="AB72" s="30"/>
+      <c r="AC72" s="30"/>
+      <c r="AD72" s="30"/>
+      <c r="AE72" s="30"/>
+      <c r="AF72" s="30"/>
+      <c r="AG72" s="30"/>
+      <c r="AH72" s="30"/>
+      <c r="AI72" s="30"/>
+      <c r="AJ72" s="30"/>
+      <c r="AK72" s="30"/>
+      <c r="AL72" s="31"/>
     </row>
     <row r="73" spans="7:38" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="H73" s="12">
@@ -3175,7 +3595,7 @@
       <c r="Q73" s="12">
         <v>0</v>
       </c>
-      <c r="R73" s="24">
+      <c r="R73" s="22">
         <v>0</v>
       </c>
       <c r="S73" s="1">
@@ -3218,7 +3638,7 @@
       <c r="AL73" s="18"/>
     </row>
     <row r="74" spans="7:38" ht="30" customHeight="1" thickTop="1" thickBot="1">
-      <c r="R74" s="25">
+      <c r="R74" s="23">
         <v>1</v>
       </c>
       <c r="S74" s="19">
@@ -3233,22 +3653,22 @@
       <c r="V74" s="19">
         <v>1</v>
       </c>
-      <c r="W74" s="34"/>
-      <c r="X74" s="34"/>
-      <c r="Y74" s="34"/>
-      <c r="Z74" s="34"/>
-      <c r="AA74" s="34"/>
-      <c r="AB74" s="34"/>
-      <c r="AC74" s="34"/>
-      <c r="AD74" s="34"/>
-      <c r="AE74" s="34"/>
-      <c r="AF74" s="34"/>
-      <c r="AG74" s="34"/>
-      <c r="AH74" s="34"/>
-      <c r="AI74" s="34"/>
-      <c r="AJ74" s="34"/>
-      <c r="AK74" s="34"/>
-      <c r="AL74" s="35"/>
+      <c r="W74" s="32"/>
+      <c r="X74" s="32"/>
+      <c r="Y74" s="32"/>
+      <c r="Z74" s="32"/>
+      <c r="AA74" s="32"/>
+      <c r="AB74" s="32"/>
+      <c r="AC74" s="32"/>
+      <c r="AD74" s="32"/>
+      <c r="AE74" s="32"/>
+      <c r="AF74" s="32"/>
+      <c r="AG74" s="32"/>
+      <c r="AH74" s="32"/>
+      <c r="AI74" s="32"/>
+      <c r="AJ74" s="32"/>
+      <c r="AK74" s="32"/>
+      <c r="AL74" s="33"/>
     </row>
     <row r="75" spans="7:38" ht="14.25" thickBot="1"/>
     <row r="76" spans="7:38" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
@@ -3267,22 +3687,22 @@
       <c r="V76" s="3">
         <v>0</v>
       </c>
-      <c r="W76" s="28"/>
-      <c r="X76" s="28"/>
-      <c r="Y76" s="28"/>
-      <c r="Z76" s="28"/>
-      <c r="AA76" s="28"/>
-      <c r="AB76" s="28"/>
-      <c r="AC76" s="28"/>
-      <c r="AD76" s="28"/>
-      <c r="AE76" s="28"/>
-      <c r="AF76" s="28"/>
-      <c r="AG76" s="28"/>
-      <c r="AH76" s="28"/>
-      <c r="AI76" s="28"/>
-      <c r="AJ76" s="28"/>
-      <c r="AK76" s="28"/>
-      <c r="AL76" s="29"/>
+      <c r="W76" s="26"/>
+      <c r="X76" s="26"/>
+      <c r="Y76" s="26"/>
+      <c r="Z76" s="26"/>
+      <c r="AA76" s="26"/>
+      <c r="AB76" s="26"/>
+      <c r="AC76" s="26"/>
+      <c r="AD76" s="26"/>
+      <c r="AE76" s="26"/>
+      <c r="AF76" s="26"/>
+      <c r="AG76" s="26"/>
+      <c r="AH76" s="26"/>
+      <c r="AI76" s="26"/>
+      <c r="AJ76" s="26"/>
+      <c r="AK76" s="26"/>
+      <c r="AL76" s="27"/>
     </row>
     <row r="77" spans="7:38" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="G77" s="12">
@@ -3374,31 +3794,31 @@
       <c r="V78" s="10">
         <v>1</v>
       </c>
-      <c r="W78" s="30"/>
-      <c r="X78" s="30"/>
-      <c r="Y78" s="30"/>
-      <c r="Z78" s="30"/>
-      <c r="AA78" s="30"/>
-      <c r="AB78" s="30"/>
-      <c r="AC78" s="30"/>
-      <c r="AD78" s="30"/>
-      <c r="AE78" s="30"/>
-      <c r="AF78" s="30"/>
-      <c r="AG78" s="30"/>
-      <c r="AH78" s="30"/>
-      <c r="AI78" s="30"/>
-      <c r="AJ78" s="30"/>
-      <c r="AK78" s="30"/>
-      <c r="AL78" s="31"/>
+      <c r="W78" s="28"/>
+      <c r="X78" s="28"/>
+      <c r="Y78" s="28"/>
+      <c r="Z78" s="28"/>
+      <c r="AA78" s="28"/>
+      <c r="AB78" s="28"/>
+      <c r="AC78" s="28"/>
+      <c r="AD78" s="28"/>
+      <c r="AE78" s="28"/>
+      <c r="AF78" s="28"/>
+      <c r="AG78" s="28"/>
+      <c r="AH78" s="28"/>
+      <c r="AI78" s="28"/>
+      <c r="AJ78" s="28"/>
+      <c r="AK78" s="28"/>
+      <c r="AL78" s="29"/>
     </row>
     <row r="79" spans="7:38" ht="15" thickTop="1" thickBot="1">
-      <c r="R79" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="S79" s="20"/>
-      <c r="T79" s="20"/>
-      <c r="U79" s="20"/>
-      <c r="V79" s="20"/>
+      <c r="R79" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="S79" s="57"/>
+      <c r="T79" s="57"/>
+      <c r="U79" s="57"/>
+      <c r="V79" s="57"/>
     </row>
     <row r="80" spans="7:38" ht="26.25" customHeight="1" thickBot="1">
       <c r="R80" s="16">
@@ -3416,22 +3836,22 @@
       <c r="V80" s="17">
         <v>0</v>
       </c>
-      <c r="W80" s="32"/>
-      <c r="X80" s="32"/>
-      <c r="Y80" s="32"/>
-      <c r="Z80" s="32"/>
-      <c r="AA80" s="32"/>
-      <c r="AB80" s="32"/>
-      <c r="AC80" s="32"/>
-      <c r="AD80" s="32"/>
-      <c r="AE80" s="32"/>
-      <c r="AF80" s="32"/>
-      <c r="AG80" s="32"/>
-      <c r="AH80" s="32"/>
-      <c r="AI80" s="32"/>
-      <c r="AJ80" s="32"/>
-      <c r="AK80" s="32"/>
-      <c r="AL80" s="33"/>
+      <c r="W80" s="30"/>
+      <c r="X80" s="30"/>
+      <c r="Y80" s="30"/>
+      <c r="Z80" s="30"/>
+      <c r="AA80" s="30"/>
+      <c r="AB80" s="30"/>
+      <c r="AC80" s="30"/>
+      <c r="AD80" s="30"/>
+      <c r="AE80" s="30"/>
+      <c r="AF80" s="30"/>
+      <c r="AG80" s="30"/>
+      <c r="AH80" s="30"/>
+      <c r="AI80" s="30"/>
+      <c r="AJ80" s="30"/>
+      <c r="AK80" s="30"/>
+      <c r="AL80" s="31"/>
     </row>
     <row r="81" spans="5:38" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="G81" s="12">
@@ -3467,7 +3887,7 @@
       <c r="Q81" s="12">
         <v>0</v>
       </c>
-      <c r="R81" s="24">
+      <c r="R81" s="22">
         <v>0</v>
       </c>
       <c r="S81" s="1">
@@ -3508,7 +3928,7 @@
       <c r="AL81" s="18"/>
     </row>
     <row r="82" spans="5:38" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="R82" s="25">
+      <c r="R82" s="23">
         <v>1</v>
       </c>
       <c r="S82" s="19">
@@ -3523,22 +3943,22 @@
       <c r="V82" s="19">
         <v>1</v>
       </c>
-      <c r="W82" s="34"/>
-      <c r="X82" s="34"/>
-      <c r="Y82" s="34"/>
-      <c r="Z82" s="34"/>
-      <c r="AA82" s="34"/>
-      <c r="AB82" s="34"/>
-      <c r="AC82" s="34"/>
-      <c r="AD82" s="34"/>
-      <c r="AE82" s="34"/>
-      <c r="AF82" s="34"/>
-      <c r="AG82" s="34"/>
-      <c r="AH82" s="34"/>
-      <c r="AI82" s="34"/>
-      <c r="AJ82" s="34"/>
-      <c r="AK82" s="34"/>
-      <c r="AL82" s="35"/>
+      <c r="W82" s="32"/>
+      <c r="X82" s="32"/>
+      <c r="Y82" s="32"/>
+      <c r="Z82" s="32"/>
+      <c r="AA82" s="32"/>
+      <c r="AB82" s="32"/>
+      <c r="AC82" s="32"/>
+      <c r="AD82" s="32"/>
+      <c r="AE82" s="32"/>
+      <c r="AF82" s="32"/>
+      <c r="AG82" s="32"/>
+      <c r="AH82" s="32"/>
+      <c r="AI82" s="32"/>
+      <c r="AJ82" s="32"/>
+      <c r="AK82" s="32"/>
+      <c r="AL82" s="33"/>
     </row>
     <row r="83" spans="5:38" ht="14.25" thickBot="1"/>
     <row r="84" spans="5:38" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
@@ -3557,22 +3977,22 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-      <c r="W84" s="28"/>
-      <c r="X84" s="28"/>
-      <c r="Y84" s="28"/>
-      <c r="Z84" s="28"/>
-      <c r="AA84" s="28"/>
-      <c r="AB84" s="28"/>
-      <c r="AC84" s="28"/>
-      <c r="AD84" s="28"/>
-      <c r="AE84" s="28"/>
-      <c r="AF84" s="28"/>
-      <c r="AG84" s="28"/>
-      <c r="AH84" s="28"/>
-      <c r="AI84" s="28"/>
-      <c r="AJ84" s="28"/>
-      <c r="AK84" s="28"/>
-      <c r="AL84" s="29"/>
+      <c r="W84" s="26"/>
+      <c r="X84" s="26"/>
+      <c r="Y84" s="26"/>
+      <c r="Z84" s="26"/>
+      <c r="AA84" s="26"/>
+      <c r="AB84" s="26"/>
+      <c r="AC84" s="26"/>
+      <c r="AD84" s="26"/>
+      <c r="AE84" s="26"/>
+      <c r="AF84" s="26"/>
+      <c r="AG84" s="26"/>
+      <c r="AH84" s="26"/>
+      <c r="AI84" s="26"/>
+      <c r="AJ84" s="26"/>
+      <c r="AK84" s="26"/>
+      <c r="AL84" s="27"/>
     </row>
     <row r="85" spans="5:38" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="F85" s="12">
@@ -3665,22 +4085,22 @@
       <c r="V86" s="10">
         <v>1</v>
       </c>
-      <c r="W86" s="30"/>
-      <c r="X86" s="30"/>
-      <c r="Y86" s="30"/>
-      <c r="Z86" s="30"/>
-      <c r="AA86" s="30"/>
-      <c r="AB86" s="30"/>
-      <c r="AC86" s="30"/>
-      <c r="AD86" s="30"/>
-      <c r="AE86" s="30"/>
-      <c r="AF86" s="30"/>
-      <c r="AG86" s="30"/>
-      <c r="AH86" s="30"/>
-      <c r="AI86" s="30"/>
-      <c r="AJ86" s="30"/>
-      <c r="AK86" s="30"/>
-      <c r="AL86" s="31"/>
+      <c r="W86" s="28"/>
+      <c r="X86" s="28"/>
+      <c r="Y86" s="28"/>
+      <c r="Z86" s="28"/>
+      <c r="AA86" s="28"/>
+      <c r="AB86" s="28"/>
+      <c r="AC86" s="28"/>
+      <c r="AD86" s="28"/>
+      <c r="AE86" s="28"/>
+      <c r="AF86" s="28"/>
+      <c r="AG86" s="28"/>
+      <c r="AH86" s="28"/>
+      <c r="AI86" s="28"/>
+      <c r="AJ86" s="28"/>
+      <c r="AK86" s="28"/>
+      <c r="AL86" s="29"/>
     </row>
     <row r="87" spans="5:38" ht="15" thickTop="1" thickBot="1"/>
     <row r="88" spans="5:38" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
@@ -3699,22 +4119,22 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-      <c r="W88" s="28"/>
-      <c r="X88" s="28"/>
-      <c r="Y88" s="28"/>
-      <c r="Z88" s="28"/>
-      <c r="AA88" s="28"/>
-      <c r="AB88" s="28"/>
-      <c r="AC88" s="28"/>
-      <c r="AD88" s="28"/>
-      <c r="AE88" s="28"/>
-      <c r="AF88" s="28"/>
-      <c r="AG88" s="28"/>
-      <c r="AH88" s="28"/>
-      <c r="AI88" s="28"/>
-      <c r="AJ88" s="28"/>
-      <c r="AK88" s="28"/>
-      <c r="AL88" s="29"/>
+      <c r="W88" s="26"/>
+      <c r="X88" s="26"/>
+      <c r="Y88" s="26"/>
+      <c r="Z88" s="26"/>
+      <c r="AA88" s="26"/>
+      <c r="AB88" s="26"/>
+      <c r="AC88" s="26"/>
+      <c r="AD88" s="26"/>
+      <c r="AE88" s="26"/>
+      <c r="AF88" s="26"/>
+      <c r="AG88" s="26"/>
+      <c r="AH88" s="26"/>
+      <c r="AI88" s="26"/>
+      <c r="AJ88" s="26"/>
+      <c r="AK88" s="26"/>
+      <c r="AL88" s="27"/>
     </row>
     <row r="89" spans="5:38" ht="27" customHeight="1" thickTop="1" thickBot="1">
       <c r="E89" s="12">
@@ -3756,7 +4176,7 @@
       <c r="Q89" s="12">
         <v>0</v>
       </c>
-      <c r="R89" s="22">
+      <c r="R89" s="20">
         <v>1</v>
       </c>
       <c r="S89" s="1">
@@ -3793,7 +4213,7 @@
       <c r="AL89" s="8"/>
     </row>
     <row r="90" spans="5:38" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="R90" s="23">
+      <c r="R90" s="21">
         <v>1</v>
       </c>
       <c r="S90" s="10">
@@ -3808,22 +4228,22 @@
       <c r="V90" s="10">
         <v>1</v>
       </c>
-      <c r="W90" s="30"/>
-      <c r="X90" s="30"/>
-      <c r="Y90" s="30"/>
-      <c r="Z90" s="30"/>
-      <c r="AA90" s="30"/>
-      <c r="AB90" s="30"/>
-      <c r="AC90" s="30"/>
-      <c r="AD90" s="30"/>
-      <c r="AE90" s="30"/>
-      <c r="AF90" s="30"/>
-      <c r="AG90" s="30"/>
-      <c r="AH90" s="30"/>
-      <c r="AI90" s="30"/>
-      <c r="AJ90" s="30"/>
-      <c r="AK90" s="30"/>
-      <c r="AL90" s="31"/>
+      <c r="W90" s="28"/>
+      <c r="X90" s="28"/>
+      <c r="Y90" s="28"/>
+      <c r="Z90" s="28"/>
+      <c r="AA90" s="28"/>
+      <c r="AB90" s="28"/>
+      <c r="AC90" s="28"/>
+      <c r="AD90" s="28"/>
+      <c r="AE90" s="28"/>
+      <c r="AF90" s="28"/>
+      <c r="AG90" s="28"/>
+      <c r="AH90" s="28"/>
+      <c r="AI90" s="28"/>
+      <c r="AJ90" s="28"/>
+      <c r="AK90" s="28"/>
+      <c r="AL90" s="29"/>
     </row>
     <row r="91" spans="5:38" ht="15" thickTop="1" thickBot="1"/>
     <row r="92" spans="5:38" ht="22.5" customHeight="1" thickBot="1">
@@ -3842,22 +4262,22 @@
       <c r="V92" s="17">
         <v>0</v>
       </c>
-      <c r="W92" s="32"/>
-      <c r="X92" s="32"/>
-      <c r="Y92" s="32"/>
-      <c r="Z92" s="32"/>
-      <c r="AA92" s="32"/>
-      <c r="AB92" s="32"/>
-      <c r="AC92" s="32"/>
-      <c r="AD92" s="32"/>
-      <c r="AE92" s="32"/>
-      <c r="AF92" s="32"/>
-      <c r="AG92" s="32"/>
-      <c r="AH92" s="32"/>
-      <c r="AI92" s="32"/>
-      <c r="AJ92" s="32"/>
-      <c r="AK92" s="32"/>
-      <c r="AL92" s="33"/>
+      <c r="W92" s="30"/>
+      <c r="X92" s="30"/>
+      <c r="Y92" s="30"/>
+      <c r="Z92" s="30"/>
+      <c r="AA92" s="30"/>
+      <c r="AB92" s="30"/>
+      <c r="AC92" s="30"/>
+      <c r="AD92" s="30"/>
+      <c r="AE92" s="30"/>
+      <c r="AF92" s="30"/>
+      <c r="AG92" s="30"/>
+      <c r="AH92" s="30"/>
+      <c r="AI92" s="30"/>
+      <c r="AJ92" s="30"/>
+      <c r="AK92" s="30"/>
+      <c r="AL92" s="31"/>
     </row>
     <row r="93" spans="5:38" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="E93" s="12">
@@ -3899,7 +4319,7 @@
       <c r="Q93" s="12">
         <v>0</v>
       </c>
-      <c r="R93" s="24">
+      <c r="R93" s="22">
         <v>0</v>
       </c>
       <c r="S93" s="1">
@@ -3936,7 +4356,7 @@
       <c r="AL93" s="18"/>
     </row>
     <row r="94" spans="5:38" ht="27" customHeight="1" thickTop="1" thickBot="1">
-      <c r="R94" s="25">
+      <c r="R94" s="23">
         <v>1</v>
       </c>
       <c r="S94" s="19">
@@ -3951,22 +4371,22 @@
       <c r="V94" s="19">
         <v>1</v>
       </c>
-      <c r="W94" s="34"/>
-      <c r="X94" s="34"/>
-      <c r="Y94" s="34"/>
-      <c r="Z94" s="34"/>
-      <c r="AA94" s="34"/>
-      <c r="AB94" s="34"/>
-      <c r="AC94" s="34"/>
-      <c r="AD94" s="34"/>
-      <c r="AE94" s="34"/>
-      <c r="AF94" s="34"/>
-      <c r="AG94" s="34"/>
-      <c r="AH94" s="34"/>
-      <c r="AI94" s="34"/>
-      <c r="AJ94" s="34"/>
-      <c r="AK94" s="34"/>
-      <c r="AL94" s="35"/>
+      <c r="W94" s="32"/>
+      <c r="X94" s="32"/>
+      <c r="Y94" s="32"/>
+      <c r="Z94" s="32"/>
+      <c r="AA94" s="32"/>
+      <c r="AB94" s="32"/>
+      <c r="AC94" s="32"/>
+      <c r="AD94" s="32"/>
+      <c r="AE94" s="32"/>
+      <c r="AF94" s="32"/>
+      <c r="AG94" s="32"/>
+      <c r="AH94" s="32"/>
+      <c r="AI94" s="32"/>
+      <c r="AJ94" s="32"/>
+      <c r="AK94" s="32"/>
+      <c r="AL94" s="33"/>
     </row>
     <row r="95" spans="5:38" ht="14.25" thickBot="1"/>
     <row r="96" spans="5:38" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
@@ -3985,22 +4405,22 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-      <c r="W96" s="28"/>
-      <c r="X96" s="28"/>
-      <c r="Y96" s="28"/>
-      <c r="Z96" s="28"/>
-      <c r="AA96" s="28"/>
-      <c r="AB96" s="28"/>
-      <c r="AC96" s="28"/>
-      <c r="AD96" s="28"/>
-      <c r="AE96" s="28"/>
-      <c r="AF96" s="28"/>
-      <c r="AG96" s="28"/>
-      <c r="AH96" s="28"/>
-      <c r="AI96" s="28"/>
-      <c r="AJ96" s="28"/>
-      <c r="AK96" s="28"/>
-      <c r="AL96" s="29"/>
+      <c r="W96" s="26"/>
+      <c r="X96" s="26"/>
+      <c r="Y96" s="26"/>
+      <c r="Z96" s="26"/>
+      <c r="AA96" s="26"/>
+      <c r="AB96" s="26"/>
+      <c r="AC96" s="26"/>
+      <c r="AD96" s="26"/>
+      <c r="AE96" s="26"/>
+      <c r="AF96" s="26"/>
+      <c r="AG96" s="26"/>
+      <c r="AH96" s="26"/>
+      <c r="AI96" s="26"/>
+      <c r="AJ96" s="26"/>
+      <c r="AK96" s="26"/>
+      <c r="AL96" s="27"/>
     </row>
     <row r="97" spans="3:38" ht="33" customHeight="1" thickTop="1" thickBot="1">
       <c r="D97" s="12">
@@ -4095,22 +4515,22 @@
       <c r="V98" s="10">
         <v>1</v>
       </c>
-      <c r="W98" s="30"/>
-      <c r="X98" s="30"/>
-      <c r="Y98" s="30"/>
-      <c r="Z98" s="30"/>
-      <c r="AA98" s="30"/>
-      <c r="AB98" s="30"/>
-      <c r="AC98" s="30"/>
-      <c r="AD98" s="30"/>
-      <c r="AE98" s="30"/>
-      <c r="AF98" s="30"/>
-      <c r="AG98" s="30"/>
-      <c r="AH98" s="30"/>
-      <c r="AI98" s="30"/>
-      <c r="AJ98" s="30"/>
-      <c r="AK98" s="30"/>
-      <c r="AL98" s="31"/>
+      <c r="W98" s="28"/>
+      <c r="X98" s="28"/>
+      <c r="Y98" s="28"/>
+      <c r="Z98" s="28"/>
+      <c r="AA98" s="28"/>
+      <c r="AB98" s="28"/>
+      <c r="AC98" s="28"/>
+      <c r="AD98" s="28"/>
+      <c r="AE98" s="28"/>
+      <c r="AF98" s="28"/>
+      <c r="AG98" s="28"/>
+      <c r="AH98" s="28"/>
+      <c r="AI98" s="28"/>
+      <c r="AJ98" s="28"/>
+      <c r="AK98" s="28"/>
+      <c r="AL98" s="29"/>
     </row>
     <row r="99" spans="3:38" ht="15" thickTop="1" thickBot="1"/>
     <row r="100" spans="3:38" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
@@ -4129,22 +4549,22 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-      <c r="W100" s="28"/>
-      <c r="X100" s="28"/>
-      <c r="Y100" s="28"/>
-      <c r="Z100" s="28"/>
-      <c r="AA100" s="28"/>
-      <c r="AB100" s="28"/>
-      <c r="AC100" s="28"/>
-      <c r="AD100" s="28"/>
-      <c r="AE100" s="28"/>
-      <c r="AF100" s="28"/>
-      <c r="AG100" s="28"/>
-      <c r="AH100" s="28"/>
-      <c r="AI100" s="28"/>
-      <c r="AJ100" s="28"/>
-      <c r="AK100" s="28"/>
-      <c r="AL100" s="29"/>
+      <c r="W100" s="26"/>
+      <c r="X100" s="26"/>
+      <c r="Y100" s="26"/>
+      <c r="Z100" s="26"/>
+      <c r="AA100" s="26"/>
+      <c r="AB100" s="26"/>
+      <c r="AC100" s="26"/>
+      <c r="AD100" s="26"/>
+      <c r="AE100" s="26"/>
+      <c r="AF100" s="26"/>
+      <c r="AG100" s="26"/>
+      <c r="AH100" s="26"/>
+      <c r="AI100" s="26"/>
+      <c r="AJ100" s="26"/>
+      <c r="AK100" s="26"/>
+      <c r="AL100" s="27"/>
     </row>
     <row r="101" spans="3:38" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="C101" s="12">
@@ -4240,22 +4660,22 @@
       <c r="V102" s="10">
         <v>1</v>
       </c>
-      <c r="W102" s="30"/>
-      <c r="X102" s="30"/>
-      <c r="Y102" s="30"/>
-      <c r="Z102" s="30"/>
-      <c r="AA102" s="30"/>
-      <c r="AB102" s="30"/>
-      <c r="AC102" s="30"/>
-      <c r="AD102" s="30"/>
-      <c r="AE102" s="30"/>
-      <c r="AF102" s="30"/>
-      <c r="AG102" s="30"/>
-      <c r="AH102" s="30"/>
-      <c r="AI102" s="30"/>
-      <c r="AJ102" s="30"/>
-      <c r="AK102" s="30"/>
-      <c r="AL102" s="31"/>
+      <c r="W102" s="28"/>
+      <c r="X102" s="28"/>
+      <c r="Y102" s="28"/>
+      <c r="Z102" s="28"/>
+      <c r="AA102" s="28"/>
+      <c r="AB102" s="28"/>
+      <c r="AC102" s="28"/>
+      <c r="AD102" s="28"/>
+      <c r="AE102" s="28"/>
+      <c r="AF102" s="28"/>
+      <c r="AG102" s="28"/>
+      <c r="AH102" s="28"/>
+      <c r="AI102" s="28"/>
+      <c r="AJ102" s="28"/>
+      <c r="AK102" s="28"/>
+      <c r="AL102" s="29"/>
     </row>
     <row r="103" spans="3:38" ht="14.25" thickTop="1"/>
     <row r="106" spans="3:38" ht="14.25" thickBot="1">
@@ -4282,24 +4702,24 @@
       <c r="V107" s="3">
         <v>0</v>
       </c>
-      <c r="W107" s="28" t="s">
+      <c r="W107" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="X107" s="28"/>
-      <c r="Y107" s="28"/>
-      <c r="Z107" s="28"/>
-      <c r="AA107" s="28"/>
-      <c r="AB107" s="28"/>
-      <c r="AC107" s="28"/>
-      <c r="AD107" s="28"/>
-      <c r="AE107" s="28"/>
-      <c r="AF107" s="28"/>
-      <c r="AG107" s="28"/>
-      <c r="AH107" s="28"/>
-      <c r="AI107" s="28"/>
-      <c r="AJ107" s="28"/>
-      <c r="AK107" s="28"/>
-      <c r="AL107" s="29"/>
+      <c r="X107" s="26"/>
+      <c r="Y107" s="26"/>
+      <c r="Z107" s="26"/>
+      <c r="AA107" s="26"/>
+      <c r="AB107" s="26"/>
+      <c r="AC107" s="26"/>
+      <c r="AD107" s="26"/>
+      <c r="AE107" s="26"/>
+      <c r="AF107" s="26"/>
+      <c r="AG107" s="26"/>
+      <c r="AH107" s="26"/>
+      <c r="AI107" s="26"/>
+      <c r="AJ107" s="26"/>
+      <c r="AK107" s="26"/>
+      <c r="AL107" s="27"/>
     </row>
     <row r="108" spans="3:38" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="O108" s="12">
@@ -4384,21 +4804,21 @@
         <v>1</v>
       </c>
       <c r="W109" s="10"/>
-      <c r="X109" s="30"/>
-      <c r="Y109" s="30"/>
-      <c r="Z109" s="30"/>
-      <c r="AA109" s="30"/>
-      <c r="AB109" s="30"/>
-      <c r="AC109" s="30"/>
-      <c r="AD109" s="30"/>
-      <c r="AE109" s="30"/>
-      <c r="AF109" s="30"/>
-      <c r="AG109" s="30"/>
-      <c r="AH109" s="30"/>
-      <c r="AI109" s="30"/>
-      <c r="AJ109" s="30"/>
-      <c r="AK109" s="30"/>
-      <c r="AL109" s="31"/>
+      <c r="X109" s="28"/>
+      <c r="Y109" s="28"/>
+      <c r="Z109" s="28"/>
+      <c r="AA109" s="28"/>
+      <c r="AB109" s="28"/>
+      <c r="AC109" s="28"/>
+      <c r="AD109" s="28"/>
+      <c r="AE109" s="28"/>
+      <c r="AF109" s="28"/>
+      <c r="AG109" s="28"/>
+      <c r="AH109" s="28"/>
+      <c r="AI109" s="28"/>
+      <c r="AJ109" s="28"/>
+      <c r="AK109" s="28"/>
+      <c r="AL109" s="29"/>
     </row>
     <row r="110" spans="3:38" ht="15" thickTop="1" thickBot="1"/>
     <row r="111" spans="3:38" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
@@ -4418,28 +4838,28 @@
       <c r="W111" s="3">
         <v>0</v>
       </c>
-      <c r="X111" s="28"/>
-      <c r="Y111" s="28"/>
-      <c r="Z111" s="28"/>
-      <c r="AA111" s="28"/>
-      <c r="AB111" s="28"/>
-      <c r="AC111" s="28"/>
-      <c r="AD111" s="28"/>
-      <c r="AE111" s="28"/>
-      <c r="AF111" s="28"/>
-      <c r="AG111" s="28"/>
-      <c r="AH111" s="28"/>
-      <c r="AI111" s="28"/>
-      <c r="AJ111" s="28"/>
-      <c r="AK111" s="28"/>
-      <c r="AL111" s="29"/>
+      <c r="X111" s="26"/>
+      <c r="Y111" s="26"/>
+      <c r="Z111" s="26"/>
+      <c r="AA111" s="26"/>
+      <c r="AB111" s="26"/>
+      <c r="AC111" s="26"/>
+      <c r="AD111" s="26"/>
+      <c r="AE111" s="26"/>
+      <c r="AF111" s="26"/>
+      <c r="AG111" s="26"/>
+      <c r="AH111" s="26"/>
+      <c r="AI111" s="26"/>
+      <c r="AJ111" s="26"/>
+      <c r="AK111" s="26"/>
+      <c r="AL111" s="27"/>
     </row>
     <row r="112" spans="3:38" ht="22.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="O112" s="12">
         <v>2</v>
       </c>
       <c r="R112" s="11"/>
-      <c r="S112" s="37">
+      <c r="S112" s="35">
         <v>0</v>
       </c>
       <c r="T112" s="1">
@@ -4451,7 +4871,7 @@
       <c r="V112" s="1">
         <v>0</v>
       </c>
-      <c r="W112" s="38">
+      <c r="W112" s="36">
         <v>1</v>
       </c>
       <c r="X112" s="4">
@@ -4517,21 +4937,21 @@
       <c r="W113" s="10">
         <v>1</v>
       </c>
-      <c r="X113" s="30"/>
-      <c r="Y113" s="30"/>
-      <c r="Z113" s="30"/>
-      <c r="AA113" s="30"/>
-      <c r="AB113" s="30"/>
-      <c r="AC113" s="30"/>
-      <c r="AD113" s="30"/>
-      <c r="AE113" s="30"/>
-      <c r="AF113" s="30"/>
-      <c r="AG113" s="30"/>
-      <c r="AH113" s="30"/>
-      <c r="AI113" s="30"/>
-      <c r="AJ113" s="30"/>
-      <c r="AK113" s="30"/>
-      <c r="AL113" s="31"/>
+      <c r="X113" s="28"/>
+      <c r="Y113" s="28"/>
+      <c r="Z113" s="28"/>
+      <c r="AA113" s="28"/>
+      <c r="AB113" s="28"/>
+      <c r="AC113" s="28"/>
+      <c r="AD113" s="28"/>
+      <c r="AE113" s="28"/>
+      <c r="AF113" s="28"/>
+      <c r="AG113" s="28"/>
+      <c r="AH113" s="28"/>
+      <c r="AI113" s="28"/>
+      <c r="AJ113" s="28"/>
+      <c r="AK113" s="28"/>
+      <c r="AL113" s="29"/>
     </row>
     <row r="114" spans="15:38" ht="15" thickTop="1" thickBot="1"/>
     <row r="115" spans="15:38" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
@@ -4549,33 +4969,33 @@
       <c r="W115" s="3">
         <v>1</v>
       </c>
-      <c r="X115" s="28">
-        <v>0</v>
-      </c>
-      <c r="Y115" s="28"/>
-      <c r="Z115" s="28"/>
-      <c r="AA115" s="28"/>
-      <c r="AB115" s="28"/>
-      <c r="AC115" s="28"/>
-      <c r="AD115" s="28"/>
-      <c r="AE115" s="28"/>
-      <c r="AF115" s="28"/>
-      <c r="AG115" s="28"/>
-      <c r="AH115" s="28"/>
-      <c r="AI115" s="28"/>
-      <c r="AJ115" s="28"/>
-      <c r="AK115" s="28"/>
-      <c r="AL115" s="29"/>
+      <c r="X115" s="26">
+        <v>0</v>
+      </c>
+      <c r="Y115" s="26"/>
+      <c r="Z115" s="26"/>
+      <c r="AA115" s="26"/>
+      <c r="AB115" s="26"/>
+      <c r="AC115" s="26"/>
+      <c r="AD115" s="26"/>
+      <c r="AE115" s="26"/>
+      <c r="AF115" s="26"/>
+      <c r="AG115" s="26"/>
+      <c r="AH115" s="26"/>
+      <c r="AI115" s="26"/>
+      <c r="AJ115" s="26"/>
+      <c r="AK115" s="26"/>
+      <c r="AL115" s="27"/>
     </row>
     <row r="116" spans="15:38" ht="23.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="O116" s="12">
         <v>3</v>
       </c>
       <c r="R116" s="11"/>
-      <c r="S116" s="37">
-        <v>0</v>
-      </c>
-      <c r="T116" s="36">
+      <c r="S116" s="35">
+        <v>0</v>
+      </c>
+      <c r="T116" s="34">
         <v>0</v>
       </c>
       <c r="U116" s="1">
@@ -4584,10 +5004,10 @@
       <c r="V116" s="1">
         <v>0</v>
       </c>
-      <c r="W116" s="38">
-        <v>1</v>
-      </c>
-      <c r="X116" s="38">
+      <c r="W116" s="36">
+        <v>1</v>
+      </c>
+      <c r="X116" s="36">
         <v>0</v>
       </c>
       <c r="Y116" s="4">
@@ -4648,23 +5068,23 @@
       <c r="W117" s="10">
         <v>0</v>
       </c>
-      <c r="X117" s="30">
-        <v>1</v>
-      </c>
-      <c r="Y117" s="30"/>
-      <c r="Z117" s="30"/>
-      <c r="AA117" s="30"/>
-      <c r="AB117" s="30"/>
-      <c r="AC117" s="30"/>
-      <c r="AD117" s="30"/>
-      <c r="AE117" s="30"/>
-      <c r="AF117" s="30"/>
-      <c r="AG117" s="30"/>
-      <c r="AH117" s="30"/>
-      <c r="AI117" s="30"/>
-      <c r="AJ117" s="30"/>
-      <c r="AK117" s="30"/>
-      <c r="AL117" s="31"/>
+      <c r="X117" s="28">
+        <v>1</v>
+      </c>
+      <c r="Y117" s="28"/>
+      <c r="Z117" s="28"/>
+      <c r="AA117" s="28"/>
+      <c r="AB117" s="28"/>
+      <c r="AC117" s="28"/>
+      <c r="AD117" s="28"/>
+      <c r="AE117" s="28"/>
+      <c r="AF117" s="28"/>
+      <c r="AG117" s="28"/>
+      <c r="AH117" s="28"/>
+      <c r="AI117" s="28"/>
+      <c r="AJ117" s="28"/>
+      <c r="AK117" s="28"/>
+      <c r="AL117" s="29"/>
     </row>
     <row r="118" spans="15:38" ht="15" thickTop="1" thickBot="1"/>
     <row r="119" spans="15:38" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
@@ -4680,50 +5100,50 @@
       <c r="W119" s="3">
         <v>2</v>
       </c>
-      <c r="X119" s="28">
-        <v>1</v>
-      </c>
-      <c r="Y119" s="28">
-        <v>0</v>
-      </c>
-      <c r="Z119" s="28"/>
-      <c r="AA119" s="28"/>
-      <c r="AB119" s="28"/>
-      <c r="AC119" s="28"/>
-      <c r="AD119" s="28"/>
-      <c r="AE119" s="28"/>
-      <c r="AF119" s="28"/>
-      <c r="AG119" s="28"/>
-      <c r="AH119" s="28"/>
-      <c r="AI119" s="28"/>
-      <c r="AJ119" s="28"/>
-      <c r="AK119" s="28"/>
-      <c r="AL119" s="29"/>
+      <c r="X119" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y119" s="26">
+        <v>0</v>
+      </c>
+      <c r="Z119" s="26"/>
+      <c r="AA119" s="26"/>
+      <c r="AB119" s="26"/>
+      <c r="AC119" s="26"/>
+      <c r="AD119" s="26"/>
+      <c r="AE119" s="26"/>
+      <c r="AF119" s="26"/>
+      <c r="AG119" s="26"/>
+      <c r="AH119" s="26"/>
+      <c r="AI119" s="26"/>
+      <c r="AJ119" s="26"/>
+      <c r="AK119" s="26"/>
+      <c r="AL119" s="27"/>
     </row>
     <row r="120" spans="15:38" ht="24" customHeight="1" thickTop="1" thickBot="1">
       <c r="O120" s="12">
         <v>4</v>
       </c>
       <c r="R120" s="11"/>
-      <c r="S120" s="37">
-        <v>0</v>
-      </c>
-      <c r="T120" s="36">
-        <v>0</v>
-      </c>
-      <c r="U120" s="58">
+      <c r="S120" s="35">
+        <v>0</v>
+      </c>
+      <c r="T120" s="34">
+        <v>0</v>
+      </c>
+      <c r="U120" s="56">
         <v>1</v>
       </c>
       <c r="V120" s="1">
         <v>0</v>
       </c>
-      <c r="W120" s="38">
-        <v>1</v>
-      </c>
-      <c r="X120" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y120" s="38">
+      <c r="W120" s="36">
+        <v>1</v>
+      </c>
+      <c r="X120" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y120" s="36">
         <v>1</v>
       </c>
       <c r="Z120" s="4">
@@ -4770,7 +5190,7 @@
       <c r="R121" s="9"/>
       <c r="S121" s="10"/>
       <c r="T121" s="10"/>
-      <c r="U121" s="39">
+      <c r="U121" s="37">
         <v>1</v>
       </c>
       <c r="V121" s="10">
@@ -4779,25 +5199,25 @@
       <c r="W121" s="10">
         <v>1</v>
       </c>
-      <c r="X121" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y121" s="30">
-        <v>1</v>
-      </c>
-      <c r="Z121" s="30"/>
-      <c r="AA121" s="30"/>
-      <c r="AB121" s="30"/>
-      <c r="AC121" s="30"/>
-      <c r="AD121" s="30"/>
-      <c r="AE121" s="30"/>
-      <c r="AF121" s="30"/>
-      <c r="AG121" s="30"/>
-      <c r="AH121" s="30"/>
-      <c r="AI121" s="30"/>
-      <c r="AJ121" s="30"/>
-      <c r="AK121" s="30"/>
-      <c r="AL121" s="31"/>
+      <c r="X121" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y121" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z121" s="28"/>
+      <c r="AA121" s="28"/>
+      <c r="AB121" s="28"/>
+      <c r="AC121" s="28"/>
+      <c r="AD121" s="28"/>
+      <c r="AE121" s="28"/>
+      <c r="AF121" s="28"/>
+      <c r="AG121" s="28"/>
+      <c r="AH121" s="28"/>
+      <c r="AI121" s="28"/>
+      <c r="AJ121" s="28"/>
+      <c r="AK121" s="28"/>
+      <c r="AL121" s="29"/>
     </row>
     <row r="122" spans="15:38" ht="15" thickTop="1" thickBot="1"/>
     <row r="123" spans="15:38" ht="27.75" customHeight="1" thickBot="1">
@@ -4813,50 +5233,50 @@
       <c r="W123" s="17">
         <v>2</v>
       </c>
-      <c r="X123" s="32">
-        <v>1</v>
-      </c>
-      <c r="Y123" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z123" s="32"/>
-      <c r="AA123" s="32"/>
-      <c r="AB123" s="32"/>
-      <c r="AC123" s="32"/>
-      <c r="AD123" s="32"/>
-      <c r="AE123" s="32"/>
-      <c r="AF123" s="32"/>
-      <c r="AG123" s="32"/>
-      <c r="AH123" s="32"/>
-      <c r="AI123" s="32"/>
-      <c r="AJ123" s="32"/>
-      <c r="AK123" s="32"/>
-      <c r="AL123" s="33"/>
+      <c r="X123" s="30">
+        <v>1</v>
+      </c>
+      <c r="Y123" s="30">
+        <v>0</v>
+      </c>
+      <c r="Z123" s="30"/>
+      <c r="AA123" s="30"/>
+      <c r="AB123" s="30"/>
+      <c r="AC123" s="30"/>
+      <c r="AD123" s="30"/>
+      <c r="AE123" s="30"/>
+      <c r="AF123" s="30"/>
+      <c r="AG123" s="30"/>
+      <c r="AH123" s="30"/>
+      <c r="AI123" s="30"/>
+      <c r="AJ123" s="30"/>
+      <c r="AK123" s="30"/>
+      <c r="AL123" s="31"/>
     </row>
     <row r="124" spans="15:38" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="O124" s="12">
         <v>5</v>
       </c>
-      <c r="R124" s="24"/>
-      <c r="S124" s="36">
-        <v>0</v>
-      </c>
-      <c r="T124" s="36">
-        <v>0</v>
-      </c>
-      <c r="U124" s="36">
+      <c r="R124" s="22"/>
+      <c r="S124" s="34">
+        <v>0</v>
+      </c>
+      <c r="T124" s="34">
+        <v>0</v>
+      </c>
+      <c r="U124" s="34">
         <v>0</v>
       </c>
       <c r="V124" s="1">
         <v>1</v>
       </c>
-      <c r="W124" s="38">
-        <v>0</v>
-      </c>
-      <c r="X124" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y124" s="38">
+      <c r="W124" s="36">
+        <v>0</v>
+      </c>
+      <c r="X124" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y124" s="36">
         <v>0</v>
       </c>
       <c r="Z124" s="4">
@@ -4900,7 +5320,7 @@
       </c>
     </row>
     <row r="125" spans="15:38" ht="24" customHeight="1" thickTop="1" thickBot="1">
-      <c r="R125" s="25"/>
+      <c r="R125" s="23"/>
       <c r="S125" s="19"/>
       <c r="T125" s="19"/>
       <c r="U125" s="19">
@@ -4912,87 +5332,87 @@
       <c r="W125" s="19">
         <v>1</v>
       </c>
-      <c r="X125" s="34">
-        <v>0</v>
-      </c>
-      <c r="Y125" s="34">
-        <v>1</v>
-      </c>
-      <c r="Z125" s="34"/>
-      <c r="AA125" s="34"/>
-      <c r="AB125" s="34"/>
-      <c r="AC125" s="34"/>
-      <c r="AD125" s="34"/>
-      <c r="AE125" s="34"/>
-      <c r="AF125" s="34"/>
-      <c r="AG125" s="34"/>
-      <c r="AH125" s="34"/>
-      <c r="AI125" s="34"/>
-      <c r="AJ125" s="34"/>
-      <c r="AK125" s="34"/>
-      <c r="AL125" s="35"/>
+      <c r="X125" s="32">
+        <v>0</v>
+      </c>
+      <c r="Y125" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z125" s="32"/>
+      <c r="AA125" s="32"/>
+      <c r="AB125" s="32"/>
+      <c r="AC125" s="32"/>
+      <c r="AD125" s="32"/>
+      <c r="AE125" s="32"/>
+      <c r="AF125" s="32"/>
+      <c r="AG125" s="32"/>
+      <c r="AH125" s="32"/>
+      <c r="AI125" s="32"/>
+      <c r="AJ125" s="32"/>
+      <c r="AK125" s="32"/>
+      <c r="AL125" s="33"/>
     </row>
     <row r="126" spans="15:38" ht="14.25" thickBot="1"/>
     <row r="127" spans="15:38" ht="31.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="R127" s="2"/>
-      <c r="S127" s="40"/>
-      <c r="T127" s="40"/>
-      <c r="U127" s="40"/>
-      <c r="V127" s="40">
+      <c r="S127" s="38"/>
+      <c r="T127" s="38"/>
+      <c r="U127" s="38"/>
+      <c r="V127" s="38">
         <v>4</v>
       </c>
-      <c r="W127" s="40">
+      <c r="W127" s="38">
         <v>3</v>
       </c>
-      <c r="X127" s="40">
+      <c r="X127" s="38">
         <v>2</v>
       </c>
-      <c r="Y127" s="41">
-        <v>1</v>
-      </c>
-      <c r="Z127" s="41">
-        <v>0</v>
-      </c>
-      <c r="AA127" s="41"/>
-      <c r="AB127" s="41"/>
-      <c r="AC127" s="41"/>
-      <c r="AD127" s="41"/>
-      <c r="AE127" s="41"/>
-      <c r="AF127" s="41"/>
-      <c r="AG127" s="41"/>
-      <c r="AH127" s="41"/>
-      <c r="AI127" s="41"/>
-      <c r="AJ127" s="41"/>
-      <c r="AK127" s="41"/>
-      <c r="AL127" s="42"/>
+      <c r="Y127" s="39">
+        <v>1</v>
+      </c>
+      <c r="Z127" s="39">
+        <v>0</v>
+      </c>
+      <c r="AA127" s="39"/>
+      <c r="AB127" s="39"/>
+      <c r="AC127" s="39"/>
+      <c r="AD127" s="39"/>
+      <c r="AE127" s="39"/>
+      <c r="AF127" s="39"/>
+      <c r="AG127" s="39"/>
+      <c r="AH127" s="39"/>
+      <c r="AI127" s="39"/>
+      <c r="AJ127" s="39"/>
+      <c r="AK127" s="39"/>
+      <c r="AL127" s="40"/>
     </row>
     <row r="128" spans="15:38" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="O128" s="12">
         <v>6</v>
       </c>
       <c r="R128" s="11"/>
-      <c r="S128" s="36">
-        <v>0</v>
-      </c>
-      <c r="T128" s="36">
-        <v>0</v>
-      </c>
-      <c r="U128" s="36">
-        <v>0</v>
-      </c>
-      <c r="V128" s="58">
-        <v>1</v>
-      </c>
-      <c r="W128" s="38">
-        <v>0</v>
-      </c>
-      <c r="X128" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y128" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z128" s="38">
+      <c r="S128" s="34">
+        <v>0</v>
+      </c>
+      <c r="T128" s="34">
+        <v>0</v>
+      </c>
+      <c r="U128" s="34">
+        <v>0</v>
+      </c>
+      <c r="V128" s="56">
+        <v>1</v>
+      </c>
+      <c r="W128" s="36">
+        <v>0</v>
+      </c>
+      <c r="X128" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y128" s="36">
+        <v>0</v>
+      </c>
+      <c r="Z128" s="36">
         <v>1</v>
       </c>
       <c r="AA128" s="5">
@@ -5019,116 +5439,116 @@
       <c r="AH128" s="6">
         <v>0</v>
       </c>
-      <c r="AI128" s="43">
-        <v>0</v>
-      </c>
-      <c r="AJ128" s="43">
-        <v>0</v>
-      </c>
-      <c r="AK128" s="43">
-        <v>0</v>
-      </c>
-      <c r="AL128" s="45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="15:38" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="AI128" s="41">
+        <v>0</v>
+      </c>
+      <c r="AJ128" s="41">
+        <v>0</v>
+      </c>
+      <c r="AK128" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL128" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="12:38" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="R129" s="9"/>
-      <c r="S129" s="46"/>
-      <c r="T129" s="46"/>
-      <c r="U129" s="46"/>
-      <c r="V129" s="39">
-        <v>1</v>
-      </c>
-      <c r="W129" s="46">
-        <v>1</v>
-      </c>
-      <c r="X129" s="46">
-        <v>1</v>
-      </c>
-      <c r="Y129" s="47">
-        <v>0</v>
-      </c>
-      <c r="Z129" s="47">
-        <v>1</v>
-      </c>
-      <c r="AA129" s="47"/>
-      <c r="AB129" s="47"/>
-      <c r="AC129" s="47"/>
-      <c r="AD129" s="47"/>
-      <c r="AE129" s="47"/>
-      <c r="AF129" s="47"/>
-      <c r="AG129" s="47"/>
-      <c r="AH129" s="47"/>
-      <c r="AI129" s="47"/>
-      <c r="AJ129" s="47"/>
-      <c r="AK129" s="47"/>
-      <c r="AL129" s="48"/>
-    </row>
-    <row r="130" spans="15:38" ht="15" thickTop="1" thickBot="1"/>
-    <row r="131" spans="15:38" ht="27" customHeight="1" thickBot="1">
+      <c r="S129" s="44"/>
+      <c r="T129" s="44"/>
+      <c r="U129" s="44"/>
+      <c r="V129" s="37">
+        <v>1</v>
+      </c>
+      <c r="W129" s="44">
+        <v>1</v>
+      </c>
+      <c r="X129" s="44">
+        <v>1</v>
+      </c>
+      <c r="Y129" s="45">
+        <v>0</v>
+      </c>
+      <c r="Z129" s="45">
+        <v>1</v>
+      </c>
+      <c r="AA129" s="45"/>
+      <c r="AB129" s="45"/>
+      <c r="AC129" s="45"/>
+      <c r="AD129" s="45"/>
+      <c r="AE129" s="45"/>
+      <c r="AF129" s="45"/>
+      <c r="AG129" s="45"/>
+      <c r="AH129" s="45"/>
+      <c r="AI129" s="45"/>
+      <c r="AJ129" s="45"/>
+      <c r="AK129" s="45"/>
+      <c r="AL129" s="46"/>
+    </row>
+    <row r="130" spans="12:38" ht="15" thickTop="1" thickBot="1"/>
+    <row r="131" spans="12:38" ht="27" customHeight="1" thickBot="1">
       <c r="R131" s="16"/>
-      <c r="S131" s="51"/>
-      <c r="T131" s="51"/>
-      <c r="U131" s="51"/>
-      <c r="V131" s="51">
+      <c r="S131" s="49"/>
+      <c r="T131" s="49"/>
+      <c r="U131" s="49"/>
+      <c r="V131" s="49">
         <v>4</v>
       </c>
-      <c r="W131" s="51">
+      <c r="W131" s="49">
         <v>3</v>
       </c>
-      <c r="X131" s="51">
+      <c r="X131" s="49">
         <v>2</v>
       </c>
-      <c r="Y131" s="52">
-        <v>1</v>
-      </c>
-      <c r="Z131" s="52">
-        <v>0</v>
-      </c>
-      <c r="AA131" s="32"/>
-      <c r="AB131" s="52"/>
-      <c r="AC131" s="52"/>
-      <c r="AD131" s="52"/>
-      <c r="AE131" s="52"/>
-      <c r="AF131" s="52"/>
-      <c r="AG131" s="52"/>
-      <c r="AH131" s="52"/>
-      <c r="AI131" s="52"/>
-      <c r="AJ131" s="52"/>
-      <c r="AK131" s="52"/>
-      <c r="AL131" s="53"/>
-    </row>
-    <row r="132" spans="15:38" ht="27" customHeight="1" thickTop="1" thickBot="1">
+      <c r="Y131" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z131" s="50">
+        <v>0</v>
+      </c>
+      <c r="AA131" s="30"/>
+      <c r="AB131" s="50"/>
+      <c r="AC131" s="50"/>
+      <c r="AD131" s="50"/>
+      <c r="AE131" s="50"/>
+      <c r="AF131" s="50"/>
+      <c r="AG131" s="50"/>
+      <c r="AH131" s="50"/>
+      <c r="AI131" s="50"/>
+      <c r="AJ131" s="50"/>
+      <c r="AK131" s="50"/>
+      <c r="AL131" s="51"/>
+    </row>
+    <row r="132" spans="12:38" ht="27" customHeight="1" thickTop="1" thickBot="1">
       <c r="O132" s="12">
         <v>7</v>
       </c>
-      <c r="R132" s="24"/>
-      <c r="S132" s="36">
-        <v>0</v>
-      </c>
-      <c r="T132" s="36">
-        <v>0</v>
-      </c>
-      <c r="U132" s="36">
-        <v>0</v>
-      </c>
-      <c r="V132" s="36">
-        <v>0</v>
-      </c>
-      <c r="W132" s="49">
-        <v>0</v>
-      </c>
-      <c r="X132" s="38">
-        <v>0</v>
-      </c>
-      <c r="Y132" s="38">
-        <v>0</v>
-      </c>
-      <c r="Z132" s="38">
-        <v>1</v>
-      </c>
-      <c r="AA132" s="50">
+      <c r="R132" s="22"/>
+      <c r="S132" s="34">
+        <v>0</v>
+      </c>
+      <c r="T132" s="34">
+        <v>0</v>
+      </c>
+      <c r="U132" s="34">
+        <v>0</v>
+      </c>
+      <c r="V132" s="34">
+        <v>0</v>
+      </c>
+      <c r="W132" s="47">
+        <v>0</v>
+      </c>
+      <c r="X132" s="36">
+        <v>0</v>
+      </c>
+      <c r="Y132" s="36">
+        <v>0</v>
+      </c>
+      <c r="Z132" s="36">
+        <v>1</v>
+      </c>
+      <c r="AA132" s="48">
         <v>0</v>
       </c>
       <c r="AB132" s="5">
@@ -5152,100 +5572,100 @@
       <c r="AH132" s="6">
         <v>0</v>
       </c>
-      <c r="AI132" s="43">
-        <v>0</v>
-      </c>
-      <c r="AJ132" s="43">
-        <v>0</v>
-      </c>
-      <c r="AK132" s="43">
-        <v>0</v>
-      </c>
-      <c r="AL132" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="15:38" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="R133" s="25"/>
-      <c r="S133" s="55"/>
-      <c r="T133" s="55"/>
-      <c r="U133" s="55"/>
-      <c r="V133" s="55">
-        <v>1</v>
-      </c>
-      <c r="W133" s="55">
-        <v>1</v>
-      </c>
-      <c r="X133" s="55">
-        <v>1</v>
-      </c>
-      <c r="Y133" s="56">
-        <v>0</v>
-      </c>
-      <c r="Z133" s="56">
-        <v>1</v>
-      </c>
-      <c r="AA133" s="56"/>
-      <c r="AB133" s="56"/>
-      <c r="AC133" s="56"/>
-      <c r="AD133" s="56"/>
-      <c r="AE133" s="56"/>
-      <c r="AF133" s="56"/>
-      <c r="AG133" s="56"/>
-      <c r="AH133" s="56"/>
-      <c r="AI133" s="56"/>
-      <c r="AJ133" s="56"/>
-      <c r="AK133" s="56"/>
-      <c r="AL133" s="57"/>
-    </row>
-    <row r="135" spans="15:38" ht="32.25" customHeight="1" thickBot="1">
+      <c r="AI132" s="41">
+        <v>0</v>
+      </c>
+      <c r="AJ132" s="41">
+        <v>0</v>
+      </c>
+      <c r="AK132" s="41">
+        <v>0</v>
+      </c>
+      <c r="AL132" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="12:38" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="R133" s="23"/>
+      <c r="S133" s="53"/>
+      <c r="T133" s="53"/>
+      <c r="U133" s="53"/>
+      <c r="V133" s="53">
+        <v>1</v>
+      </c>
+      <c r="W133" s="53">
+        <v>1</v>
+      </c>
+      <c r="X133" s="53">
+        <v>1</v>
+      </c>
+      <c r="Y133" s="54">
+        <v>0</v>
+      </c>
+      <c r="Z133" s="54">
+        <v>1</v>
+      </c>
+      <c r="AA133" s="54"/>
+      <c r="AB133" s="54"/>
+      <c r="AC133" s="54"/>
+      <c r="AD133" s="54"/>
+      <c r="AE133" s="54"/>
+      <c r="AF133" s="54"/>
+      <c r="AG133" s="54"/>
+      <c r="AH133" s="54"/>
+      <c r="AI133" s="54"/>
+      <c r="AJ133" s="54"/>
+      <c r="AK133" s="54"/>
+      <c r="AL133" s="55"/>
+    </row>
+    <row r="135" spans="12:38" ht="32.25" customHeight="1" thickBot="1">
       <c r="O135" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="15:38" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="136" spans="12:38" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="R136" s="2"/>
       <c r="S136" s="3"/>
       <c r="T136" s="3"/>
       <c r="U136" s="3"/>
       <c r="V136" s="3"/>
       <c r="W136" s="3"/>
-      <c r="X136" s="28"/>
-      <c r="Y136" s="28"/>
-      <c r="Z136" s="28"/>
-      <c r="AA136" s="28"/>
-      <c r="AB136" s="28"/>
-      <c r="AC136" s="28"/>
-      <c r="AD136" s="28"/>
-      <c r="AE136" s="28"/>
-      <c r="AF136" s="28"/>
-      <c r="AG136" s="28"/>
-      <c r="AH136" s="28">
+      <c r="X136" s="26"/>
+      <c r="Y136" s="26"/>
+      <c r="Z136" s="26"/>
+      <c r="AA136" s="26"/>
+      <c r="AB136" s="26"/>
+      <c r="AC136" s="26"/>
+      <c r="AD136" s="26"/>
+      <c r="AE136" s="26"/>
+      <c r="AF136" s="26"/>
+      <c r="AG136" s="26"/>
+      <c r="AH136" s="26">
         <v>4</v>
       </c>
-      <c r="AI136" s="28">
+      <c r="AI136" s="26">
         <v>3</v>
       </c>
-      <c r="AJ136" s="28">
+      <c r="AJ136" s="26">
         <v>2</v>
       </c>
-      <c r="AK136" s="28">
-        <v>1</v>
-      </c>
-      <c r="AL136" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="15:38" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
+      <c r="AK136" s="26">
+        <v>1</v>
+      </c>
+      <c r="AL136" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="12:38" ht="29.25" customHeight="1" thickTop="1" thickBot="1">
       <c r="O137" s="12" t="s">
         <v>12</v>
       </c>
       <c r="R137" s="11"/>
-      <c r="S137" s="37"/>
+      <c r="S137" s="35"/>
       <c r="T137" s="1"/>
       <c r="U137" s="1"/>
       <c r="V137" s="1"/>
-      <c r="W137" s="38"/>
+      <c r="W137" s="36"/>
       <c r="X137" s="4"/>
       <c r="Y137" s="4"/>
       <c r="Z137" s="4"/>
@@ -5259,60 +5679,855 @@
       <c r="AH137" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AI137" s="44" t="s">
+      <c r="AI137" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AJ137" s="44" t="s">
+      <c r="AJ137" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AK137" s="44" t="s">
+      <c r="AK137" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AL137" s="44" t="s">
+      <c r="AL137" s="42" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="15:38" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="138" spans="12:38" ht="30.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="R138" s="9"/>
       <c r="S138" s="10"/>
       <c r="T138" s="10"/>
       <c r="U138" s="10"/>
       <c r="V138" s="10"/>
       <c r="W138" s="10"/>
-      <c r="X138" s="30"/>
-      <c r="Y138" s="30"/>
-      <c r="Z138" s="30"/>
-      <c r="AA138" s="30"/>
-      <c r="AB138" s="30"/>
-      <c r="AC138" s="30"/>
-      <c r="AD138" s="30"/>
-      <c r="AE138" s="30"/>
-      <c r="AF138" s="30"/>
-      <c r="AG138" s="30"/>
-      <c r="AH138" s="30">
-        <v>1</v>
-      </c>
-      <c r="AI138" s="30">
-        <v>1</v>
-      </c>
-      <c r="AJ138" s="30">
-        <v>1</v>
-      </c>
-      <c r="AK138" s="30">
-        <v>0</v>
-      </c>
-      <c r="AL138" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="15:38" ht="14.25" thickTop="1"/>
-    <row r="141" spans="15:38">
-      <c r="O141" s="12" t="s">
+      <c r="X138" s="28"/>
+      <c r="Y138" s="28"/>
+      <c r="Z138" s="28"/>
+      <c r="AA138" s="28"/>
+      <c r="AB138" s="28"/>
+      <c r="AC138" s="28"/>
+      <c r="AD138" s="28"/>
+      <c r="AE138" s="28"/>
+      <c r="AF138" s="28"/>
+      <c r="AG138" s="28"/>
+      <c r="AH138" s="28">
+        <v>1</v>
+      </c>
+      <c r="AI138" s="28">
+        <v>1</v>
+      </c>
+      <c r="AJ138" s="28">
+        <v>1</v>
+      </c>
+      <c r="AK138" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL138" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="12:38" ht="14.25" thickTop="1"/>
+    <row r="141" spans="12:38">
+      <c r="L141" s="61" t="s">
         <v>14</v>
       </c>
+      <c r="M141" s="62"/>
+      <c r="N141" s="62"/>
+      <c r="O141" s="62"/>
+      <c r="P141" s="62"/>
+      <c r="Q141" s="62"/>
+      <c r="R141" s="62"/>
+      <c r="S141" s="62"/>
+      <c r="T141" s="62"/>
+      <c r="U141" s="62"/>
+      <c r="V141" s="62"/>
+      <c r="W141" s="62"/>
+      <c r="X141" s="62"/>
+      <c r="Y141" s="62"/>
+    </row>
+    <row r="142" spans="12:38" ht="284.25" customHeight="1">
+      <c r="L142" s="62"/>
+      <c r="M142" s="62"/>
+      <c r="N142" s="62"/>
+      <c r="O142" s="62"/>
+      <c r="P142" s="62"/>
+      <c r="Q142" s="62"/>
+      <c r="R142" s="62"/>
+      <c r="S142" s="62"/>
+      <c r="T142" s="62"/>
+      <c r="U142" s="62"/>
+      <c r="V142" s="62"/>
+      <c r="W142" s="62"/>
+      <c r="X142" s="62"/>
+      <c r="Y142" s="62"/>
+    </row>
+    <row r="143" spans="12:38" ht="14.25" thickBot="1">
+      <c r="R143" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="S143" s="59"/>
+      <c r="T143" s="59"/>
+      <c r="U143" s="59"/>
+      <c r="V143" s="59"/>
+      <c r="W143" s="59"/>
+      <c r="X143" s="59"/>
+      <c r="Y143" s="59"/>
+    </row>
+    <row r="144" spans="12:38" ht="27.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="L144" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="M144" s="59"/>
+      <c r="N144" s="59"/>
+      <c r="O144" s="59"/>
+      <c r="P144" s="59"/>
+      <c r="R144" s="65" t="s">
+        <v>17</v>
+      </c>
+      <c r="S144" s="66">
+        <v>1100</v>
+      </c>
+      <c r="T144" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="U144" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="V144" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="W144" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="X144" s="69" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y144" s="70" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z144" s="65"/>
+      <c r="AA144" s="66"/>
+      <c r="AB144" s="67"/>
+      <c r="AC144" s="67"/>
+      <c r="AD144" s="68"/>
+      <c r="AE144" s="68"/>
+      <c r="AF144" s="69"/>
+      <c r="AG144" s="70"/>
+    </row>
+    <row r="145" spans="10:33" ht="14.25" thickTop="1"/>
+    <row r="146" spans="10:33">
+      <c r="M146" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="O146" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q146" s="71">
+        <v>1</v>
+      </c>
+      <c r="R146" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="S146" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="T146" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="U146" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="V146" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="W146" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="X146" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y146" s="64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="10:33" ht="14.25" thickBot="1">
+      <c r="M148" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="N148" s="59"/>
+      <c r="O148" s="59"/>
+      <c r="R148" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="S148" s="73"/>
+      <c r="T148" s="73"/>
+      <c r="U148" s="73"/>
+      <c r="V148" s="73"/>
+      <c r="W148" s="73"/>
+    </row>
+    <row r="149" spans="10:33" ht="33.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="P149" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q149" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="R149" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="S149" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="T149" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="U149" s="67" t="s">
+        <v>24</v>
+      </c>
+      <c r="V149" s="68" t="s">
+        <v>26</v>
+      </c>
+      <c r="W149" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="X149" s="69"/>
+      <c r="Y149" s="70"/>
+      <c r="Z149" s="65"/>
+      <c r="AA149" s="66"/>
+      <c r="AB149" s="67"/>
+      <c r="AC149" s="67"/>
+      <c r="AD149" s="68"/>
+      <c r="AE149" s="68"/>
+      <c r="AF149" s="69"/>
+      <c r="AG149" s="70"/>
+    </row>
+    <row r="150" spans="10:33" ht="14.25" thickTop="1"/>
+    <row r="151" spans="10:33">
+      <c r="M151" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="N151" s="60"/>
+      <c r="O151" s="60"/>
+      <c r="P151" s="64">
+        <v>1000</v>
+      </c>
+      <c r="Q151" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="R151" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="S151" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="T151" s="64">
+        <v>1000</v>
+      </c>
+      <c r="U151" s="64">
+        <v>1110</v>
+      </c>
+      <c r="V151" s="64">
+        <v>1101</v>
+      </c>
+      <c r="W151" s="64">
+        <v>1011</v>
+      </c>
+      <c r="X151" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y151" s="78" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z151" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA151" s="64"/>
+      <c r="AB151" s="63"/>
+    </row>
+    <row r="152" spans="10:33">
+      <c r="M152" s="60"/>
+      <c r="N152" s="60"/>
+      <c r="O152" s="60"/>
+      <c r="P152" s="64">
+        <v>100</v>
+      </c>
+      <c r="Q152" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="R152" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="S152" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="T152" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="U152" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="V152" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="W152" s="64">
+        <v>1101</v>
+      </c>
+      <c r="X152" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y152" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z152" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA152" s="64"/>
+      <c r="AB152" s="63"/>
+    </row>
+    <row r="153" spans="10:33">
+      <c r="M153" s="60"/>
+      <c r="N153" s="60"/>
+      <c r="O153" s="60"/>
+      <c r="P153" s="74">
+        <v>10</v>
+      </c>
+      <c r="Q153" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="R153" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="S153" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="T153" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="U153" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="V153" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="W153" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="X153" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y153" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z153" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA153" s="64"/>
+      <c r="AB153" s="63"/>
+    </row>
+    <row r="154" spans="10:33">
+      <c r="M154" s="60"/>
+      <c r="N154" s="60"/>
+      <c r="O154" s="60"/>
+      <c r="P154" s="74">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="R154" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="S154" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="T154" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="U154" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="V154" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="W154" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="X154" s="75" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y154" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z154" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA154" s="64"/>
+      <c r="AB154" s="63"/>
+    </row>
+    <row r="155" spans="10:33">
+      <c r="M155" s="60"/>
+      <c r="N155" s="60"/>
+      <c r="O155" s="60"/>
+      <c r="P155" s="74"/>
+      <c r="Q155" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="R155" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="S155" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="T155" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="U155" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="V155" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="W155" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="X155" s="75" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y155" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z155" s="76" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA155" s="64"/>
+      <c r="AB155" s="63"/>
+    </row>
+    <row r="156" spans="10:33">
+      <c r="M156" s="60"/>
+      <c r="N156" s="60"/>
+      <c r="O156" s="60"/>
+      <c r="P156" s="74"/>
+      <c r="Q156" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="R156" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="S156" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="T156" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="U156" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="V156" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="W156" s="64" t="s">
+        <v>44</v>
+      </c>
+      <c r="X156" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y156" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z156" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA156" s="64"/>
+      <c r="AB156" s="63"/>
+    </row>
+    <row r="157" spans="10:33">
+      <c r="M157" s="60"/>
+      <c r="N157" s="60"/>
+      <c r="O157" s="60"/>
+      <c r="P157" s="74"/>
+      <c r="Q157" s="74" t="s">
+        <v>45</v>
+      </c>
+      <c r="R157" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="S157" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="T157" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="U157" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="V157" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="W157" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="X157" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y157" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z157" s="76" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA157" s="63"/>
+      <c r="AB157" s="63"/>
+    </row>
+    <row r="158" spans="10:33">
+      <c r="M158" s="60"/>
+      <c r="N158" s="60"/>
+      <c r="O158" s="60"/>
+      <c r="P158" s="74"/>
+      <c r="Q158" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="R158" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="S158" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="T158" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="U158" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="V158" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="W158" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="X158" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y158" s="77" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z158" s="76" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA158" s="63"/>
+      <c r="AB158" s="63"/>
+    </row>
+    <row r="159" spans="10:33">
+      <c r="P159" s="72"/>
+      <c r="Q159" s="72"/>
+      <c r="R159" s="64"/>
+      <c r="S159" s="64"/>
+      <c r="T159" s="64"/>
+      <c r="U159" s="64"/>
+      <c r="V159" s="64"/>
+      <c r="W159" s="64"/>
+      <c r="X159" s="64"/>
+      <c r="Y159" s="72"/>
+      <c r="Z159" s="63"/>
+      <c r="AA159" s="63"/>
+      <c r="AB159" s="63"/>
+    </row>
+    <row r="160" spans="10:33" ht="13.5" customHeight="1">
+      <c r="J160" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="K160" s="61"/>
+      <c r="L160" s="61"/>
+      <c r="M160" s="61"/>
+      <c r="N160" s="61"/>
+      <c r="O160" s="61"/>
+      <c r="P160" s="61"/>
+      <c r="Q160" s="61"/>
+      <c r="R160" s="61"/>
+      <c r="S160" s="61"/>
+      <c r="T160" s="64"/>
+      <c r="U160" s="64"/>
+      <c r="V160" s="64"/>
+      <c r="W160" s="64"/>
+      <c r="X160" s="64"/>
+      <c r="Y160" s="72"/>
+      <c r="Z160" s="63"/>
+      <c r="AA160" s="63"/>
+      <c r="AB160" s="63"/>
+    </row>
+    <row r="161" spans="10:28">
+      <c r="J161" s="61"/>
+      <c r="K161" s="61"/>
+      <c r="L161" s="61"/>
+      <c r="M161" s="61"/>
+      <c r="N161" s="61"/>
+      <c r="O161" s="61"/>
+      <c r="P161" s="61"/>
+      <c r="Q161" s="61"/>
+      <c r="R161" s="61"/>
+      <c r="S161" s="61"/>
+      <c r="T161" s="63"/>
+      <c r="U161" s="63"/>
+      <c r="V161" s="63"/>
+      <c r="W161" s="63"/>
+      <c r="X161" s="63"/>
+      <c r="Y161" s="63"/>
+      <c r="Z161" s="63"/>
+      <c r="AA161" s="63"/>
+      <c r="AB161" s="63"/>
+    </row>
+    <row r="162" spans="10:28">
+      <c r="J162" s="61"/>
+      <c r="K162" s="61"/>
+      <c r="L162" s="61"/>
+      <c r="M162" s="61"/>
+      <c r="N162" s="61"/>
+      <c r="O162" s="61"/>
+      <c r="P162" s="61"/>
+      <c r="Q162" s="61"/>
+      <c r="R162" s="61"/>
+      <c r="S162" s="61"/>
+      <c r="T162" s="63"/>
+      <c r="U162" s="63"/>
+      <c r="V162" s="63"/>
+      <c r="W162" s="63"/>
+      <c r="X162" s="63"/>
+      <c r="Y162" s="63"/>
+      <c r="Z162" s="63"/>
+    </row>
+    <row r="163" spans="10:28">
+      <c r="J163" s="61"/>
+      <c r="K163" s="61"/>
+      <c r="L163" s="61"/>
+      <c r="M163" s="61"/>
+      <c r="N163" s="61"/>
+      <c r="O163" s="61"/>
+      <c r="P163" s="61"/>
+      <c r="Q163" s="61"/>
+      <c r="R163" s="61"/>
+      <c r="S163" s="61"/>
+      <c r="T163" s="63"/>
+      <c r="U163" s="63"/>
+      <c r="V163" s="63"/>
+      <c r="W163" s="63"/>
+      <c r="X163" s="63"/>
+      <c r="Y163" s="63"/>
+      <c r="Z163" s="63"/>
+    </row>
+    <row r="164" spans="10:28">
+      <c r="J164" s="61"/>
+      <c r="K164" s="61"/>
+      <c r="L164" s="61"/>
+      <c r="M164" s="61"/>
+      <c r="N164" s="61"/>
+      <c r="O164" s="61"/>
+      <c r="P164" s="61"/>
+      <c r="Q164" s="61"/>
+      <c r="R164" s="61"/>
+      <c r="S164" s="61"/>
+      <c r="T164" s="63"/>
+      <c r="U164" s="63"/>
+      <c r="V164" s="63"/>
+      <c r="W164" s="63"/>
+      <c r="X164" s="63"/>
+      <c r="Y164" s="63"/>
+      <c r="Z164" s="63"/>
+    </row>
+    <row r="165" spans="10:28">
+      <c r="J165" s="61"/>
+      <c r="K165" s="61"/>
+      <c r="L165" s="61"/>
+      <c r="M165" s="61"/>
+      <c r="N165" s="61"/>
+      <c r="O165" s="61"/>
+      <c r="P165" s="61"/>
+      <c r="Q165" s="61"/>
+      <c r="R165" s="61"/>
+      <c r="S165" s="61"/>
+      <c r="T165" s="63"/>
+      <c r="U165" s="63"/>
+      <c r="V165" s="63"/>
+      <c r="W165" s="63"/>
+      <c r="X165" s="63"/>
+      <c r="Y165" s="63"/>
+      <c r="Z165" s="63"/>
+    </row>
+    <row r="166" spans="10:28">
+      <c r="J166" s="61"/>
+      <c r="K166" s="61"/>
+      <c r="L166" s="61"/>
+      <c r="M166" s="61"/>
+      <c r="N166" s="61"/>
+      <c r="O166" s="61"/>
+      <c r="P166" s="61"/>
+      <c r="Q166" s="61"/>
+      <c r="R166" s="61"/>
+      <c r="S166" s="61"/>
+      <c r="T166" s="63"/>
+      <c r="U166" s="63"/>
+      <c r="V166" s="63"/>
+      <c r="W166" s="63"/>
+      <c r="X166" s="63"/>
+      <c r="Y166" s="63"/>
+      <c r="Z166" s="63"/>
+    </row>
+    <row r="167" spans="10:28">
+      <c r="J167" s="61"/>
+      <c r="K167" s="61"/>
+      <c r="L167" s="61"/>
+      <c r="M167" s="61"/>
+      <c r="N167" s="61"/>
+      <c r="O167" s="61"/>
+      <c r="P167" s="61"/>
+      <c r="Q167" s="61"/>
+      <c r="R167" s="61"/>
+      <c r="S167" s="61"/>
+      <c r="T167" s="63"/>
+      <c r="U167" s="63"/>
+      <c r="V167" s="63"/>
+      <c r="W167" s="63"/>
+      <c r="X167" s="63"/>
+      <c r="Y167" s="63"/>
+      <c r="Z167" s="63"/>
+    </row>
+    <row r="168" spans="10:28">
+      <c r="J168" s="61"/>
+      <c r="K168" s="61"/>
+      <c r="L168" s="61"/>
+      <c r="M168" s="61"/>
+      <c r="N168" s="61"/>
+      <c r="O168" s="61"/>
+      <c r="P168" s="61"/>
+      <c r="Q168" s="61"/>
+      <c r="R168" s="61"/>
+      <c r="S168" s="61"/>
+      <c r="T168" s="63"/>
+      <c r="U168" s="63"/>
+      <c r="V168" s="63"/>
+      <c r="W168" s="63"/>
+      <c r="X168" s="63"/>
+      <c r="Y168" s="63"/>
+      <c r="Z168" s="63"/>
+    </row>
+    <row r="169" spans="10:28">
+      <c r="J169" s="61"/>
+      <c r="K169" s="61"/>
+      <c r="L169" s="61"/>
+      <c r="M169" s="61"/>
+      <c r="N169" s="61"/>
+      <c r="O169" s="61"/>
+      <c r="P169" s="61"/>
+      <c r="Q169" s="61"/>
+      <c r="R169" s="61"/>
+      <c r="S169" s="61"/>
+      <c r="T169" s="63"/>
+      <c r="U169" s="63"/>
+      <c r="V169" s="63"/>
+      <c r="W169" s="63"/>
+      <c r="X169" s="63"/>
+      <c r="Y169" s="63"/>
+      <c r="Z169" s="63"/>
+    </row>
+    <row r="170" spans="10:28">
+      <c r="J170" s="61"/>
+      <c r="K170" s="61"/>
+      <c r="L170" s="61"/>
+      <c r="M170" s="61"/>
+      <c r="N170" s="61"/>
+      <c r="O170" s="61"/>
+      <c r="P170" s="61"/>
+      <c r="Q170" s="61"/>
+      <c r="R170" s="61"/>
+      <c r="S170" s="61"/>
+      <c r="T170" s="63"/>
+      <c r="U170" s="63"/>
+      <c r="V170" s="63"/>
+      <c r="W170" s="63"/>
+      <c r="X170" s="63"/>
+      <c r="Y170" s="63"/>
+      <c r="Z170" s="63"/>
+    </row>
+    <row r="171" spans="10:28">
+      <c r="J171" s="61"/>
+      <c r="K171" s="61"/>
+      <c r="L171" s="61"/>
+      <c r="M171" s="61"/>
+      <c r="N171" s="61"/>
+      <c r="O171" s="61"/>
+      <c r="P171" s="61"/>
+      <c r="Q171" s="61"/>
+      <c r="R171" s="61"/>
+      <c r="S171" s="61"/>
+      <c r="T171" s="63"/>
+      <c r="U171" s="63"/>
+      <c r="V171" s="63"/>
+      <c r="W171" s="63"/>
+      <c r="X171" s="63"/>
+      <c r="Y171" s="63"/>
+      <c r="Z171" s="63"/>
+    </row>
+    <row r="172" spans="10:28">
+      <c r="J172" s="61"/>
+      <c r="K172" s="61"/>
+      <c r="L172" s="61"/>
+      <c r="M172" s="61"/>
+      <c r="N172" s="61"/>
+      <c r="O172" s="61"/>
+      <c r="P172" s="61"/>
+      <c r="Q172" s="61"/>
+      <c r="R172" s="61"/>
+      <c r="S172" s="61"/>
+      <c r="T172" s="63"/>
+      <c r="U172" s="63"/>
+      <c r="V172" s="63"/>
+      <c r="W172" s="63"/>
+      <c r="X172" s="63"/>
+      <c r="Y172" s="63"/>
+      <c r="Z172" s="63"/>
+    </row>
+    <row r="173" spans="10:28">
+      <c r="J173" s="61"/>
+      <c r="K173" s="61"/>
+      <c r="L173" s="61"/>
+      <c r="M173" s="61"/>
+      <c r="N173" s="61"/>
+      <c r="O173" s="61"/>
+      <c r="P173" s="61"/>
+      <c r="Q173" s="61"/>
+      <c r="R173" s="61"/>
+      <c r="S173" s="61"/>
+    </row>
+    <row r="174" spans="10:28">
+      <c r="J174" s="61"/>
+      <c r="K174" s="61"/>
+      <c r="L174" s="61"/>
+      <c r="M174" s="61"/>
+      <c r="N174" s="61"/>
+      <c r="O174" s="61"/>
+      <c r="P174" s="61"/>
+      <c r="Q174" s="61"/>
+      <c r="R174" s="61"/>
+      <c r="S174" s="61"/>
+    </row>
+    <row r="175" spans="10:28">
+      <c r="J175" s="61"/>
+      <c r="K175" s="61"/>
+      <c r="L175" s="61"/>
+      <c r="M175" s="61"/>
+      <c r="N175" s="61"/>
+      <c r="O175" s="61"/>
+      <c r="P175" s="61"/>
+      <c r="Q175" s="61"/>
+      <c r="R175" s="61"/>
+      <c r="S175" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="12">
+    <mergeCell ref="J160:S175"/>
+    <mergeCell ref="M151:O158"/>
+    <mergeCell ref="L141:Y142"/>
+    <mergeCell ref="L144:P144"/>
+    <mergeCell ref="R143:Y143"/>
+    <mergeCell ref="M148:O148"/>
+    <mergeCell ref="R148:W148"/>
     <mergeCell ref="R27:V27"/>
     <mergeCell ref="R51:V51"/>
     <mergeCell ref="R63:V63"/>
@@ -5322,6 +6537,9 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="R144" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
